--- a/base.xlsx
+++ b/base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RC\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="970">
   <si>
     <t>Клиентская база</t>
   </si>
@@ -2451,6 +2451,489 @@
   </si>
   <si>
     <t>Кафе</t>
+  </si>
+  <si>
+    <t>Сушимен.com</t>
+  </si>
+  <si>
+    <t>+7 950 893-44-81</t>
+  </si>
+  <si>
+    <t>afrikanda-11@yandex.ru</t>
+  </si>
+  <si>
+    <t>https://сушимен.com/</t>
+  </si>
+  <si>
+    <t>+7 (8152) 75‒12‒22</t>
+  </si>
+  <si>
+    <t>Иван-чай</t>
+  </si>
+  <si>
+    <t>+7‒909‒562‒32‒66, +7‒921‒271‒65‒68</t>
+  </si>
+  <si>
+    <t>+7 921 270-93-10</t>
+  </si>
+  <si>
+    <t>Мама Рома</t>
+  </si>
+  <si>
+    <t>franchising@mamaroma.ru</t>
+  </si>
+  <si>
+    <t>+7 (921) 933-56-53</t>
+  </si>
+  <si>
+    <t>https://www.mamaroma.ru</t>
+  </si>
+  <si>
+    <t>Сим-сим</t>
+  </si>
+  <si>
+    <t>+7 (8152) 44‒03‒67, +7‒953‒755‒55‒56</t>
+  </si>
+  <si>
+    <t>+7 953 755-55-56</t>
+  </si>
+  <si>
+    <t>Дары моря</t>
+  </si>
+  <si>
+    <t>+7 (908) 605-78-53</t>
+  </si>
+  <si>
+    <t>https://vk.com/darmor51</t>
+  </si>
+  <si>
+    <t>М-клуб</t>
+  </si>
+  <si>
+    <t>delivery-mclub.ru</t>
+  </si>
+  <si>
+    <t>+7 921 171-01-95</t>
+  </si>
+  <si>
+    <t>Deli Café</t>
+  </si>
+  <si>
+    <t>ipribylskaia@azimuthotels.com</t>
+  </si>
+  <si>
+    <t>+7 (960) 020-24-61</t>
+  </si>
+  <si>
+    <t>Андижан</t>
+  </si>
+  <si>
+    <t>+7‒950‒898‒54‒76</t>
+  </si>
+  <si>
+    <t>Мускат</t>
+  </si>
+  <si>
+    <t>+7 (921) 708-11-72</t>
+  </si>
+  <si>
+    <t>Баревич</t>
+  </si>
+  <si>
+    <t>barbarevich.ru</t>
+  </si>
+  <si>
+    <t>+7 921 708-00-01</t>
+  </si>
+  <si>
+    <t>+7 (8152) 78‒00‒01</t>
+  </si>
+  <si>
+    <t>barbarevich_murmansk@mail.ru</t>
+  </si>
+  <si>
+    <t>Алан</t>
+  </si>
+  <si>
+    <t>+7 921 725-46-26</t>
+  </si>
+  <si>
+    <t>Шаурма Лаваш</t>
+  </si>
+  <si>
+    <t>mylavash.ru</t>
+  </si>
+  <si>
+    <t>feedback@sushi-market.com</t>
+  </si>
+  <si>
+    <t>+7 921 034-80-76</t>
+  </si>
+  <si>
+    <t>chinar51.ru</t>
+  </si>
+  <si>
+    <t>Илмин</t>
+  </si>
+  <si>
+    <t>+7 921 518-80-70</t>
+  </si>
+  <si>
+    <t>chinar.51@yandex.ru</t>
+  </si>
+  <si>
+    <t>бонджорно.рф</t>
+  </si>
+  <si>
+    <t>bongiorno@yandex.ru</t>
+  </si>
+  <si>
+    <t>+7 (960) 022 52-98</t>
+  </si>
+  <si>
+    <t>Бон Джорно</t>
+  </si>
+  <si>
+    <t>+7 911 340-15-71</t>
+  </si>
+  <si>
+    <t>Домашние пельмешки</t>
+  </si>
+  <si>
+    <t>+7‒911‒340‒15‒71</t>
+  </si>
+  <si>
+    <t>https://vk.com/club194858979</t>
+  </si>
+  <si>
+    <t>http://ogonek-51.ru/</t>
+  </si>
+  <si>
+    <t>Огонек 51</t>
+  </si>
+  <si>
+    <t>B2B@ONEPRICECOFFEE.COM</t>
+  </si>
+  <si>
+    <t>+7 495 015 31 50</t>
+  </si>
+  <si>
+    <t>One Price Coffee</t>
+  </si>
+  <si>
+    <t>https://onepricecoffee.com</t>
+  </si>
+  <si>
+    <t>info.murmansk@toyota-axsel.com</t>
+  </si>
+  <si>
+    <t>Тойота Центр Мурманск</t>
+  </si>
+  <si>
+    <t>+8 (8152) 79-00-00</t>
+  </si>
+  <si>
+    <t>https://axsel-toyota.ru</t>
+  </si>
+  <si>
+    <t>АвтоСлон</t>
+  </si>
+  <si>
+    <t>601010.ru</t>
+  </si>
+  <si>
+    <t>+7 911 345-45-45</t>
+  </si>
+  <si>
+    <t>+7 (8152) 60-10-10, +7 (911) 345-45-45</t>
+  </si>
+  <si>
+    <t>murmansk.pragmatika.lada.ru</t>
+  </si>
+  <si>
+    <t>Прагматика Лада</t>
+  </si>
+  <si>
+    <t>sales@lada-murmansk.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 63‒21‒46</t>
+  </si>
+  <si>
+    <t>+7 965 007-34-33</t>
+  </si>
+  <si>
+    <t>info@mazda-murmansk.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 63-24-51</t>
+  </si>
+  <si>
+    <t>Mazda Автопойнт</t>
+  </si>
+  <si>
+    <t>https://vk.com/mazda51</t>
+  </si>
+  <si>
+    <t>abm@hyundai-abm.ru</t>
+  </si>
+  <si>
+    <t>8 (8152) 63-23-10</t>
+  </si>
+  <si>
+    <t>+7 815 263-66-36</t>
+  </si>
+  <si>
+    <t>https://vk.com/hyundai_avtobrokermurmansk</t>
+  </si>
+  <si>
+    <t>Hyundai Авто Брокер Мурманск</t>
+  </si>
+  <si>
+    <t>http://www.renault-axsel.ru/</t>
+  </si>
+  <si>
+    <t>+7 (8152) 69-00-00</t>
+  </si>
+  <si>
+    <t>+7 (909) 562-52-46</t>
+  </si>
+  <si>
+    <t>Аксель-Ренорд</t>
+  </si>
+  <si>
+    <t>+7 (8152) 63-22-70</t>
+  </si>
+  <si>
+    <t>Volkswagen Гуд-Авто</t>
+  </si>
+  <si>
+    <t>info@vw-good-auto.ru</t>
+  </si>
+  <si>
+    <t>https://vw-good-auto.ru/</t>
+  </si>
+  <si>
+    <t>auto@plaza51.ru</t>
+  </si>
+  <si>
+    <t>Автоплаза</t>
+  </si>
+  <si>
+    <t>(815-2) 20-21-41</t>
+  </si>
+  <si>
+    <t>https://autoplaza51.ru</t>
+  </si>
+  <si>
+    <t>Škoda Север-Авто</t>
+  </si>
+  <si>
+    <t>info@sevavto.ru</t>
+  </si>
+  <si>
+    <t>sevavto.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 777‒077</t>
+  </si>
+  <si>
+    <t>+7 (8152) 65-25-13</t>
+  </si>
+  <si>
+    <t>Омега моторс</t>
+  </si>
+  <si>
+    <t>suzuki51.ru</t>
+  </si>
+  <si>
+    <t>administrator@suzuki51.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 77-70-77</t>
+  </si>
+  <si>
+    <t>РРТ, официальный дилер OMODA</t>
+  </si>
+  <si>
+    <t>+7 (8152) 65-29-02</t>
+  </si>
+  <si>
+    <t>Авто Плюс</t>
+  </si>
+  <si>
+    <t>life6@mail.ru</t>
+  </si>
+  <si>
+    <t>+7 (950) 898-64-47</t>
+  </si>
+  <si>
+    <t>https://vk.com/auto_plus51</t>
+  </si>
+  <si>
+    <t>СпецАвто</t>
+  </si>
+  <si>
+    <t>+7 996 348-99-66</t>
+  </si>
+  <si>
+    <t>+7 (996) 348-99-66</t>
+  </si>
+  <si>
+    <t>+7 (8152) 65-25-75</t>
+  </si>
+  <si>
+    <t>Changan Мурманск</t>
+  </si>
+  <si>
+    <t>agerasimov51@mail.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 75-44-24</t>
+  </si>
+  <si>
+    <t>Dedal auto</t>
+  </si>
+  <si>
+    <t>uaz-info@am51.ru</t>
+  </si>
+  <si>
+    <t>+7 (815) 265-28-31</t>
+  </si>
+  <si>
+    <t>https://uaz-avtomarket.ru</t>
+  </si>
+  <si>
+    <t>Автомаркет</t>
+  </si>
+  <si>
+    <t>marketing@prestige-auto51.ru</t>
+  </si>
+  <si>
+    <t>Престиж-Авто</t>
+  </si>
+  <si>
+    <t>https://prestige51.faw-motors.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 626‒626</t>
+  </si>
+  <si>
+    <t>info@happyautos.ru</t>
+  </si>
+  <si>
+    <t>Happyautos</t>
+  </si>
+  <si>
+    <t>happyautos.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 70‒12‒14</t>
+  </si>
+  <si>
+    <t>Автосалоны</t>
+  </si>
+  <si>
+    <t>Страховые компании</t>
+  </si>
+  <si>
+    <t>Регион 51</t>
+  </si>
+  <si>
+    <t>insur-region51.ru</t>
+  </si>
+  <si>
+    <t>info@region-51.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 780‒355</t>
+  </si>
+  <si>
+    <t>ОСАГО-ЦЕНТР</t>
+  </si>
+  <si>
+    <t>osago-centr.ru</t>
+  </si>
+  <si>
+    <t>51murmansk@mail.ru</t>
+  </si>
+  <si>
+    <t>+7 952 294-96-22</t>
+  </si>
+  <si>
+    <t>+7 (8152) 205‒777, +7 (8152) 200‒755</t>
+  </si>
+  <si>
+    <t>v-leto.ru</t>
+  </si>
+  <si>
+    <t>V-leto</t>
+  </si>
+  <si>
+    <t>v-leto@mail.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 45-51-11</t>
+  </si>
+  <si>
+    <t>+7 (8152) 478‒111</t>
+  </si>
+  <si>
+    <t>СОГАЗ</t>
+  </si>
+  <si>
+    <t>sogaz.ru</t>
+  </si>
+  <si>
+    <t>8‒800‒333‒08‒88</t>
+  </si>
+  <si>
+    <t>press@sogaz.ru</t>
+  </si>
+  <si>
+    <t>Ингосстрах</t>
+  </si>
+  <si>
+    <t>ingos.ru</t>
+  </si>
+  <si>
+    <t>filial@murmansk.ingos.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 23-34-54</t>
+  </si>
+  <si>
+    <t>АльфаСтрахование</t>
+  </si>
+  <si>
+    <t>alfastrah.ru</t>
+  </si>
+  <si>
+    <t>alfastrah@alfastrah.ru</t>
+  </si>
+  <si>
+    <t>corp@ugsk.ru</t>
+  </si>
+  <si>
+    <t>+7 (495) 970-10-70</t>
+  </si>
+  <si>
+    <t>Югория страхование</t>
+  </si>
+  <si>
+    <t>https://vk.com/ugoria24</t>
+  </si>
+  <si>
+    <t>Мурманполис</t>
+  </si>
+  <si>
+    <t>murmanpolis.ru</t>
+  </si>
+  <si>
+    <t>murmanpolis@yandex.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 55-56-00</t>
   </si>
 </sst>
 </file>
@@ -2679,7 +3162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2742,6 +3225,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2766,19 +3264,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3063,10 +3555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G535"/>
+  <dimension ref="A1:G533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,15 +3579,15 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3121,15 +3613,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -3923,15 +4415,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
@@ -4060,15 +4552,15 @@
       <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -4111,15 +4603,15 @@
       <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
@@ -4492,15 +4984,15 @@
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="40"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="45"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
@@ -5001,15 +5493,15 @@
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="40"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="45"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
@@ -5634,15 +6126,15 @@
       <c r="G128" s="12"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="46" t="s">
         <v>658</v>
       </c>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
@@ -6239,15 +6731,15 @@
       <c r="G159" s="12"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="47" t="s">
+      <c r="A160" s="39" t="s">
         <v>807</v>
       </c>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="48"/>
-      <c r="G160" s="49"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="40"/>
+      <c r="G160" s="41"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
@@ -6404,7 +6896,7 @@
       <c r="C168" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="D168" s="46">
+      <c r="D168" s="38">
         <v>89212827222</v>
       </c>
       <c r="E168" s="4" t="s">
@@ -6559,15 +7051,15 @@
       <c r="G175" s="12"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="50" t="s">
+      <c r="A176" s="42" t="s">
         <v>808</v>
       </c>
-      <c r="B176" s="48"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
-      <c r="G176" s="49"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="41"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
@@ -6993,204 +7485,304 @@
       <c r="G197" s="12"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="12"/>
+      <c r="A198" s="14">
+        <v>187</v>
+      </c>
+      <c r="B198" s="33" t="s">
+        <v>809</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>812</v>
+      </c>
       <c r="D198" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E198" s="12"/>
+        <v>813</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>811</v>
+      </c>
       <c r="F198" s="11" t="s">
-        <v>119</v>
+        <v>810</v>
       </c>
       <c r="G198" s="12"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="33"/>
+      <c r="A199" s="14">
+        <v>188</v>
+      </c>
+      <c r="B199" s="33" t="s">
+        <v>814</v>
+      </c>
       <c r="C199" s="12"/>
       <c r="D199" s="11" t="s">
-        <v>119</v>
+        <v>815</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="11" t="s">
-        <v>119</v>
+        <v>816</v>
       </c>
       <c r="G199" s="12"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="12"/>
+      <c r="A200" s="14">
+        <v>189</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>820</v>
+      </c>
       <c r="D200" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E200" s="12"/>
+        <v>819</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>818</v>
+      </c>
       <c r="F200" s="11" t="s">
-        <v>119</v>
+        <v>819</v>
       </c>
       <c r="G200" s="12"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="30"/>
+      <c r="A201" s="14">
+        <v>190</v>
+      </c>
+      <c r="B201" s="33" t="s">
+        <v>821</v>
+      </c>
       <c r="C201" s="12"/>
       <c r="D201" s="11" t="s">
-        <v>119</v>
+        <v>822</v>
       </c>
       <c r="E201" s="12"/>
       <c r="F201" s="11" t="s">
-        <v>119</v>
+        <v>823</v>
       </c>
       <c r="G201" s="12"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="30"/>
-      <c r="C202" s="12"/>
+      <c r="A202" s="14">
+        <v>191</v>
+      </c>
+      <c r="B202" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>826</v>
+      </c>
       <c r="D202" s="11" t="s">
-        <v>119</v>
+        <v>825</v>
       </c>
       <c r="E202" s="12"/>
       <c r="F202" s="11" t="s">
-        <v>119</v>
+        <v>825</v>
       </c>
       <c r="G202" s="12"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="12"/>
+      <c r="A203" s="14">
+        <v>192</v>
+      </c>
+      <c r="B203" s="33" t="s">
+        <v>827</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>828</v>
+      </c>
       <c r="D203" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E203" s="12"/>
+        <v>829</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="F203" s="11" t="s">
-        <v>119</v>
+        <v>829</v>
       </c>
       <c r="G203" s="12"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
-      <c r="B204" s="30"/>
+      <c r="A204" s="14">
+        <v>193</v>
+      </c>
+      <c r="B204" s="33" t="s">
+        <v>830</v>
+      </c>
       <c r="C204" s="12"/>
       <c r="D204" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E204" s="12"/>
+        <v>832</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="F204" s="11" t="s">
-        <v>119</v>
+        <v>832</v>
       </c>
       <c r="G204" s="12"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
-      <c r="B205" s="30"/>
+      <c r="A205" s="14">
+        <v>194</v>
+      </c>
+      <c r="B205" s="33" t="s">
+        <v>833</v>
+      </c>
       <c r="C205" s="12"/>
       <c r="D205" s="11" t="s">
-        <v>119</v>
+        <v>834</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="11" t="s">
-        <v>119</v>
+        <v>834</v>
       </c>
       <c r="G205" s="12"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
-      <c r="B206" s="30"/>
+      <c r="A206" s="14">
+        <v>195</v>
+      </c>
+      <c r="B206" s="33" t="s">
+        <v>835</v>
+      </c>
       <c r="C206" s="12"/>
       <c r="D206" s="11" t="s">
-        <v>119</v>
+        <v>836</v>
       </c>
       <c r="E206" s="12"/>
       <c r="F206" s="11" t="s">
-        <v>119</v>
+        <v>836</v>
       </c>
       <c r="G206" s="12"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="14"/>
-      <c r="B207" s="30"/>
-      <c r="C207" s="12"/>
+      <c r="A207" s="14">
+        <v>196</v>
+      </c>
+      <c r="B207" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>838</v>
+      </c>
       <c r="D207" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E207" s="12"/>
+        <v>840</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>841</v>
+      </c>
       <c r="F207" s="11" t="s">
-        <v>119</v>
+        <v>839</v>
       </c>
       <c r="G207" s="12"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
-      <c r="B208" s="30"/>
+      <c r="A208" s="14">
+        <v>197</v>
+      </c>
+      <c r="B208" s="33" t="s">
+        <v>842</v>
+      </c>
       <c r="C208" s="12"/>
       <c r="D208" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E208" s="12"/>
       <c r="F208" s="11" t="s">
-        <v>119</v>
+        <v>843</v>
       </c>
       <c r="G208" s="12"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
-      <c r="B209" s="30"/>
-      <c r="C209" s="12"/>
+      <c r="A209" s="14">
+        <v>198</v>
+      </c>
+      <c r="B209" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>845</v>
+      </c>
       <c r="D209" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E209" s="12"/>
+      <c r="E209" s="4" t="s">
+        <v>846</v>
+      </c>
       <c r="F209" s="11" t="s">
-        <v>119</v>
+        <v>847</v>
       </c>
       <c r="G209" s="12"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
-      <c r="B210" s="30"/>
-      <c r="C210" s="12"/>
+      <c r="A210" s="14">
+        <v>199</v>
+      </c>
+      <c r="B210" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>848</v>
+      </c>
       <c r="D210" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E210" s="12"/>
+        <v>850</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="F210" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G210" s="12"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
-      <c r="B211" s="30"/>
-      <c r="C211" s="12"/>
+      <c r="A211" s="14">
+        <v>200</v>
+      </c>
+      <c r="B211" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>852</v>
+      </c>
       <c r="D211" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E211" s="12"/>
+        <v>854</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="F211" s="11" t="s">
-        <v>119</v>
+        <v>854</v>
       </c>
       <c r="G211" s="12"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
-      <c r="B212" s="30"/>
-      <c r="C212" s="12"/>
+      <c r="A212" s="14">
+        <v>201</v>
+      </c>
+      <c r="B212" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>859</v>
+      </c>
       <c r="D212" s="11" t="s">
-        <v>119</v>
+        <v>858</v>
       </c>
       <c r="E212" s="12"/>
       <c r="F212" s="11" t="s">
-        <v>119</v>
+        <v>856</v>
       </c>
       <c r="G212" s="12"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
-      <c r="B213" s="30"/>
-      <c r="C213" s="12"/>
+      <c r="A213" s="14">
+        <v>202</v>
+      </c>
+      <c r="B213" s="33" t="s">
+        <v>861</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="D213" s="11" t="s">
         <v>119</v>
       </c>
@@ -7201,286 +7793,422 @@
       <c r="G213" s="12"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
-      <c r="B214" s="30"/>
-      <c r="C214" s="12"/>
+      <c r="A214" s="14">
+        <v>203</v>
+      </c>
+      <c r="B214" s="33" t="s">
+        <v>864</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>865</v>
+      </c>
       <c r="D214" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E214" s="12"/>
+        <v>863</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>862</v>
+      </c>
       <c r="F214" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G214" s="12"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="14"/>
-      <c r="B215" s="30"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E215" s="12"/>
-      <c r="F215" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G215" s="12"/>
+      <c r="A215" s="52" t="s">
+        <v>935</v>
+      </c>
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="53"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="53"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
-      <c r="B216" s="30"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E216" s="12"/>
-      <c r="F216" s="11" t="s">
-        <v>119</v>
+      <c r="A216" s="14">
+        <v>204</v>
+      </c>
+      <c r="B216" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D216" s="16" t="s">
+        <v>868</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F216" s="16" t="s">
+        <v>868</v>
       </c>
       <c r="G216" s="12"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
-      <c r="B217" s="30"/>
-      <c r="C217" s="12"/>
+      <c r="A217" s="14">
+        <v>205</v>
+      </c>
+      <c r="B217" s="51" t="s">
+        <v>870</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>871</v>
+      </c>
       <c r="D217" s="11" t="s">
-        <v>119</v>
+        <v>873</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="11" t="s">
-        <v>119</v>
+        <v>872</v>
       </c>
       <c r="G217" s="12"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
-      <c r="B218" s="30"/>
-      <c r="C218" s="12"/>
+      <c r="A218" s="14">
+        <v>206</v>
+      </c>
+      <c r="B218" s="30" t="s">
+        <v>875</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>874</v>
+      </c>
       <c r="D218" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E218" s="12"/>
+        <v>877</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>876</v>
+      </c>
       <c r="F218" s="11" t="s">
-        <v>119</v>
+        <v>878</v>
       </c>
       <c r="G218" s="12"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
-      <c r="B219" s="30"/>
-      <c r="C219" s="12"/>
+      <c r="A219" s="14">
+        <v>207</v>
+      </c>
+      <c r="B219" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>882</v>
+      </c>
       <c r="D219" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E219" s="12"/>
+        <v>880</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>879</v>
+      </c>
       <c r="F219" s="11" t="s">
-        <v>119</v>
+        <v>880</v>
       </c>
       <c r="G219" s="12"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
-      <c r="B220" s="30"/>
-      <c r="C220" s="12"/>
+      <c r="A220" s="14">
+        <v>208</v>
+      </c>
+      <c r="B220" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>886</v>
+      </c>
       <c r="D220" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E220" s="12"/>
+        <v>884</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>883</v>
+      </c>
       <c r="F220" s="11" t="s">
-        <v>119</v>
+        <v>885</v>
       </c>
       <c r="G220" s="12"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="14"/>
-      <c r="B221" s="30"/>
-      <c r="C221" s="12"/>
+      <c r="A221" s="14">
+        <v>209</v>
+      </c>
+      <c r="B221" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>888</v>
+      </c>
       <c r="D221" s="11" t="s">
-        <v>119</v>
+        <v>889</v>
       </c>
       <c r="E221" s="12"/>
       <c r="F221" s="11" t="s">
-        <v>119</v>
+        <v>890</v>
       </c>
       <c r="G221" s="12"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="14"/>
-      <c r="B222" s="30"/>
-      <c r="C222" s="12"/>
+      <c r="A222" s="14">
+        <v>210</v>
+      </c>
+      <c r="B222" s="30" t="s">
+        <v>893</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>895</v>
+      </c>
       <c r="D222" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E222" s="12"/>
+        <v>892</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>894</v>
+      </c>
       <c r="F222" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G222" s="12"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="14"/>
-      <c r="B223" s="30"/>
-      <c r="C223" s="12"/>
+      <c r="A223" s="14">
+        <v>211</v>
+      </c>
+      <c r="B223" s="30" t="s">
+        <v>897</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>899</v>
+      </c>
       <c r="D223" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E223" s="12"/>
+        <v>898</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="F223" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G223" s="12"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="14"/>
-      <c r="B224" s="30"/>
-      <c r="C224" s="12"/>
+      <c r="A224" s="14">
+        <v>212</v>
+      </c>
+      <c r="B224" s="30" t="s">
+        <v>900</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>902</v>
+      </c>
       <c r="D224" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E224" s="12"/>
+        <v>904</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>901</v>
+      </c>
       <c r="F224" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G224" s="12"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="14"/>
-      <c r="B225" s="30"/>
-      <c r="C225" s="12"/>
+      <c r="A225" s="14">
+        <v>213</v>
+      </c>
+      <c r="B225" s="30" t="s">
+        <v>905</v>
+      </c>
+      <c r="C225" s="27" t="s">
+        <v>906</v>
+      </c>
       <c r="D225" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E225" s="12"/>
+        <v>903</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>907</v>
+      </c>
       <c r="F225" s="11" t="s">
-        <v>119</v>
+        <v>908</v>
       </c>
       <c r="G225" s="12"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="14"/>
-      <c r="B226" s="30"/>
+      <c r="A226" s="14">
+        <v>214</v>
+      </c>
+      <c r="B226" s="30" t="s">
+        <v>909</v>
+      </c>
       <c r="C226" s="12"/>
       <c r="D226" s="11" t="s">
-        <v>119</v>
+        <v>910</v>
       </c>
       <c r="E226" s="12"/>
       <c r="F226" s="11" t="s">
-        <v>119</v>
+        <v>910</v>
       </c>
       <c r="G226" s="12"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
-      <c r="B227" s="30"/>
-      <c r="C227" s="12"/>
+      <c r="A227" s="14">
+        <v>215</v>
+      </c>
+      <c r="B227" s="30" t="s">
+        <v>911</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="D227" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E227" s="12"/>
+        <v>913</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="F227" s="11" t="s">
-        <v>119</v>
+        <v>913</v>
       </c>
       <c r="G227" s="12"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="14"/>
-      <c r="B228" s="30"/>
+      <c r="A228" s="14">
+        <v>216</v>
+      </c>
+      <c r="B228" s="30" t="s">
+        <v>915</v>
+      </c>
       <c r="C228" s="12"/>
       <c r="D228" s="11" t="s">
-        <v>119</v>
+        <v>917</v>
       </c>
       <c r="E228" s="12"/>
       <c r="F228" s="11" t="s">
-        <v>119</v>
+        <v>916</v>
       </c>
       <c r="G228" s="12"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
-      <c r="B229" s="30"/>
+      <c r="A229" s="14">
+        <v>217</v>
+      </c>
+      <c r="B229" s="30" t="s">
+        <v>919</v>
+      </c>
       <c r="C229" s="12"/>
       <c r="D229" s="11" t="s">
-        <v>119</v>
+        <v>918</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="11" t="s">
-        <v>119</v>
+        <v>918</v>
       </c>
       <c r="G229" s="12"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
-      <c r="B230" s="30"/>
+      <c r="A230" s="14">
+        <v>218</v>
+      </c>
+      <c r="B230" s="30" t="s">
+        <v>922</v>
+      </c>
       <c r="C230" s="12"/>
       <c r="D230" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E230" s="12"/>
+        <v>921</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>920</v>
+      </c>
       <c r="F230" s="11" t="s">
-        <v>119</v>
+        <v>921</v>
       </c>
       <c r="G230" s="12"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="14"/>
-      <c r="B231" s="30"/>
-      <c r="C231" s="12"/>
+      <c r="A231" s="14">
+        <v>219</v>
+      </c>
+      <c r="B231" s="30" t="s">
+        <v>926</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="D231" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E231" s="12"/>
+        <v>924</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>923</v>
+      </c>
       <c r="F231" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G231" s="12"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
-      <c r="B232" s="30"/>
-      <c r="C232" s="12"/>
+      <c r="A232" s="14">
+        <v>220</v>
+      </c>
+      <c r="B232" s="30" t="s">
+        <v>928</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>929</v>
+      </c>
       <c r="D232" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E232" s="12"/>
+        <v>930</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>927</v>
+      </c>
       <c r="F232" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G232" s="12"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
-      <c r="B233" s="30"/>
-      <c r="C233" s="12"/>
+      <c r="A233" s="14">
+        <v>221</v>
+      </c>
+      <c r="B233" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>933</v>
+      </c>
       <c r="D233" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E233" s="12"/>
+        <v>934</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>931</v>
+      </c>
       <c r="F233" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G233" s="12"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
-      <c r="B234" s="30"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E234" s="12"/>
-      <c r="F234" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G234" s="12"/>
+      <c r="A234" s="39" t="s">
+        <v>936</v>
+      </c>
+      <c r="B234" s="40"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="40"/>
+      <c r="F234" s="40"/>
+      <c r="G234" s="41"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="14"/>
-      <c r="B235" s="30"/>
-      <c r="C235" s="12"/>
+      <c r="B235" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>938</v>
+      </c>
       <c r="D235" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E235" s="12"/>
+        <v>940</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>939</v>
+      </c>
       <c r="F235" s="11" t="s">
         <v>119</v>
       </c>
@@ -7488,38 +8216,56 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
-      <c r="B236" s="30"/>
-      <c r="C236" s="12"/>
+      <c r="B236" s="30" t="s">
+        <v>941</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>942</v>
+      </c>
       <c r="D236" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E236" s="12"/>
+        <v>945</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>943</v>
+      </c>
       <c r="F236" s="11" t="s">
-        <v>119</v>
+        <v>944</v>
       </c>
       <c r="G236" s="12"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
-      <c r="B237" s="30"/>
-      <c r="C237" s="12"/>
+      <c r="B237" s="30" t="s">
+        <v>947</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>946</v>
+      </c>
       <c r="D237" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E237" s="12"/>
+        <v>950</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>948</v>
+      </c>
       <c r="F237" s="11" t="s">
-        <v>119</v>
+        <v>949</v>
       </c>
       <c r="G237" s="12"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="14"/>
-      <c r="B238" s="30"/>
-      <c r="C238" s="12"/>
+      <c r="B238" s="30" t="s">
+        <v>951</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>952</v>
+      </c>
       <c r="D238" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E238" s="12"/>
+        <v>953</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="F238" s="11" t="s">
         <v>119</v>
       </c>
@@ -7527,12 +8273,18 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="14"/>
-      <c r="B239" s="30"/>
-      <c r="C239" s="12"/>
+      <c r="B239" s="30" t="s">
+        <v>955</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>956</v>
+      </c>
       <c r="D239" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E239" s="12"/>
+        <v>958</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>957</v>
+      </c>
       <c r="F239" s="11" t="s">
         <v>119</v>
       </c>
@@ -7540,12 +8292,18 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
-      <c r="B240" s="30"/>
-      <c r="C240" s="12"/>
+      <c r="B240" s="30" t="s">
+        <v>959</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>960</v>
+      </c>
       <c r="D240" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E240" s="12"/>
+      <c r="E240" s="4" t="s">
+        <v>961</v>
+      </c>
       <c r="F240" s="11" t="s">
         <v>119</v>
       </c>
@@ -7553,12 +8311,18 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
-      <c r="B241" s="30"/>
-      <c r="C241" s="12"/>
+      <c r="B241" s="30" t="s">
+        <v>964</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>965</v>
+      </c>
       <c r="D241" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E241" s="12"/>
+        <v>963</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>962</v>
+      </c>
       <c r="F241" s="11" t="s">
         <v>119</v>
       </c>
@@ -7566,14 +8330,20 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
-      <c r="B242" s="30"/>
-      <c r="C242" s="12"/>
+      <c r="B242" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>967</v>
+      </c>
       <c r="D242" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E242" s="12"/>
+        <v>969</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>968</v>
+      </c>
       <c r="F242" s="11" t="s">
-        <v>119</v>
+        <v>969</v>
       </c>
       <c r="G242" s="12"/>
     </row>
@@ -9138,30 +9908,18 @@
       <c r="G362" s="12"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
-      <c r="B363" s="30"/>
-      <c r="C363" s="12"/>
-      <c r="D363" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E363" s="12"/>
-      <c r="F363" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G363" s="12"/>
+      <c r="C363" s="35"/>
+      <c r="D363" s="35"/>
+      <c r="E363" s="35"/>
+      <c r="F363" s="35"/>
+      <c r="G363" s="35"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
-      <c r="B364" s="30"/>
-      <c r="C364" s="12"/>
-      <c r="D364" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E364" s="12"/>
-      <c r="F364" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G364" s="12"/>
+      <c r="C364" s="35"/>
+      <c r="D364" s="35"/>
+      <c r="E364" s="35"/>
+      <c r="F364" s="35"/>
+      <c r="G364" s="35"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C365" s="35"/>
@@ -10346,32 +11104,20 @@
       <c r="F533" s="35"/>
       <c r="G533" s="35"/>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C534" s="35"/>
-      <c r="D534" s="35"/>
-      <c r="E534" s="35"/>
-      <c r="F534" s="35"/>
-      <c r="G534" s="35"/>
-    </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C535" s="35"/>
-      <c r="D535" s="35"/>
-      <c r="E535" s="35"/>
-      <c r="F535" s="35"/>
-      <c r="G535" s="35"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A215:G215"/>
+    <mergeCell ref="A234:G234"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A160:G160"/>
     <mergeCell ref="A176:G176"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A129:G129"/>
     <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A54:G54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
@@ -10614,8 +11360,55 @@
     <hyperlink ref="C196" r:id="rId238"/>
     <hyperlink ref="E197" r:id="rId239"/>
     <hyperlink ref="C197" r:id="rId240"/>
+    <hyperlink ref="E198" r:id="rId241"/>
+    <hyperlink ref="C198" r:id="rId242"/>
+    <hyperlink ref="E200" r:id="rId243"/>
+    <hyperlink ref="C200" r:id="rId244"/>
+    <hyperlink ref="C202" r:id="rId245"/>
+    <hyperlink ref="E203" r:id="rId246"/>
+    <hyperlink ref="E204" r:id="rId247"/>
+    <hyperlink ref="E207" r:id="rId248"/>
+    <hyperlink ref="E209" r:id="rId249"/>
+    <hyperlink ref="E210" r:id="rId250"/>
+    <hyperlink ref="E211" r:id="rId251"/>
+    <hyperlink ref="C212" r:id="rId252"/>
+    <hyperlink ref="C213" r:id="rId253"/>
+    <hyperlink ref="E214" r:id="rId254"/>
+    <hyperlink ref="C214" r:id="rId255"/>
+    <hyperlink ref="E216" r:id="rId256"/>
+    <hyperlink ref="C216" r:id="rId257"/>
+    <hyperlink ref="E218" r:id="rId258"/>
+    <hyperlink ref="E219" r:id="rId259"/>
+    <hyperlink ref="C219" r:id="rId260"/>
+    <hyperlink ref="E220" r:id="rId261"/>
+    <hyperlink ref="C220" r:id="rId262"/>
+    <hyperlink ref="C221" r:id="rId263"/>
+    <hyperlink ref="E222" r:id="rId264"/>
+    <hyperlink ref="C222" r:id="rId265"/>
+    <hyperlink ref="E223" r:id="rId266"/>
+    <hyperlink ref="C223" r:id="rId267"/>
+    <hyperlink ref="E224" r:id="rId268"/>
+    <hyperlink ref="C225" r:id="rId269" display="https://vk.com/away.php?to=http%3A%2F%2Fsuzuki51.ru&amp;cc_key="/>
+    <hyperlink ref="E225" r:id="rId270"/>
+    <hyperlink ref="E227" r:id="rId271"/>
+    <hyperlink ref="C227" r:id="rId272"/>
+    <hyperlink ref="E230" r:id="rId273"/>
+    <hyperlink ref="E231" r:id="rId274"/>
+    <hyperlink ref="C231" r:id="rId275"/>
+    <hyperlink ref="E232" r:id="rId276"/>
+    <hyperlink ref="C232" r:id="rId277"/>
+    <hyperlink ref="E233" r:id="rId278"/>
+    <hyperlink ref="E235" r:id="rId279"/>
+    <hyperlink ref="E236" r:id="rId280"/>
+    <hyperlink ref="E237" r:id="rId281"/>
+    <hyperlink ref="E238" r:id="rId282"/>
+    <hyperlink ref="E239" r:id="rId283"/>
+    <hyperlink ref="E240" r:id="rId284"/>
+    <hyperlink ref="E241" r:id="rId285"/>
+    <hyperlink ref="C241" r:id="rId286"/>
+    <hyperlink ref="E242" r:id="rId287"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId241"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId288"/>
 </worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1077">
   <si>
     <t>Клиентская база</t>
   </si>
@@ -2934,6 +2934,327 @@
   </si>
   <si>
     <t>+7 (8152) 55-56-00</t>
+  </si>
+  <si>
+    <t>Слетать.ру</t>
+  </si>
+  <si>
+    <t>https://sletat.ru</t>
+  </si>
+  <si>
+    <t>+7‒921‒708‒07‒40, +7 (8152) 780‒740</t>
+  </si>
+  <si>
+    <t>ta@sletat.ru</t>
+  </si>
+  <si>
+    <t>murmansk@medexpress.ru</t>
+  </si>
+  <si>
+    <t>+7 8152 40 05 50</t>
+  </si>
+  <si>
+    <t>https://medexpress.ru</t>
+  </si>
+  <si>
+    <t>Медэкспресс</t>
+  </si>
+  <si>
+    <t>+7 (8152) 25-16-51</t>
+  </si>
+  <si>
+    <t>251651@bk.ru</t>
+  </si>
+  <si>
+    <t>Аквилон мебель.</t>
+  </si>
+  <si>
+    <t>https://vk.com/akvilonmmsk</t>
+  </si>
+  <si>
+    <t>8 (800) 555-39-80</t>
+  </si>
+  <si>
+    <t>manager@yourroom.ru</t>
+  </si>
+  <si>
+    <t>вашакомната.рф</t>
+  </si>
+  <si>
+    <t>ВашаКомната.РФ</t>
+  </si>
+  <si>
+    <t>info@mebelbaum.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 20-38-86</t>
+  </si>
+  <si>
+    <t>Мебельбаум</t>
+  </si>
+  <si>
+    <t>https://vk.com/mebelbaum</t>
+  </si>
+  <si>
+    <t>komfort.murmansk@mail.ru</t>
+  </si>
+  <si>
+    <t>http://mebelkomfort51.ru</t>
+  </si>
+  <si>
+    <t>Комфорт</t>
+  </si>
+  <si>
+    <t>+7 (8152) 42‒23‒69</t>
+  </si>
+  <si>
+    <t>druzhba1998@mail.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 43‒60‒02</t>
+  </si>
+  <si>
+    <t>Дружба</t>
+  </si>
+  <si>
+    <t>mebelmurman.ru</t>
+  </si>
+  <si>
+    <t>hello@mebel51.ru</t>
+  </si>
+  <si>
+    <t>Мебель ТВОЯ</t>
+  </si>
+  <si>
+    <t>+7 (996) 934-93-15</t>
+  </si>
+  <si>
+    <t>https://mebel51.ru</t>
+  </si>
+  <si>
+    <t>8 (8152)69-99-01</t>
+  </si>
+  <si>
+    <t>https://shatura51.ru</t>
+  </si>
+  <si>
+    <t>Шатура</t>
+  </si>
+  <si>
+    <t>Мебельер51</t>
+  </si>
+  <si>
+    <t>https://mebeler51.ru</t>
+  </si>
+  <si>
+    <t>+7 964 680-66-08</t>
+  </si>
+  <si>
+    <t>Galliano</t>
+  </si>
+  <si>
+    <t>karina_fileva@mail.ru</t>
+  </si>
+  <si>
+    <t>+7 (951) 296-30-31</t>
+  </si>
+  <si>
+    <t>https://vk.com/galliano51</t>
+  </si>
+  <si>
+    <t>Мебель комплект</t>
+  </si>
+  <si>
+    <t>Nadegka@mail.ru</t>
+  </si>
+  <si>
+    <t>https://vk.com/mebel_komplekt_mk</t>
+  </si>
+  <si>
+    <t>+7 (8152) 259‒259</t>
+  </si>
+  <si>
+    <t>Мебель-Мастер</t>
+  </si>
+  <si>
+    <t>http://furnitura-murmansk.ru</t>
+  </si>
+  <si>
+    <t>+7‒921‒162‒18‒48</t>
+  </si>
+  <si>
+    <t>ruvikom51@rambler.ru</t>
+  </si>
+  <si>
+    <t>+7 921 162-18-48</t>
+  </si>
+  <si>
+    <t>+7 902 035-56-81</t>
+  </si>
+  <si>
+    <t>https://vk.com/murmanskpinskdrev</t>
+  </si>
+  <si>
+    <t>Пинскдрев</t>
+  </si>
+  <si>
+    <t>Авангард мебель</t>
+  </si>
+  <si>
+    <t>+7 953 752-46-82</t>
+  </si>
+  <si>
+    <t>avangardmeb@yandex.ru</t>
+  </si>
+  <si>
+    <t>https://vk.com/avangardmurmansk</t>
+  </si>
+  <si>
+    <t>+7 (8152) 25-16-52</t>
+  </si>
+  <si>
+    <t>Мебельные магазины</t>
+  </si>
+  <si>
+    <t>Пилигрим</t>
+  </si>
+  <si>
+    <t>np@nordpilgrim.com</t>
+  </si>
+  <si>
+    <t>+7 (8152) 47-36-51, 47-39-93</t>
+  </si>
+  <si>
+    <t>https://vk.com/piligrim_nord</t>
+  </si>
+  <si>
+    <t>pintapub@gmail.com</t>
+  </si>
+  <si>
+    <t>+7 (911) 323-1313</t>
+  </si>
+  <si>
+    <t>Кинза</t>
+  </si>
+  <si>
+    <t>+7 911 323-13-13</t>
+  </si>
+  <si>
+    <t>https://vk.com/kinza_murmansk</t>
+  </si>
+  <si>
+    <t>Пивоварни</t>
+  </si>
+  <si>
+    <t>Лаундж бары</t>
+  </si>
+  <si>
+    <t>+7-(953)-300-45-86</t>
+  </si>
+  <si>
+    <t>https://t.me/theoffice_murmansk</t>
+  </si>
+  <si>
+    <t>https://vk.com/theoffice_mur</t>
+  </si>
+  <si>
+    <t>Nargilia The Office</t>
+  </si>
+  <si>
+    <t>Квесты</t>
+  </si>
+  <si>
+    <t>info@breakout51.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 56-65-88</t>
+  </si>
+  <si>
+    <t>Брейкаут</t>
+  </si>
+  <si>
+    <t>https://vk.com/breakout51</t>
+  </si>
+  <si>
+    <t>murmansk2@questrooms.com</t>
+  </si>
+  <si>
+    <t>8 (8152) 78-05-37</t>
+  </si>
+  <si>
+    <t>https://мурманск.квеструм.рф</t>
+  </si>
+  <si>
+    <t>Квеструм.рф</t>
+  </si>
+  <si>
+    <t>https://vk.com/horror51_quest</t>
+  </si>
+  <si>
+    <t>HORROR_51</t>
+  </si>
+  <si>
+    <t>+7‒921‒163‒10‒40</t>
+  </si>
+  <si>
+    <t>+7 929 142-39-37</t>
+  </si>
+  <si>
+    <t>+7 932 406-15-90</t>
+  </si>
+  <si>
+    <t>https://vk.com/fortboyard_murmansk</t>
+  </si>
+  <si>
+    <t>Форт Боярд</t>
+  </si>
+  <si>
+    <t>+7 (8152) 68-37-43</t>
+  </si>
+  <si>
+    <t>Мистипарк</t>
+  </si>
+  <si>
+    <t>prazdnik51@mistypark51.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 21-50-05</t>
+  </si>
+  <si>
+    <t>https://mistypark51.ru</t>
+  </si>
+  <si>
+    <t>boshe-park.ru</t>
+  </si>
+  <si>
+    <t>Боше-парк</t>
+  </si>
+  <si>
+    <t>+7 991 669-93-16</t>
+  </si>
+  <si>
+    <t>+7‒991‒669‒93‒16</t>
+  </si>
+  <si>
+    <t>murmansk.dommi-studio.ru</t>
+  </si>
+  <si>
+    <t>Домми</t>
+  </si>
+  <si>
+    <t>+7 981 300-16-16</t>
+  </si>
+  <si>
+    <t>ПАРОВОЗИК51</t>
+  </si>
+  <si>
+    <t>+8 (950) 899-11-35</t>
+  </si>
+  <si>
+    <t>https://vk.com/parovozik_51</t>
+  </si>
+  <si>
+    <t>Детские парки</t>
   </si>
 </sst>
 </file>
@@ -3162,7 +3483,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3228,6 +3549,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3235,6 +3565,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3249,28 +3591,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3557,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270:G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,15 +3909,15 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3613,15 +3943,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -4415,15 +4745,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
@@ -4552,15 +4882,15 @@
       <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -4603,15 +4933,15 @@
       <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
@@ -4984,15 +5314,15 @@
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="45"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="52"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
@@ -5493,15 +5823,15 @@
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="45"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="52"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
@@ -6126,15 +6456,15 @@
       <c r="G128" s="12"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="47" t="s">
         <v>658</v>
       </c>
-      <c r="B129" s="47"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
@@ -6731,15 +7061,15 @@
       <c r="G159" s="12"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="39" t="s">
+      <c r="A160" s="42" t="s">
         <v>807</v>
       </c>
-      <c r="B160" s="40"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="40"/>
-      <c r="E160" s="40"/>
-      <c r="F160" s="40"/>
-      <c r="G160" s="41"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="44"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
@@ -7051,15 +7381,15 @@
       <c r="G175" s="12"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="41"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="43"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="44"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
@@ -7814,21 +8144,21 @@
       <c r="G214" s="12"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="52" t="s">
+      <c r="A215" s="40" t="s">
         <v>935</v>
       </c>
-      <c r="B215" s="53"/>
-      <c r="C215" s="53"/>
-      <c r="D215" s="53"/>
-      <c r="E215" s="53"/>
-      <c r="F215" s="53"/>
-      <c r="G215" s="53"/>
+      <c r="B215" s="41"/>
+      <c r="C215" s="41"/>
+      <c r="D215" s="41"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="41"/>
+      <c r="G215" s="41"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>204</v>
       </c>
-      <c r="B216" s="30" t="s">
+      <c r="B216" s="33" t="s">
         <v>867</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -7849,7 +8179,7 @@
       <c r="A217" s="14">
         <v>205</v>
       </c>
-      <c r="B217" s="51" t="s">
+      <c r="B217" s="36" t="s">
         <v>870</v>
       </c>
       <c r="C217" s="12" t="s">
@@ -7868,7 +8198,7 @@
       <c r="A218" s="14">
         <v>206</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="33" t="s">
         <v>875</v>
       </c>
       <c r="C218" s="12" t="s">
@@ -7889,7 +8219,7 @@
       <c r="A219" s="14">
         <v>207</v>
       </c>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="33" t="s">
         <v>881</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -7910,7 +8240,7 @@
       <c r="A220" s="14">
         <v>208</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="33" t="s">
         <v>887</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -7931,7 +8261,7 @@
       <c r="A221" s="14">
         <v>209</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="33" t="s">
         <v>891</v>
       </c>
       <c r="C221" s="4" t="s">
@@ -7950,7 +8280,7 @@
       <c r="A222" s="14">
         <v>210</v>
       </c>
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="33" t="s">
         <v>893</v>
       </c>
       <c r="C222" s="4" t="s">
@@ -7971,7 +8301,7 @@
       <c r="A223" s="14">
         <v>211</v>
       </c>
-      <c r="B223" s="30" t="s">
+      <c r="B223" s="33" t="s">
         <v>897</v>
       </c>
       <c r="C223" s="4" t="s">
@@ -7992,7 +8322,7 @@
       <c r="A224" s="14">
         <v>212</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="33" t="s">
         <v>900</v>
       </c>
       <c r="C224" s="12" t="s">
@@ -8013,7 +8343,7 @@
       <c r="A225" s="14">
         <v>213</v>
       </c>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="33" t="s">
         <v>905</v>
       </c>
       <c r="C225" s="27" t="s">
@@ -8034,7 +8364,7 @@
       <c r="A226" s="14">
         <v>214</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="33" t="s">
         <v>909</v>
       </c>
       <c r="C226" s="12"/>
@@ -8051,7 +8381,7 @@
       <c r="A227" s="14">
         <v>215</v>
       </c>
-      <c r="B227" s="30" t="s">
+      <c r="B227" s="33" t="s">
         <v>911</v>
       </c>
       <c r="C227" s="4" t="s">
@@ -8072,7 +8402,7 @@
       <c r="A228" s="14">
         <v>216</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="33" t="s">
         <v>915</v>
       </c>
       <c r="C228" s="12"/>
@@ -8089,7 +8419,7 @@
       <c r="A229" s="14">
         <v>217</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="33" t="s">
         <v>919</v>
       </c>
       <c r="C229" s="12"/>
@@ -8106,7 +8436,7 @@
       <c r="A230" s="14">
         <v>218</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" s="33" t="s">
         <v>922</v>
       </c>
       <c r="C230" s="12"/>
@@ -8125,7 +8455,7 @@
       <c r="A231" s="14">
         <v>219</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="33" t="s">
         <v>926</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -8146,7 +8476,7 @@
       <c r="A232" s="14">
         <v>220</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="33" t="s">
         <v>928</v>
       </c>
       <c r="C232" s="4" t="s">
@@ -8167,7 +8497,7 @@
       <c r="A233" s="14">
         <v>221</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="33" t="s">
         <v>932</v>
       </c>
       <c r="C233" s="12" t="s">
@@ -8185,19 +8515,21 @@
       <c r="G233" s="12"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="39" t="s">
+      <c r="A234" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="B234" s="40"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="40"/>
-      <c r="E234" s="40"/>
-      <c r="F234" s="40"/>
-      <c r="G234" s="41"/>
+      <c r="B234" s="55"/>
+      <c r="C234" s="55"/>
+      <c r="D234" s="55"/>
+      <c r="E234" s="55"/>
+      <c r="F234" s="55"/>
+      <c r="G234" s="56"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
-      <c r="B235" s="30" t="s">
+      <c r="A235" s="14">
+        <v>222</v>
+      </c>
+      <c r="B235" s="33" t="s">
         <v>937</v>
       </c>
       <c r="C235" s="12" t="s">
@@ -8215,8 +8547,10 @@
       <c r="G235" s="12"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
-      <c r="B236" s="30" t="s">
+      <c r="A236" s="14">
+        <v>223</v>
+      </c>
+      <c r="B236" s="33" t="s">
         <v>941</v>
       </c>
       <c r="C236" s="12" t="s">
@@ -8234,8 +8568,10 @@
       <c r="G236" s="12"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="14"/>
-      <c r="B237" s="30" t="s">
+      <c r="A237" s="14">
+        <v>224</v>
+      </c>
+      <c r="B237" s="33" t="s">
         <v>947</v>
       </c>
       <c r="C237" s="12" t="s">
@@ -8253,8 +8589,10 @@
       <c r="G237" s="12"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
-      <c r="B238" s="30" t="s">
+      <c r="A238" s="14">
+        <v>225</v>
+      </c>
+      <c r="B238" s="33" t="s">
         <v>951</v>
       </c>
       <c r="C238" s="12" t="s">
@@ -8272,8 +8610,10 @@
       <c r="G238" s="12"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
-      <c r="B239" s="30" t="s">
+      <c r="A239" s="14">
+        <v>226</v>
+      </c>
+      <c r="B239" s="33" t="s">
         <v>955</v>
       </c>
       <c r="C239" s="12" t="s">
@@ -8291,8 +8631,10 @@
       <c r="G239" s="12"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="14"/>
-      <c r="B240" s="30" t="s">
+      <c r="A240" s="14">
+        <v>227</v>
+      </c>
+      <c r="B240" s="33" t="s">
         <v>959</v>
       </c>
       <c r="C240" s="12" t="s">
@@ -8310,8 +8652,10 @@
       <c r="G240" s="12"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
-      <c r="B241" s="30" t="s">
+      <c r="A241" s="14">
+        <v>228</v>
+      </c>
+      <c r="B241" s="33" t="s">
         <v>964</v>
       </c>
       <c r="C241" s="4" t="s">
@@ -8329,8 +8673,10 @@
       <c r="G241" s="12"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="14"/>
-      <c r="B242" s="30" t="s">
+      <c r="A242" s="14">
+        <v>229</v>
+      </c>
+      <c r="B242" s="33" t="s">
         <v>966</v>
       </c>
       <c r="C242" s="12" t="s">
@@ -8348,117 +8694,179 @@
       <c r="G242" s="12"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
-      <c r="B243" s="30"/>
-      <c r="C243" s="12"/>
+      <c r="A243" s="14">
+        <v>230</v>
+      </c>
+      <c r="B243" s="33" t="s">
+        <v>970</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>971</v>
+      </c>
       <c r="D243" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E243" s="12"/>
+        <v>972</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>973</v>
+      </c>
       <c r="F243" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G243" s="12"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
-      <c r="B244" s="30"/>
-      <c r="C244" s="12"/>
+      <c r="A244" s="14">
+        <v>231</v>
+      </c>
+      <c r="B244" s="33" t="s">
+        <v>977</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>976</v>
+      </c>
       <c r="D244" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E244" s="12"/>
+        <v>975</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>974</v>
+      </c>
       <c r="F244" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G244" s="12"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
-      <c r="B245" s="30"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E245" s="12"/>
-      <c r="F245" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G245" s="12"/>
+      <c r="A245" s="48" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B245" s="54"/>
+      <c r="C245" s="54"/>
+      <c r="D245" s="54"/>
+      <c r="E245" s="54"/>
+      <c r="F245" s="54"/>
+      <c r="G245" s="54"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
-      <c r="B246" s="30"/>
-      <c r="C246" s="12"/>
+      <c r="A246" s="14">
+        <v>233</v>
+      </c>
+      <c r="B246" s="33" t="s">
+        <v>980</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>981</v>
+      </c>
       <c r="D246" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E246" s="12"/>
+        <v>978</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>979</v>
+      </c>
       <c r="F246" s="11" t="s">
-        <v>119</v>
+        <v>978</v>
       </c>
       <c r="G246" s="12"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
-      <c r="B247" s="30"/>
-      <c r="C247" s="12"/>
+      <c r="A247" s="14">
+        <v>234</v>
+      </c>
+      <c r="B247" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>984</v>
+      </c>
       <c r="D247" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E247" s="12"/>
+        <v>982</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>983</v>
+      </c>
       <c r="F247" s="11" t="s">
-        <v>119</v>
+        <v>982</v>
       </c>
       <c r="G247" s="12"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
-      <c r="B248" s="30"/>
-      <c r="C248" s="12"/>
+      <c r="A248" s="14">
+        <v>235</v>
+      </c>
+      <c r="B248" s="33" t="s">
+        <v>988</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>989</v>
+      </c>
       <c r="D248" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E248" s="12"/>
+        <v>987</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>986</v>
+      </c>
       <c r="F248" s="11" t="s">
-        <v>119</v>
+        <v>987</v>
       </c>
       <c r="G248" s="12"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="14"/>
-      <c r="B249" s="30"/>
-      <c r="C249" s="12"/>
+      <c r="A249" s="14">
+        <v>236</v>
+      </c>
+      <c r="B249" s="33" t="s">
+        <v>992</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>991</v>
+      </c>
       <c r="D249" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E249" s="12"/>
+        <v>993</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>990</v>
+      </c>
       <c r="F249" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G249" s="12"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
-      <c r="B250" s="30"/>
-      <c r="C250" s="12"/>
+      <c r="A250" s="14">
+        <v>237</v>
+      </c>
+      <c r="B250" s="33" t="s">
+        <v>996</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>997</v>
+      </c>
       <c r="D250" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E250" s="12"/>
+        <v>995</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>994</v>
+      </c>
       <c r="F250" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G250" s="12"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
-      <c r="B251" s="30"/>
-      <c r="C251" s="12"/>
+      <c r="A251" s="14">
+        <v>238</v>
+      </c>
+      <c r="B251" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>1001</v>
+      </c>
       <c r="D251" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E251" s="12"/>
+        <v>1000</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>998</v>
+      </c>
       <c r="F251" s="11" t="s">
         <v>119</v>
       </c>
@@ -8466,51 +8874,71 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
-      <c r="B252" s="30"/>
-      <c r="C252" s="12"/>
+      <c r="B252" s="33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>1003</v>
+      </c>
       <c r="D252" s="11" t="s">
-        <v>119</v>
+        <v>1002</v>
       </c>
       <c r="E252" s="12"/>
       <c r="F252" s="11" t="s">
-        <v>119</v>
+        <v>1002</v>
       </c>
       <c r="G252" s="12"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
-      <c r="B253" s="30"/>
-      <c r="C253" s="12"/>
+      <c r="B253" s="33" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>1006</v>
+      </c>
       <c r="D253" s="11" t="s">
-        <v>119</v>
+        <v>1007</v>
       </c>
       <c r="E253" s="12"/>
       <c r="F253" s="11" t="s">
-        <v>119</v>
+        <v>1007</v>
       </c>
       <c r="G253" s="12"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
-      <c r="B254" s="30"/>
-      <c r="C254" s="12"/>
+      <c r="B254" s="33" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>1011</v>
+      </c>
       <c r="D254" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E254" s="12"/>
+        <v>1010</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>1009</v>
+      </c>
       <c r="F254" s="11" t="s">
-        <v>119</v>
+        <v>1010</v>
       </c>
       <c r="G254" s="12"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
-      <c r="B255" s="30"/>
-      <c r="C255" s="12"/>
+      <c r="B255" s="33" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>1014</v>
+      </c>
       <c r="D255" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E255" s="12"/>
+        <v>1015</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>1013</v>
+      </c>
       <c r="F255" s="11" t="s">
         <v>119</v>
       </c>
@@ -8518,77 +8946,103 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="30"/>
-      <c r="C256" s="12"/>
+      <c r="B256" s="33" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>1017</v>
+      </c>
       <c r="D256" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E256" s="12"/>
+        <v>1018</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>1019</v>
+      </c>
       <c r="F256" s="11" t="s">
-        <v>119</v>
+        <v>1020</v>
       </c>
       <c r="G256" s="12"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="30"/>
-      <c r="C257" s="12"/>
+      <c r="B257" s="33" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>1022</v>
+      </c>
       <c r="D257" s="11" t="s">
-        <v>119</v>
+        <v>1021</v>
       </c>
       <c r="E257" s="12"/>
       <c r="F257" s="11" t="s">
-        <v>119</v>
+        <v>1021</v>
       </c>
       <c r="G257" s="12"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
-      <c r="B258" s="30"/>
-      <c r="C258" s="12"/>
+      <c r="B258" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>1027</v>
+      </c>
       <c r="D258" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E258" s="12"/>
+        <v>1025</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>1026</v>
+      </c>
       <c r="F258" s="11" t="s">
-        <v>119</v>
+        <v>1025</v>
       </c>
       <c r="G258" s="12"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
-      <c r="B259" s="30"/>
-      <c r="C259" s="12"/>
+      <c r="B259" s="33" t="s">
+        <v>980</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>981</v>
+      </c>
       <c r="D259" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E259" s="12"/>
+        <v>1028</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>979</v>
+      </c>
       <c r="F259" s="11" t="s">
-        <v>119</v>
+        <v>1028</v>
       </c>
       <c r="G259" s="12"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
-      <c r="B260" s="30"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E260" s="12"/>
-      <c r="F260" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G260" s="12"/>
+      <c r="A260" s="47" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B260" s="47"/>
+      <c r="C260" s="47"/>
+      <c r="D260" s="47"/>
+      <c r="E260" s="47"/>
+      <c r="F260" s="47"/>
+      <c r="G260" s="47"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
-      <c r="B261" s="30"/>
-      <c r="C261" s="12"/>
+      <c r="B261" s="30" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>1033</v>
+      </c>
       <c r="D261" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E261" s="12"/>
+        <v>1032</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>1031</v>
+      </c>
       <c r="F261" s="11" t="s">
         <v>119</v>
       </c>
@@ -8596,129 +9050,161 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
-      <c r="B262" s="30"/>
-      <c r="C262" s="12"/>
+      <c r="B262" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>1038</v>
+      </c>
       <c r="D262" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E262" s="12"/>
+        <v>1035</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>1034</v>
+      </c>
       <c r="F262" s="11" t="s">
-        <v>119</v>
+        <v>1037</v>
       </c>
       <c r="G262" s="12"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
-      <c r="B263" s="30"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E263" s="12"/>
-      <c r="F263" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G263" s="12"/>
+      <c r="A263" s="49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B263" s="55"/>
+      <c r="C263" s="55"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
+      <c r="G263" s="56"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
-      <c r="B264" s="30"/>
-      <c r="C264" s="12"/>
+      <c r="B264" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>1043</v>
+      </c>
       <c r="D264" s="11" t="s">
-        <v>119</v>
+        <v>1041</v>
       </c>
       <c r="E264" s="12"/>
       <c r="F264" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G264" s="12"/>
+        <v>1041</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="14"/>
-      <c r="B265" s="30"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E265" s="12"/>
-      <c r="F265" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G265" s="12"/>
+      <c r="A265" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B265" s="55"/>
+      <c r="C265" s="55"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="56"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
-      <c r="B266" s="30"/>
-      <c r="C266" s="12"/>
+      <c r="B266" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>1049</v>
+      </c>
       <c r="D266" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E266" s="12"/>
+        <v>1047</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>1046</v>
+      </c>
       <c r="F266" s="11" t="s">
-        <v>119</v>
+        <v>1047</v>
       </c>
       <c r="G266" s="12"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
-      <c r="B267" s="30"/>
-      <c r="C267" s="12"/>
+      <c r="B267" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>1052</v>
+      </c>
       <c r="D267" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E267" s="12"/>
+        <v>1051</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="F267" s="11" t="s">
-        <v>119</v>
+        <v>1051</v>
       </c>
       <c r="G267" s="12"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
-      <c r="B268" s="30"/>
-      <c r="C268" s="12"/>
+      <c r="B268" s="39" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>1054</v>
+      </c>
       <c r="D268" s="11" t="s">
-        <v>119</v>
+        <v>1056</v>
       </c>
       <c r="E268" s="12"/>
       <c r="F268" s="11" t="s">
-        <v>119</v>
+        <v>1057</v>
       </c>
       <c r="G268" s="12"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
-      <c r="B269" s="30"/>
-      <c r="C269" s="12"/>
+      <c r="B269" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>1059</v>
+      </c>
       <c r="D269" s="11" t="s">
-        <v>119</v>
+        <v>1061</v>
       </c>
       <c r="E269" s="12"/>
       <c r="F269" s="11" t="s">
-        <v>119</v>
+        <v>1058</v>
       </c>
       <c r="G269" s="12"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
-      <c r="B270" s="30"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E270" s="12"/>
-      <c r="F270" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G270" s="12"/>
+      <c r="A270" s="47" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B270" s="47"/>
+      <c r="C270" s="47"/>
+      <c r="D270" s="47"/>
+      <c r="E270" s="47"/>
+      <c r="F270" s="47"/>
+      <c r="G270" s="47"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
-      <c r="B271" s="30"/>
-      <c r="C271" s="12"/>
+      <c r="B271" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>1065</v>
+      </c>
       <c r="D271" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E271" s="12"/>
+        <v>1064</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>1063</v>
+      </c>
       <c r="F271" s="11" t="s">
         <v>119</v>
       </c>
@@ -8726,40 +9212,52 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
-      <c r="B272" s="30"/>
-      <c r="C272" s="12"/>
+      <c r="B272" s="30" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>1066</v>
+      </c>
       <c r="D272" s="11" t="s">
-        <v>119</v>
+        <v>1069</v>
       </c>
       <c r="E272" s="12"/>
       <c r="F272" s="11" t="s">
-        <v>119</v>
+        <v>1068</v>
       </c>
       <c r="G272" s="12"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
-      <c r="B273" s="30"/>
-      <c r="C273" s="12"/>
+      <c r="B273" s="30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>1070</v>
+      </c>
       <c r="D273" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E273" s="12"/>
       <c r="F273" s="11" t="s">
-        <v>119</v>
+        <v>1072</v>
       </c>
       <c r="G273" s="12"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
-      <c r="B274" s="30"/>
-      <c r="C274" s="12"/>
+      <c r="B274" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>1075</v>
+      </c>
       <c r="D274" s="11" t="s">
-        <v>119</v>
+        <v>1074</v>
       </c>
       <c r="E274" s="12"/>
       <c r="F274" s="11" t="s">
-        <v>119</v>
+        <v>1074</v>
       </c>
       <c r="G274" s="12"/>
     </row>
@@ -11105,7 +11603,12 @@
       <c r="G533" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A263:G263"/>
+    <mergeCell ref="A265:G265"/>
+    <mergeCell ref="A270:G270"/>
     <mergeCell ref="A215:G215"/>
     <mergeCell ref="A234:G234"/>
     <mergeCell ref="A2:G2"/>
@@ -11407,8 +11910,50 @@
     <hyperlink ref="E241" r:id="rId285"/>
     <hyperlink ref="C241" r:id="rId286"/>
     <hyperlink ref="E242" r:id="rId287"/>
+    <hyperlink ref="C243" r:id="rId288"/>
+    <hyperlink ref="E243" r:id="rId289"/>
+    <hyperlink ref="E244" r:id="rId290"/>
+    <hyperlink ref="C244" r:id="rId291"/>
+    <hyperlink ref="E246" r:id="rId292"/>
+    <hyperlink ref="C246" r:id="rId293"/>
+    <hyperlink ref="E247" r:id="rId294"/>
+    <hyperlink ref="E248" r:id="rId295"/>
+    <hyperlink ref="C248" r:id="rId296"/>
+    <hyperlink ref="E249" r:id="rId297"/>
+    <hyperlink ref="C249" r:id="rId298"/>
+    <hyperlink ref="E250" r:id="rId299"/>
+    <hyperlink ref="E251" r:id="rId300"/>
+    <hyperlink ref="C251" r:id="rId301"/>
+    <hyperlink ref="C252" r:id="rId302"/>
+    <hyperlink ref="C253" r:id="rId303"/>
+    <hyperlink ref="E254" r:id="rId304"/>
+    <hyperlink ref="C254" r:id="rId305"/>
+    <hyperlink ref="E255" r:id="rId306"/>
+    <hyperlink ref="C255" r:id="rId307"/>
+    <hyperlink ref="C256" r:id="rId308"/>
+    <hyperlink ref="E256" r:id="rId309"/>
+    <hyperlink ref="C257" r:id="rId310"/>
+    <hyperlink ref="E258" r:id="rId311"/>
+    <hyperlink ref="C258" r:id="rId312"/>
+    <hyperlink ref="E259" r:id="rId313"/>
+    <hyperlink ref="C259" r:id="rId314"/>
+    <hyperlink ref="E261" r:id="rId315"/>
+    <hyperlink ref="C261" r:id="rId316"/>
+    <hyperlink ref="E262" r:id="rId317"/>
+    <hyperlink ref="C262" r:id="rId318"/>
+    <hyperlink ref="G264" r:id="rId319"/>
+    <hyperlink ref="C264" r:id="rId320"/>
+    <hyperlink ref="E266" r:id="rId321"/>
+    <hyperlink ref="C266" r:id="rId322"/>
+    <hyperlink ref="E267" r:id="rId323"/>
+    <hyperlink ref="C267" r:id="rId324"/>
+    <hyperlink ref="C268" r:id="rId325"/>
+    <hyperlink ref="C269" r:id="rId326"/>
+    <hyperlink ref="E271" r:id="rId327"/>
+    <hyperlink ref="C271" r:id="rId328"/>
+    <hyperlink ref="C274" r:id="rId329"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId288"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId330"/>
 </worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1290">
   <si>
     <t>Клиентская база</t>
   </si>
@@ -3255,6 +3255,667 @@
   </si>
   <si>
     <t>Детские парки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юридические услуги </t>
+  </si>
+  <si>
+    <t>murmansk@edin.center</t>
+  </si>
+  <si>
+    <t>edin.center</t>
+  </si>
+  <si>
+    <t>Единый центр защиты</t>
+  </si>
+  <si>
+    <t>8 (8152) 55-00-86</t>
+  </si>
+  <si>
+    <t>ПРОЗАКОН</t>
+  </si>
+  <si>
+    <t>prozakonn@gmail.com</t>
+  </si>
+  <si>
+    <t>+7 938 450-51-71</t>
+  </si>
+  <si>
+    <t>+7‒921‒70‒888‒70, +7 (8152) 603‒604</t>
+  </si>
+  <si>
+    <t>+7 953 756-66-66</t>
+  </si>
+  <si>
+    <t>pravoplus51@mail.ru</t>
+  </si>
+  <si>
+    <t>Защита права Плюс</t>
+  </si>
+  <si>
+    <t>+7 911 326-89-61</t>
+  </si>
+  <si>
+    <t>ЦСД</t>
+  </si>
+  <si>
+    <t>murmansk.nko-csd.com</t>
+  </si>
+  <si>
+    <t>tvg@nko-csd.com</t>
+  </si>
+  <si>
+    <t>+7‒921‒709‒45‒39</t>
+  </si>
+  <si>
+    <t>+7 921 709-45-39</t>
+  </si>
+  <si>
+    <t>+7 (8152) 20‒92‒92</t>
+  </si>
+  <si>
+    <t>юристы-мурманска.рф</t>
+  </si>
+  <si>
+    <t>209292@mail.ru</t>
+  </si>
+  <si>
+    <t>Первое Правовое Бюро</t>
+  </si>
+  <si>
+    <t>Ваш юрист в Мурманске</t>
+  </si>
+  <si>
+    <t>murman-lawyer.ru</t>
+  </si>
+  <si>
+    <t>murman-lawyer@yandex.ru</t>
+  </si>
+  <si>
+    <t>+7‒960‒024‒53‒44</t>
+  </si>
+  <si>
+    <t>+7 960 024-53-44</t>
+  </si>
+  <si>
+    <t>Юрист для людей</t>
+  </si>
+  <si>
+    <t>юристдлялюдей.рф</t>
+  </si>
+  <si>
+    <t>+7 960 025-29-55</t>
+  </si>
+  <si>
+    <t>+7 952 298-92-22</t>
+  </si>
+  <si>
+    <t>+7‒960‒025‒29‒55</t>
+  </si>
+  <si>
+    <t>Юргарант</t>
+  </si>
+  <si>
+    <t>jurgarant51.ru</t>
+  </si>
+  <si>
+    <t>+7 964 680-80-60</t>
+  </si>
+  <si>
+    <t>udl.company@inbox.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 60‒80‒60</t>
+  </si>
+  <si>
+    <t>b-urist.ru</t>
+  </si>
+  <si>
+    <t>Бизнес-юрист</t>
+  </si>
+  <si>
+    <t>+7‒934‒888‒12‒82</t>
+  </si>
+  <si>
+    <t>+7 996 228-73-35</t>
+  </si>
+  <si>
+    <t>zayavka@b-urist.ru</t>
+  </si>
+  <si>
+    <t>Первая Мурманская коллегия адвокатов</t>
+  </si>
+  <si>
+    <t>nopmka.ru</t>
+  </si>
+  <si>
+    <t>+7 950 891-06-80</t>
+  </si>
+  <si>
+    <t>nopmka@yandex.ru</t>
+  </si>
+  <si>
+    <t>+7‒950‒891‒06‒80</t>
+  </si>
+  <si>
+    <t>Панфилов и партнёры</t>
+  </si>
+  <si>
+    <t>murmanpravo.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 20-50-70</t>
+  </si>
+  <si>
+    <t>info@murmanpravo.ru</t>
+  </si>
+  <si>
+    <t>Призыванет</t>
+  </si>
+  <si>
+    <t>prizyvanet.ru</t>
+  </si>
+  <si>
+    <t>site@prizyvanet.ru</t>
+  </si>
+  <si>
+    <t>pravoe-delo.su</t>
+  </si>
+  <si>
+    <t>Правое дело</t>
+  </si>
+  <si>
+    <t>+7 911 301-90-54</t>
+  </si>
+  <si>
+    <t>a.fedorischev@pravoe-delo.su</t>
+  </si>
+  <si>
+    <t>+7‒911‒301‒90‒54</t>
+  </si>
+  <si>
+    <t>Зенит</t>
+  </si>
+  <si>
+    <t>murmansk@zennit.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 21-50-38</t>
+  </si>
+  <si>
+    <t>Современная Защита</t>
+  </si>
+  <si>
+    <t>murmansk@sovzashchita.ru</t>
+  </si>
+  <si>
+    <t>+7‒908‒605‒56‒26</t>
+  </si>
+  <si>
+    <t>Адвокатский кабинет Балдина Д.С.</t>
+  </si>
+  <si>
+    <t>advocate_baldin.ds@list.ru</t>
+  </si>
+  <si>
+    <t>+ 7 908 605 56 26</t>
+  </si>
+  <si>
+    <t>Корпорация развития Мурманской области</t>
+  </si>
+  <si>
+    <t>advocate-baldin.ru</t>
+  </si>
+  <si>
+    <t>corp@invest-murman.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 567-787</t>
+  </si>
+  <si>
+    <t>https://invest.nashsever51.ru</t>
+  </si>
+  <si>
+    <t>Юстина</t>
+  </si>
+  <si>
+    <t>+7 921 270-77-50</t>
+  </si>
+  <si>
+    <t>s_korobova@mail.ru</t>
+  </si>
+  <si>
+    <t>@justina_51</t>
+  </si>
+  <si>
+    <t>https://vk.com/justina51</t>
+  </si>
+  <si>
+    <t>Мурманправо</t>
+  </si>
+  <si>
+    <t>murmansk.v-jur.ru</t>
+  </si>
+  <si>
+    <t>+7 960 022-46-77</t>
+  </si>
+  <si>
+    <t>murmanskpravo@gmail.com</t>
+  </si>
+  <si>
+    <t>+7 952 299-99-02</t>
+  </si>
+  <si>
+    <t>Адвокатский кабинет Чижевского А.В.</t>
+  </si>
+  <si>
+    <t>+7‒952‒299‒99‒02</t>
+  </si>
+  <si>
+    <t>+7 921 047-55-55</t>
+  </si>
+  <si>
+    <t>Адвокатский кабинет Машкова В.В.</t>
+  </si>
+  <si>
+    <t>+7‒921‒047‒55‒55</t>
+  </si>
+  <si>
+    <t>Недвижимость Дубай</t>
+  </si>
+  <si>
+    <t>+7 906 051-72-20</t>
+  </si>
+  <si>
+    <t>+7‒906‒028‒09‒79</t>
+  </si>
+  <si>
+    <t>Правовой Выбор</t>
+  </si>
+  <si>
+    <t>+7 921 283-77-64</t>
+  </si>
+  <si>
+    <t>info@pravovibor.ru</t>
+  </si>
+  <si>
+    <t>Центр правовой помощи</t>
+  </si>
+  <si>
+    <t>centrprava51.ru</t>
+  </si>
+  <si>
+    <t>ur-centr.51@yandex.ru</t>
+  </si>
+  <si>
+    <t>8 (8152) 70-25-80</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>sharkov.net</t>
+  </si>
+  <si>
+    <t>604040@bk.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 60‒12‒34</t>
+  </si>
+  <si>
+    <t>+7 964 680-06-06</t>
+  </si>
+  <si>
+    <t>юрист-мурман.рф</t>
+  </si>
+  <si>
+    <t>Правозащита</t>
+  </si>
+  <si>
+    <t>+7 953 758-31-11</t>
+  </si>
+  <si>
+    <t>+7 (8152) 20‒33‒05</t>
+  </si>
+  <si>
+    <t>51pravo@mail.ru</t>
+  </si>
+  <si>
+    <t>Адвокатский кабинет Алиева Р.М.</t>
+  </si>
+  <si>
+    <t>+7 905 294-68-12</t>
+  </si>
+  <si>
+    <t>+7‒905‒294‒68‒12</t>
+  </si>
+  <si>
+    <t>ПакТ</t>
+  </si>
+  <si>
+    <t>+7 921 668-99-43</t>
+  </si>
+  <si>
+    <t>Оценка-сервис</t>
+  </si>
+  <si>
+    <t>vektor7@rambler.ru</t>
+  </si>
+  <si>
+    <t>http://ocenkaserv.ru/</t>
+  </si>
+  <si>
+    <t>8 (8152) 42 63 00</t>
+  </si>
+  <si>
+    <t>+7 950 898-29-39</t>
+  </si>
+  <si>
+    <t>info@pravv.ru</t>
+  </si>
+  <si>
+    <t>+7‒967‒458‒21‒00</t>
+  </si>
+  <si>
+    <t>Правильный выбор</t>
+  </si>
+  <si>
+    <t>pravv.ru</t>
+  </si>
+  <si>
+    <t>Позвони юристу</t>
+  </si>
+  <si>
+    <t>+7 953 753-30-00</t>
+  </si>
+  <si>
+    <t>+7‒953‒753‒30‒00</t>
+  </si>
+  <si>
+    <t>http://оценщик-возмещение-ущерба.рф/</t>
+  </si>
+  <si>
+    <t>Юридическая компания</t>
+  </si>
+  <si>
+    <t>+7 911 313-57-28</t>
+  </si>
+  <si>
+    <t>https://vk.com/s.osmanova_lawyer</t>
+  </si>
+  <si>
+    <t>+7 (911) 313-57-28</t>
+  </si>
+  <si>
+    <t>Аквитенс</t>
+  </si>
+  <si>
+    <t>+7 911 300-08-37</t>
+  </si>
+  <si>
+    <t>+7 (8152) 63‒54‒05</t>
+  </si>
+  <si>
+    <t>Мурманресурс</t>
+  </si>
+  <si>
+    <t>+7 (8152) 77‒79‒77</t>
+  </si>
+  <si>
+    <t>+7 965 801-60-10</t>
+  </si>
+  <si>
+    <t>+7 981 300-69-18</t>
+  </si>
+  <si>
+    <t>Консалт-бюро</t>
+  </si>
+  <si>
+    <t>Мурман-Консалт</t>
+  </si>
+  <si>
+    <t>femeda@gmail.com</t>
+  </si>
+  <si>
+    <t>+7‒902‒132‒11‒75</t>
+  </si>
+  <si>
+    <t>https://femeda.wixsite.com</t>
+  </si>
+  <si>
+    <t>+7 902 132-11-75</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Тренинговые центры</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Kids point</t>
+  </si>
+  <si>
+    <t>+7 953 754-36-77</t>
+  </si>
+  <si>
+    <t>https://vk.com/kids_point_murmansk</t>
+  </si>
+  <si>
+    <t>nlp-pilot@mail.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 25-14-26</t>
+  </si>
+  <si>
+    <t>nlp-murmansk.ru</t>
+  </si>
+  <si>
+    <t>Мурманский тренинговый центр</t>
+  </si>
+  <si>
+    <t>Объединение молодежных центров</t>
+  </si>
+  <si>
+    <t>(8152)25-53-70</t>
+  </si>
+  <si>
+    <t>http://молодежь51.рф</t>
+  </si>
+  <si>
+    <t>Олимп</t>
+  </si>
+  <si>
+    <t>olimpmurmansk.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 25‒10‒40</t>
+  </si>
+  <si>
+    <t>info@olimpmurmansk.ru</t>
+  </si>
+  <si>
+    <t>+7 921 158-80-20</t>
+  </si>
+  <si>
+    <t>Рост</t>
+  </si>
+  <si>
+    <t>rost100.ru</t>
+  </si>
+  <si>
+    <t>+7 906 286-41-81</t>
+  </si>
+  <si>
+    <t>+7‒902‒137‒91‒11</t>
+  </si>
+  <si>
+    <t>Здесь и теперь</t>
+  </si>
+  <si>
+    <t>+7 (8152) 23‒21‒61</t>
+  </si>
+  <si>
+    <t>+7 911 344-05-80</t>
+  </si>
+  <si>
+    <t>kuzinamv@rambler.ru</t>
+  </si>
+  <si>
+    <t>Viam Vestram</t>
+  </si>
+  <si>
+    <t>+7 950 896-88-05</t>
+  </si>
+  <si>
+    <t>lilu5.86@mail.ru</t>
+  </si>
+  <si>
+    <t>+7‒950‒896‒88‒05</t>
+  </si>
+  <si>
+    <t>https://viamvestram.ru</t>
+  </si>
+  <si>
+    <t>+7 911 323-16-93</t>
+  </si>
+  <si>
+    <t>https://vk.com/club191146651</t>
+  </si>
+  <si>
+    <t>Студия арт-терапии</t>
+  </si>
+  <si>
+    <t>+7‒911‒323‒16‒93</t>
+  </si>
+  <si>
+    <t>https://t.me/+79113231693</t>
+  </si>
+  <si>
+    <t>89643070621ka@gmail.com</t>
+  </si>
+  <si>
+    <t>+79643070621</t>
+  </si>
+  <si>
+    <t>Kuzbiz</t>
+  </si>
+  <si>
+    <t>https://vk.com/kuzbizru</t>
+  </si>
+  <si>
+    <t>+7 (964) 307-06-21</t>
+  </si>
+  <si>
+    <t>dir@iskramarketing.ru</t>
+  </si>
+  <si>
+    <t>8 (921) 174-24-82</t>
+  </si>
+  <si>
+    <t>Искра</t>
+  </si>
+  <si>
+    <t>https://vk.com/iskramarketing</t>
+  </si>
+  <si>
+    <t>northchar.ru</t>
+  </si>
+  <si>
+    <t>nchfest@gmail.com</t>
+  </si>
+  <si>
+    <t>+7 (911) 303-21-90</t>
+  </si>
+  <si>
+    <t>Северный характер</t>
+  </si>
+  <si>
+    <t>Nord Marketing</t>
+  </si>
+  <si>
+    <t>nemo-group.online</t>
+  </si>
+  <si>
+    <t>+7 920 349-86-18</t>
+  </si>
+  <si>
+    <t>crm51@mail.ru</t>
+  </si>
+  <si>
+    <t>Маркетолог51</t>
+  </si>
+  <si>
+    <t>+7 952 290-55-57</t>
+  </si>
+  <si>
+    <t>https://marketolog51.ru</t>
+  </si>
+  <si>
+    <t>marketolog.51@mail.ru</t>
+  </si>
+  <si>
+    <t>+7‒952‒290‒55‒57</t>
+  </si>
+  <si>
+    <t>Фьюжн</t>
+  </si>
+  <si>
+    <t>fusion51@bk.ru</t>
+  </si>
+  <si>
+    <t>+7‒902‒138‒92‒59</t>
+  </si>
+  <si>
+    <t>https://t.me/+79522905557</t>
+  </si>
+  <si>
+    <t>+7 902 138-92-59</t>
+  </si>
+  <si>
+    <t>fusion51.ru</t>
+  </si>
+  <si>
+    <t>webshark51.ru</t>
+  </si>
+  <si>
+    <t>Webshark51</t>
+  </si>
+  <si>
+    <t>info@webshark51.ru</t>
+  </si>
+  <si>
+    <t>+7 (8152) 78-54-32</t>
+  </si>
+  <si>
+    <t>Центр консалтинговых проектов</t>
+  </si>
+  <si>
+    <t>it-murman.ru</t>
+  </si>
+  <si>
+    <t>info@it-murman.ru</t>
+  </si>
+  <si>
+    <t>(8152) 69 27 01</t>
   </si>
 </sst>
 </file>
@@ -3264,7 +3925,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3345,6 +4006,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0072CE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1E21"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3483,7 +4159,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3552,10 +4228,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3565,21 +4265,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3594,15 +4279,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3887,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270:G270"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,15 +4587,15 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3943,15 +4621,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -4745,15 +5423,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
@@ -4882,15 +5560,15 @@
       <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -4933,15 +5611,15 @@
       <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
@@ -5314,15 +5992,15 @@
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="52"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="55"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
@@ -5823,15 +6501,15 @@
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="50" t="s">
+      <c r="A98" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="52"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="55"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
@@ -6456,15 +7134,15 @@
       <c r="G128" s="12"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="B129" s="53"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="56"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
@@ -7061,15 +7739,15 @@
       <c r="G159" s="12"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="42" t="s">
+      <c r="A160" s="50" t="s">
         <v>807</v>
       </c>
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
-      <c r="D160" s="43"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="44"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="51"/>
+      <c r="D160" s="51"/>
+      <c r="E160" s="51"/>
+      <c r="F160" s="51"/>
+      <c r="G160" s="52"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
@@ -7381,15 +8059,15 @@
       <c r="G175" s="12"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="49" t="s">
+      <c r="A176" s="43" t="s">
         <v>808</v>
       </c>
-      <c r="B176" s="43"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="43"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="44"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="51"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="51"/>
+      <c r="G176" s="52"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
@@ -8144,15 +8822,15 @@
       <c r="G214" s="12"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="40" t="s">
+      <c r="A215" s="46" t="s">
         <v>935</v>
       </c>
-      <c r="B215" s="41"/>
-      <c r="C215" s="41"/>
-      <c r="D215" s="41"/>
-      <c r="E215" s="41"/>
-      <c r="F215" s="41"/>
-      <c r="G215" s="41"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="47"/>
+      <c r="D215" s="47"/>
+      <c r="E215" s="47"/>
+      <c r="F215" s="47"/>
+      <c r="G215" s="47"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
@@ -8515,15 +9193,15 @@
       <c r="G233" s="12"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="49" t="s">
+      <c r="A234" s="43" t="s">
         <v>936</v>
       </c>
-      <c r="B234" s="55"/>
-      <c r="C234" s="55"/>
-      <c r="D234" s="55"/>
-      <c r="E234" s="55"/>
-      <c r="F234" s="55"/>
-      <c r="G234" s="56"/>
+      <c r="B234" s="44"/>
+      <c r="C234" s="44"/>
+      <c r="D234" s="44"/>
+      <c r="E234" s="44"/>
+      <c r="F234" s="44"/>
+      <c r="G234" s="45"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
@@ -8736,15 +9414,15 @@
       <c r="G244" s="12"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="48" t="s">
+      <c r="A245" s="40" t="s">
         <v>1029</v>
       </c>
-      <c r="B245" s="54"/>
-      <c r="C245" s="54"/>
-      <c r="D245" s="54"/>
-      <c r="E245" s="54"/>
-      <c r="F245" s="54"/>
-      <c r="G245" s="54"/>
+      <c r="B245" s="41"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="41"/>
+      <c r="E245" s="41"/>
+      <c r="F245" s="41"/>
+      <c r="G245" s="41"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
@@ -8873,7 +9551,9 @@
       <c r="G251" s="12"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14">
+        <v>239</v>
+      </c>
       <c r="B252" s="33" t="s">
         <v>1004</v>
       </c>
@@ -8890,7 +9570,9 @@
       <c r="G252" s="12"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14">
+        <v>240</v>
+      </c>
       <c r="B253" s="33" t="s">
         <v>1005</v>
       </c>
@@ -8907,7 +9589,9 @@
       <c r="G253" s="12"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14">
+        <v>241</v>
+      </c>
       <c r="B254" s="33" t="s">
         <v>1008</v>
       </c>
@@ -8926,7 +9610,9 @@
       <c r="G254" s="12"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14">
+        <v>242</v>
+      </c>
       <c r="B255" s="33" t="s">
         <v>1012</v>
       </c>
@@ -8945,7 +9631,9 @@
       <c r="G255" s="12"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14">
+        <v>243</v>
+      </c>
       <c r="B256" s="33" t="s">
         <v>1016</v>
       </c>
@@ -8964,7 +9652,9 @@
       <c r="G256" s="12"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14">
+        <v>244</v>
+      </c>
       <c r="B257" s="33" t="s">
         <v>1023</v>
       </c>
@@ -8981,7 +9671,9 @@
       <c r="G257" s="12"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14">
+        <v>245</v>
+      </c>
       <c r="B258" s="33" t="s">
         <v>1024</v>
       </c>
@@ -9000,7 +9692,9 @@
       <c r="G258" s="12"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="14"/>
+      <c r="A259" s="14">
+        <v>246</v>
+      </c>
       <c r="B259" s="33" t="s">
         <v>980</v>
       </c>
@@ -9019,18 +9713,20 @@
       <c r="G259" s="12"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="47" t="s">
+      <c r="A260" s="42" t="s">
         <v>1039</v>
       </c>
-      <c r="B260" s="47"/>
-      <c r="C260" s="47"/>
-      <c r="D260" s="47"/>
-      <c r="E260" s="47"/>
-      <c r="F260" s="47"/>
-      <c r="G260" s="47"/>
+      <c r="B260" s="42"/>
+      <c r="C260" s="42"/>
+      <c r="D260" s="42"/>
+      <c r="E260" s="42"/>
+      <c r="F260" s="42"/>
+      <c r="G260" s="42"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14">
+        <v>247</v>
+      </c>
       <c r="B261" s="30" t="s">
         <v>1030</v>
       </c>
@@ -9049,7 +9745,9 @@
       <c r="G261" s="12"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14">
+        <v>248</v>
+      </c>
       <c r="B262" s="30" t="s">
         <v>1036</v>
       </c>
@@ -9068,18 +9766,20 @@
       <c r="G262" s="12"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="49" t="s">
+      <c r="A263" s="43" t="s">
         <v>1040</v>
       </c>
-      <c r="B263" s="55"/>
-      <c r="C263" s="55"/>
-      <c r="D263" s="55"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="55"/>
-      <c r="G263" s="56"/>
+      <c r="B263" s="44"/>
+      <c r="C263" s="44"/>
+      <c r="D263" s="44"/>
+      <c r="E263" s="44"/>
+      <c r="F263" s="44"/>
+      <c r="G263" s="45"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14">
+        <v>249</v>
+      </c>
       <c r="B264" s="30" t="s">
         <v>1044</v>
       </c>
@@ -9098,18 +9798,20 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="49" t="s">
+      <c r="A265" s="43" t="s">
         <v>1045</v>
       </c>
-      <c r="B265" s="55"/>
-      <c r="C265" s="55"/>
-      <c r="D265" s="55"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="55"/>
-      <c r="G265" s="56"/>
+      <c r="B265" s="44"/>
+      <c r="C265" s="44"/>
+      <c r="D265" s="44"/>
+      <c r="E265" s="44"/>
+      <c r="F265" s="44"/>
+      <c r="G265" s="45"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14">
+        <v>250</v>
+      </c>
       <c r="B266" s="30" t="s">
         <v>1048</v>
       </c>
@@ -9128,7 +9830,9 @@
       <c r="G266" s="12"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14">
+        <v>251</v>
+      </c>
       <c r="B267" s="30" t="s">
         <v>1053</v>
       </c>
@@ -9147,7 +9851,9 @@
       <c r="G267" s="12"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14">
+        <v>252</v>
+      </c>
       <c r="B268" s="39" t="s">
         <v>1055</v>
       </c>
@@ -9164,7 +9870,9 @@
       <c r="G268" s="12"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14">
+        <v>253</v>
+      </c>
       <c r="B269" s="30" t="s">
         <v>1060</v>
       </c>
@@ -9181,18 +9889,20 @@
       <c r="G269" s="12"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="47" t="s">
+      <c r="A270" s="42" t="s">
         <v>1076</v>
       </c>
-      <c r="B270" s="47"/>
-      <c r="C270" s="47"/>
-      <c r="D270" s="47"/>
-      <c r="E270" s="47"/>
-      <c r="F270" s="47"/>
-      <c r="G270" s="47"/>
+      <c r="B270" s="42"/>
+      <c r="C270" s="42"/>
+      <c r="D270" s="42"/>
+      <c r="E270" s="42"/>
+      <c r="F270" s="42"/>
+      <c r="G270" s="42"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14">
+        <v>254</v>
+      </c>
       <c r="B271" s="30" t="s">
         <v>1062</v>
       </c>
@@ -9211,7 +9921,9 @@
       <c r="G271" s="12"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14">
+        <v>255</v>
+      </c>
       <c r="B272" s="30" t="s">
         <v>1067</v>
       </c>
@@ -9228,7 +9940,9 @@
       <c r="G272" s="12"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="14"/>
+      <c r="A273" s="14">
+        <v>256</v>
+      </c>
       <c r="B273" s="30" t="s">
         <v>1071</v>
       </c>
@@ -9245,7 +9959,9 @@
       <c r="G273" s="12"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14">
+        <v>257</v>
+      </c>
       <c r="B274" s="30" t="s">
         <v>1073</v>
       </c>
@@ -9262,702 +9978,1066 @@
       <c r="G274" s="12"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
-      <c r="B275" s="30"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E275" s="12"/>
-      <c r="F275" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G275" s="12"/>
+      <c r="A275" s="42" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B275" s="42"/>
+      <c r="C275" s="42"/>
+      <c r="D275" s="42"/>
+      <c r="E275" s="42"/>
+      <c r="F275" s="42"/>
+      <c r="G275" s="42"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
-      <c r="B276" s="30"/>
-      <c r="C276" s="12"/>
+      <c r="A276" s="14">
+        <v>258</v>
+      </c>
+      <c r="B276" s="30" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>1079</v>
+      </c>
       <c r="D276" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E276" s="12"/>
+        <v>1081</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>1078</v>
+      </c>
       <c r="F276" s="11" t="s">
-        <v>119</v>
+        <v>1084</v>
       </c>
       <c r="G276" s="12"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
-      <c r="B277" s="30"/>
+      <c r="A277" s="14">
+        <v>259</v>
+      </c>
+      <c r="B277" s="30" t="s">
+        <v>1082</v>
+      </c>
       <c r="C277" s="12"/>
-      <c r="D277" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E277" s="12"/>
+      <c r="D277" s="16" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>1083</v>
+      </c>
       <c r="F277" s="11" t="s">
-        <v>119</v>
+        <v>1086</v>
       </c>
       <c r="G277" s="12"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
-      <c r="B278" s="30"/>
+      <c r="A278" s="14">
+        <v>260</v>
+      </c>
+      <c r="B278" s="30" t="s">
+        <v>1088</v>
+      </c>
       <c r="C278" s="12"/>
       <c r="D278" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E278" s="12"/>
+        <v>1089</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>1087</v>
+      </c>
       <c r="F278" s="11" t="s">
-        <v>119</v>
+        <v>1089</v>
       </c>
       <c r="G278" s="12"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="14"/>
-      <c r="B279" s="30"/>
-      <c r="C279" s="12"/>
+      <c r="A279" s="14">
+        <v>261</v>
+      </c>
+      <c r="B279" s="30" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>1091</v>
+      </c>
       <c r="D279" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E279" s="12"/>
+        <v>1093</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>1092</v>
+      </c>
       <c r="F279" s="11" t="s">
-        <v>119</v>
+        <v>1094</v>
       </c>
       <c r="G279" s="12"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="14"/>
-      <c r="B280" s="30"/>
-      <c r="C280" s="12"/>
+      <c r="A280" s="14">
+        <v>262</v>
+      </c>
+      <c r="B280" s="30" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>1096</v>
+      </c>
       <c r="D280" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E280" s="12"/>
+        <v>1095</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="F280" s="11" t="s">
-        <v>119</v>
+        <v>1107</v>
       </c>
       <c r="G280" s="12"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="14"/>
-      <c r="B281" s="30"/>
-      <c r="C281" s="12"/>
+      <c r="A281" s="14">
+        <v>263</v>
+      </c>
+      <c r="B281" s="30" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>1100</v>
+      </c>
       <c r="D281" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E281" s="12"/>
+        <v>1102</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>1101</v>
+      </c>
       <c r="F281" s="11" t="s">
-        <v>119</v>
+        <v>1103</v>
       </c>
       <c r="G281" s="12"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="14"/>
-      <c r="B282" s="30"/>
-      <c r="C282" s="12"/>
+      <c r="A282" s="14">
+        <v>264</v>
+      </c>
+      <c r="B282" s="30" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>1105</v>
+      </c>
       <c r="D282" s="11" t="s">
-        <v>119</v>
+        <v>1108</v>
       </c>
       <c r="E282" s="12"/>
       <c r="F282" s="11" t="s">
-        <v>119</v>
+        <v>1106</v>
       </c>
       <c r="G282" s="12"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="14"/>
-      <c r="B283" s="30"/>
-      <c r="C283" s="12"/>
+      <c r="A283" s="14">
+        <v>265</v>
+      </c>
+      <c r="B283" s="30" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>1110</v>
+      </c>
       <c r="D283" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E283" s="12"/>
+        <v>1113</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>1112</v>
+      </c>
       <c r="F283" s="11" t="s">
-        <v>119</v>
+        <v>1111</v>
       </c>
       <c r="G283" s="12"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="14"/>
-      <c r="B284" s="30"/>
-      <c r="C284" s="12"/>
+      <c r="A284" s="14">
+        <v>266</v>
+      </c>
+      <c r="B284" s="30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>1114</v>
+      </c>
       <c r="D284" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E284" s="12"/>
+        <v>1116</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>1118</v>
+      </c>
       <c r="F284" s="11" t="s">
-        <v>119</v>
+        <v>1117</v>
       </c>
       <c r="G284" s="12"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
-      <c r="B285" s="30"/>
-      <c r="C285" s="12"/>
+      <c r="A285" s="14">
+        <v>267</v>
+      </c>
+      <c r="B285" s="30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>1120</v>
+      </c>
       <c r="D285" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E285" s="12"/>
+        <v>1123</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>1122</v>
+      </c>
       <c r="F285" s="11" t="s">
-        <v>119</v>
+        <v>1121</v>
       </c>
       <c r="G285" s="12"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="14"/>
-      <c r="B286" s="30"/>
-      <c r="C286" s="12"/>
+      <c r="A286" s="14">
+        <v>268</v>
+      </c>
+      <c r="B286" s="30" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>1125</v>
+      </c>
       <c r="D286" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E286" s="12"/>
+        <v>1126</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>1127</v>
+      </c>
       <c r="F286" s="11" t="s">
-        <v>119</v>
+        <v>1126</v>
       </c>
       <c r="G286" s="12"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
-      <c r="B287" s="30"/>
-      <c r="C287" s="12"/>
+      <c r="A287" s="14">
+        <v>269</v>
+      </c>
+      <c r="B287" s="30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>1129</v>
+      </c>
       <c r="D287" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E287" s="12"/>
+      <c r="E287" s="4" t="s">
+        <v>1130</v>
+      </c>
       <c r="F287" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G287" s="12"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
-      <c r="B288" s="30"/>
-      <c r="C288" s="12"/>
+      <c r="A288" s="14">
+        <v>270</v>
+      </c>
+      <c r="B288" s="30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>1131</v>
+      </c>
       <c r="D288" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E288" s="12"/>
+        <v>1135</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>1134</v>
+      </c>
       <c r="F288" s="11" t="s">
-        <v>119</v>
+        <v>1133</v>
       </c>
       <c r="G288" s="12"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="14"/>
-      <c r="B289" s="30"/>
+      <c r="A289" s="14">
+        <v>271</v>
+      </c>
+      <c r="B289" s="30" t="s">
+        <v>1136</v>
+      </c>
       <c r="C289" s="12"/>
       <c r="D289" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E289" s="12"/>
+      <c r="E289" s="4" t="s">
+        <v>1137</v>
+      </c>
       <c r="F289" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G289" s="12"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
-      <c r="B290" s="30"/>
+      <c r="A290" s="14">
+        <v>272</v>
+      </c>
+      <c r="B290" s="30" t="s">
+        <v>1139</v>
+      </c>
       <c r="C290" s="12"/>
       <c r="D290" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E290" s="12"/>
-      <c r="F290" s="11" t="s">
-        <v>119</v>
+        <v>1138</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F290" s="16" t="s">
+        <v>1138</v>
       </c>
       <c r="G290" s="12"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
-      <c r="B291" s="30"/>
-      <c r="C291" s="12"/>
+      <c r="A291" s="14">
+        <v>273</v>
+      </c>
+      <c r="B291" s="30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>1146</v>
+      </c>
       <c r="D291" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E291" s="12"/>
+        <v>1141</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>1143</v>
+      </c>
       <c r="F291" s="11" t="s">
-        <v>119</v>
+        <v>1144</v>
       </c>
       <c r="G291" s="12"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
-      <c r="B292" s="30"/>
-      <c r="C292" s="12"/>
+      <c r="A292" s="14">
+        <v>274</v>
+      </c>
+      <c r="B292" s="30" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>1149</v>
+      </c>
       <c r="D292" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E292" s="12"/>
+        <v>1148</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>1147</v>
+      </c>
       <c r="F292" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G292" s="12"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
-      <c r="B293" s="30"/>
-      <c r="C293" s="12"/>
+      <c r="A293" s="14">
+        <v>275</v>
+      </c>
+      <c r="B293" s="30" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>1154</v>
+      </c>
       <c r="D293" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E293" s="12"/>
+      <c r="E293" s="4" t="s">
+        <v>1152</v>
+      </c>
       <c r="F293" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G293" s="12"/>
+        <v>1151</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
-      <c r="B294" s="30"/>
-      <c r="C294" s="12"/>
+      <c r="A294" s="14">
+        <v>276</v>
+      </c>
+      <c r="B294" s="30" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>1156</v>
+      </c>
       <c r="D294" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E294" s="12"/>
+        <v>1157</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>1158</v>
+      </c>
       <c r="F294" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G294" s="12"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="14"/>
-      <c r="B295" s="30"/>
+      <c r="A295" s="14">
+        <v>277</v>
+      </c>
+      <c r="B295" s="30" t="s">
+        <v>1160</v>
+      </c>
       <c r="C295" s="12"/>
       <c r="D295" s="11" t="s">
-        <v>119</v>
+        <v>1161</v>
       </c>
       <c r="E295" s="12"/>
       <c r="F295" s="11" t="s">
-        <v>119</v>
+        <v>1159</v>
       </c>
       <c r="G295" s="12"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
-      <c r="B296" s="30"/>
+      <c r="A296" s="14">
+        <v>278</v>
+      </c>
+      <c r="B296" s="30" t="s">
+        <v>1163</v>
+      </c>
       <c r="C296" s="12"/>
       <c r="D296" s="11" t="s">
-        <v>119</v>
+        <v>1164</v>
       </c>
       <c r="E296" s="12"/>
       <c r="F296" s="11" t="s">
-        <v>119</v>
+        <v>1162</v>
       </c>
       <c r="G296" s="12"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
-      <c r="B297" s="30"/>
+      <c r="A297" s="14">
+        <v>279</v>
+      </c>
+      <c r="B297" s="30" t="s">
+        <v>1165</v>
+      </c>
       <c r="C297" s="12"/>
       <c r="D297" s="11" t="s">
-        <v>119</v>
+        <v>1167</v>
       </c>
       <c r="E297" s="12"/>
       <c r="F297" s="11" t="s">
-        <v>119</v>
+        <v>1166</v>
       </c>
       <c r="G297" s="12"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="14"/>
-      <c r="B298" s="30"/>
+      <c r="A298" s="14">
+        <v>280</v>
+      </c>
+      <c r="B298" s="30" t="s">
+        <v>1168</v>
+      </c>
       <c r="C298" s="12"/>
       <c r="D298" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E298" s="12"/>
+      <c r="E298" s="4" t="s">
+        <v>1170</v>
+      </c>
       <c r="F298" s="11" t="s">
-        <v>119</v>
+        <v>1169</v>
       </c>
       <c r="G298" s="12"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
-      <c r="B299" s="30"/>
-      <c r="C299" s="12"/>
+      <c r="A299" s="14">
+        <v>281</v>
+      </c>
+      <c r="B299" s="30" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>1172</v>
+      </c>
       <c r="D299" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E299" s="12"/>
+        <v>1174</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>1173</v>
+      </c>
       <c r="F299" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G299" s="12"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="14"/>
-      <c r="B300" s="30"/>
-      <c r="C300" s="12"/>
+      <c r="A300" s="14">
+        <v>282</v>
+      </c>
+      <c r="B300" s="30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>1176</v>
+      </c>
       <c r="D300" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E300" s="12"/>
+        <v>1178</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>1177</v>
+      </c>
       <c r="F300" s="11" t="s">
-        <v>119</v>
+        <v>1179</v>
       </c>
       <c r="G300" s="12"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
-      <c r="B301" s="30"/>
-      <c r="C301" s="12"/>
+      <c r="A301" s="14">
+        <v>283</v>
+      </c>
+      <c r="B301" s="30" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C301" s="57" t="s">
+        <v>1180</v>
+      </c>
       <c r="D301" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E301" s="12"/>
+        <v>1183</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>1184</v>
+      </c>
       <c r="F301" s="11" t="s">
-        <v>119</v>
+        <v>1182</v>
       </c>
       <c r="G301" s="12"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
-      <c r="B302" s="30"/>
+      <c r="A302" s="14">
+        <v>284</v>
+      </c>
+      <c r="B302" s="30" t="s">
+        <v>1185</v>
+      </c>
       <c r="C302" s="12"/>
       <c r="D302" s="11" t="s">
-        <v>119</v>
+        <v>1187</v>
       </c>
       <c r="E302" s="12"/>
       <c r="F302" s="11" t="s">
-        <v>119</v>
+        <v>1186</v>
       </c>
       <c r="G302" s="12"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
-      <c r="B303" s="30"/>
+      <c r="A303" s="14">
+        <v>285</v>
+      </c>
+      <c r="B303" s="30" t="s">
+        <v>1188</v>
+      </c>
       <c r="C303" s="12"/>
       <c r="D303" s="11" t="s">
-        <v>119</v>
+        <v>1189</v>
       </c>
       <c r="E303" s="12"/>
       <c r="F303" s="11" t="s">
-        <v>119</v>
+        <v>1189</v>
       </c>
       <c r="G303" s="12"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
-      <c r="B304" s="30"/>
-      <c r="C304" s="12"/>
+      <c r="A304" s="14">
+        <v>286</v>
+      </c>
+      <c r="B304" s="30" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>1192</v>
+      </c>
       <c r="D304" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E304" s="12"/>
+        <v>1193</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>1191</v>
+      </c>
       <c r="F304" s="11" t="s">
-        <v>119</v>
+        <v>1194</v>
       </c>
       <c r="G304" s="12"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
-      <c r="B305" s="30"/>
-      <c r="C305" s="12"/>
+      <c r="A305" s="14">
+        <v>287</v>
+      </c>
+      <c r="B305" s="30" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>1198</v>
+      </c>
       <c r="D305" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E305" s="12"/>
+        <v>1196</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>1195</v>
+      </c>
       <c r="F305" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G305" s="12"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
-      <c r="B306" s="30"/>
-      <c r="C306" s="12"/>
+      <c r="A306" s="14">
+        <v>288</v>
+      </c>
+      <c r="B306" s="30" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>1202</v>
+      </c>
       <c r="D306" s="11" t="s">
-        <v>119</v>
+        <v>1201</v>
       </c>
       <c r="E306" s="12"/>
       <c r="F306" s="11" t="s">
-        <v>119</v>
+        <v>1200</v>
       </c>
       <c r="G306" s="12"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
-      <c r="B307" s="30"/>
-      <c r="C307" s="12"/>
+      <c r="A307" s="14">
+        <v>289</v>
+      </c>
+      <c r="B307" s="30" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>1205</v>
+      </c>
       <c r="D307" s="11" t="s">
-        <v>119</v>
+        <v>1206</v>
       </c>
       <c r="E307" s="12"/>
       <c r="F307" s="11" t="s">
-        <v>119</v>
+        <v>1204</v>
       </c>
       <c r="G307" s="12"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="14"/>
-      <c r="B308" s="30"/>
+      <c r="A308" s="14">
+        <v>290</v>
+      </c>
+      <c r="B308" s="30" t="s">
+        <v>1207</v>
+      </c>
       <c r="C308" s="12"/>
       <c r="D308" s="11" t="s">
-        <v>119</v>
+        <v>1209</v>
       </c>
       <c r="E308" s="12"/>
       <c r="F308" s="11" t="s">
-        <v>119</v>
+        <v>1208</v>
       </c>
       <c r="G308" s="12"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
-      <c r="B309" s="30"/>
+      <c r="A309" s="14">
+        <v>291</v>
+      </c>
+      <c r="B309" s="30" t="s">
+        <v>1210</v>
+      </c>
       <c r="C309" s="12"/>
       <c r="D309" s="11" t="s">
-        <v>119</v>
+        <v>1211</v>
       </c>
       <c r="E309" s="12"/>
-      <c r="F309" s="11" t="s">
-        <v>119</v>
+      <c r="F309" s="58" t="s">
+        <v>1212</v>
       </c>
       <c r="G309" s="12"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
-      <c r="B310" s="30"/>
+      <c r="A310" s="14">
+        <v>292</v>
+      </c>
+      <c r="B310" s="30" t="s">
+        <v>1214</v>
+      </c>
       <c r="C310" s="12"/>
       <c r="D310" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E310" s="12"/>
       <c r="F310" s="11" t="s">
-        <v>119</v>
+        <v>1213</v>
       </c>
       <c r="G310" s="12"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
-      <c r="B311" s="30"/>
-      <c r="C311" s="12"/>
+      <c r="A311" s="14">
+        <v>293</v>
+      </c>
+      <c r="B311" s="30" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>1218</v>
+      </c>
       <c r="D311" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E311" s="12"/>
+        <v>1217</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>1216</v>
+      </c>
       <c r="F311" s="11" t="s">
-        <v>119</v>
+        <v>1219</v>
       </c>
       <c r="G311" s="12"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
-      <c r="B312" s="30"/>
-      <c r="C312" s="12"/>
-      <c r="D312" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E312" s="12"/>
-      <c r="F312" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G312" s="12"/>
+      <c r="A312" s="50" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B312" s="51"/>
+      <c r="C312" s="51"/>
+      <c r="D312" s="51"/>
+      <c r="E312" s="51"/>
+      <c r="F312" s="51"/>
+      <c r="G312" s="52"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
-      <c r="B313" s="30"/>
-      <c r="C313" s="12"/>
+      <c r="A313" s="14">
+        <v>294</v>
+      </c>
+      <c r="B313" s="30" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>1223</v>
+      </c>
       <c r="D313" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E313" s="12"/>
       <c r="F313" s="11" t="s">
-        <v>119</v>
+        <v>1222</v>
       </c>
       <c r="G313" s="12"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
-      <c r="B314" s="30"/>
-      <c r="C314" s="12"/>
+      <c r="A314" s="14">
+        <v>295</v>
+      </c>
+      <c r="B314" s="30" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C314" s="27" t="s">
+        <v>1226</v>
+      </c>
       <c r="D314" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E314" s="12"/>
+        <v>1225</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>1224</v>
+      </c>
       <c r="F314" s="11" t="s">
-        <v>119</v>
+        <v>1225</v>
       </c>
       <c r="G314" s="12"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
-      <c r="B315" s="30"/>
-      <c r="C315" s="12"/>
+      <c r="A315" s="14">
+        <v>296</v>
+      </c>
+      <c r="B315" s="30" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>1230</v>
+      </c>
       <c r="D315" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E315" s="12"/>
+      <c r="E315" s="4" t="s">
+        <v>705</v>
+      </c>
       <c r="F315" s="11" t="s">
-        <v>119</v>
+        <v>1229</v>
       </c>
       <c r="G315" s="12"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
-      <c r="B316" s="30"/>
-      <c r="C316" s="12"/>
+      <c r="A316" s="14">
+        <v>297</v>
+      </c>
+      <c r="B316" s="30" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>1232</v>
+      </c>
       <c r="D316" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E316" s="12"/>
+        <v>1233</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>1234</v>
+      </c>
       <c r="F316" s="11" t="s">
-        <v>119</v>
+        <v>1235</v>
       </c>
       <c r="G316" s="12"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
-      <c r="B317" s="30"/>
-      <c r="C317" s="12"/>
+      <c r="A317" s="14">
+        <v>298</v>
+      </c>
+      <c r="B317" s="30" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>1237</v>
+      </c>
       <c r="D317" s="11" t="s">
-        <v>119</v>
+        <v>1239</v>
       </c>
       <c r="E317" s="12"/>
       <c r="F317" s="11" t="s">
-        <v>119</v>
+        <v>1238</v>
       </c>
       <c r="G317" s="12"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="14"/>
-      <c r="B318" s="30"/>
+      <c r="A318" s="14">
+        <v>299</v>
+      </c>
+      <c r="B318" s="30" t="s">
+        <v>1240</v>
+      </c>
       <c r="C318" s="12"/>
       <c r="D318" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E318" s="12"/>
+        <v>1241</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>1243</v>
+      </c>
       <c r="F318" s="11" t="s">
-        <v>119</v>
+        <v>1242</v>
       </c>
       <c r="G318" s="12"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
-      <c r="B319" s="30"/>
-      <c r="C319" s="12"/>
+      <c r="A319" s="14">
+        <v>300</v>
+      </c>
+      <c r="B319" s="30" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>1248</v>
+      </c>
       <c r="D319" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E319" s="12"/>
+        <v>1247</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>1246</v>
+      </c>
       <c r="F319" s="11" t="s">
-        <v>119</v>
+        <v>1245</v>
       </c>
       <c r="G319" s="12"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
-      <c r="B320" s="30"/>
-      <c r="C320" s="12"/>
+      <c r="A320" s="14">
+        <v>301</v>
+      </c>
+      <c r="B320" s="30" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>1250</v>
+      </c>
       <c r="D320" s="11" t="s">
-        <v>119</v>
+        <v>1252</v>
       </c>
       <c r="E320" s="12"/>
       <c r="F320" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G320" s="12"/>
+        <v>1249</v>
+      </c>
+      <c r="G320" s="4" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
-      <c r="B321" s="30"/>
-      <c r="C321" s="12"/>
+      <c r="A321" s="14">
+        <v>302</v>
+      </c>
+      <c r="B321" s="30" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>1257</v>
+      </c>
       <c r="D321" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E321" s="12"/>
+        <v>1258</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>1254</v>
+      </c>
       <c r="F321" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G321" s="12"/>
+        <v>1255</v>
+      </c>
+      <c r="G321" s="14">
+        <v>79643070621</v>
+      </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
-      <c r="B322" s="30"/>
-      <c r="C322" s="12"/>
+      <c r="A322" s="14">
+        <v>303</v>
+      </c>
+      <c r="B322" s="30" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>1262</v>
+      </c>
       <c r="D322" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E322" s="12"/>
+        <v>1260</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>1259</v>
+      </c>
       <c r="F322" s="11" t="s">
-        <v>119</v>
+        <v>1260</v>
       </c>
       <c r="G322" s="12"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
-      <c r="B323" s="30"/>
-      <c r="C323" s="12"/>
+      <c r="A323" s="14">
+        <v>304</v>
+      </c>
+      <c r="B323" s="30" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>1263</v>
+      </c>
       <c r="D323" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E323" s="12"/>
+        <v>1265</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>1264</v>
+      </c>
       <c r="F323" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G323" s="12"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
-      <c r="B324" s="30"/>
-      <c r="C324" s="12"/>
+      <c r="A324" s="14">
+        <v>305</v>
+      </c>
+      <c r="B324" s="30" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>1268</v>
+      </c>
       <c r="D324" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E324" s="12"/>
+      <c r="E324" s="4" t="s">
+        <v>1270</v>
+      </c>
       <c r="F324" s="11" t="s">
-        <v>119</v>
+        <v>1269</v>
       </c>
       <c r="G324" s="12"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="14"/>
-      <c r="B325" s="30"/>
-      <c r="C325" s="12"/>
+      <c r="A325" s="14">
+        <v>306</v>
+      </c>
+      <c r="B325" s="30" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>1273</v>
+      </c>
       <c r="D325" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E325" s="12"/>
+        <v>1275</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>1274</v>
+      </c>
       <c r="F325" s="11" t="s">
-        <v>119</v>
+        <v>1272</v>
       </c>
       <c r="G325" s="12"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
-      <c r="B326" s="30"/>
-      <c r="C326" s="12"/>
+      <c r="A326" s="14">
+        <v>307</v>
+      </c>
+      <c r="B326" s="30" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>1281</v>
+      </c>
       <c r="D326" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E326" s="12"/>
+        <v>1278</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>1277</v>
+      </c>
       <c r="F326" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G326" s="12"/>
+        <v>1280</v>
+      </c>
+      <c r="G326" s="4" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
-      <c r="B327" s="30"/>
-      <c r="C327" s="12"/>
+      <c r="A327" s="14">
+        <v>308</v>
+      </c>
+      <c r="B327" s="30" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>1282</v>
+      </c>
       <c r="D327" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E327" s="12"/>
+        <v>1285</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>1284</v>
+      </c>
       <c r="F327" s="11" t="s">
-        <v>119</v>
+        <v>1285</v>
       </c>
       <c r="G327" s="12"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
-      <c r="B328" s="30"/>
-      <c r="C328" s="12"/>
+      <c r="A328" s="14">
+        <v>309</v>
+      </c>
+      <c r="B328" s="30" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>1287</v>
+      </c>
       <c r="D328" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E328" s="12"/>
+        <v>1289</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>1288</v>
+      </c>
       <c r="F328" s="11" t="s">
         <v>119</v>
       </c>
@@ -11603,12 +12683,9 @@
       <c r="G533" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A245:G245"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A263:G263"/>
-    <mergeCell ref="A265:G265"/>
-    <mergeCell ref="A270:G270"/>
+  <mergeCells count="19">
+    <mergeCell ref="A275:G275"/>
+    <mergeCell ref="A312:G312"/>
     <mergeCell ref="A215:G215"/>
     <mergeCell ref="A234:G234"/>
     <mergeCell ref="A2:G2"/>
@@ -11621,6 +12698,11 @@
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A129:G129"/>
     <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A263:G263"/>
+    <mergeCell ref="A265:G265"/>
+    <mergeCell ref="A270:G270"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
@@ -11952,8 +13034,62 @@
     <hyperlink ref="E271" r:id="rId327"/>
     <hyperlink ref="C271" r:id="rId328"/>
     <hyperlink ref="C274" r:id="rId329"/>
+    <hyperlink ref="E276" r:id="rId330"/>
+    <hyperlink ref="E277" r:id="rId331"/>
+    <hyperlink ref="E278" r:id="rId332"/>
+    <hyperlink ref="E279" r:id="rId333"/>
+    <hyperlink ref="E280" r:id="rId334"/>
+    <hyperlink ref="E281" r:id="rId335"/>
+    <hyperlink ref="E283" r:id="rId336"/>
+    <hyperlink ref="E284" r:id="rId337"/>
+    <hyperlink ref="E285" r:id="rId338"/>
+    <hyperlink ref="E286" r:id="rId339"/>
+    <hyperlink ref="E287" r:id="rId340"/>
+    <hyperlink ref="E288" r:id="rId341"/>
+    <hyperlink ref="E289" r:id="rId342"/>
+    <hyperlink ref="E290" r:id="rId343"/>
+    <hyperlink ref="E291" r:id="rId344"/>
+    <hyperlink ref="E292" r:id="rId345"/>
+    <hyperlink ref="C292" r:id="rId346"/>
+    <hyperlink ref="E293" r:id="rId347"/>
+    <hyperlink ref="C293" r:id="rId348"/>
+    <hyperlink ref="E294" r:id="rId349"/>
+    <hyperlink ref="E298" r:id="rId350"/>
+    <hyperlink ref="E299" r:id="rId351"/>
+    <hyperlink ref="E300" r:id="rId352"/>
+    <hyperlink ref="E301" r:id="rId353"/>
+    <hyperlink ref="E304" r:id="rId354"/>
+    <hyperlink ref="C304" r:id="rId355"/>
+    <hyperlink ref="E305" r:id="rId356"/>
+    <hyperlink ref="C306" r:id="rId357"/>
+    <hyperlink ref="C307" r:id="rId358"/>
+    <hyperlink ref="E311" r:id="rId359"/>
+    <hyperlink ref="C311" r:id="rId360"/>
+    <hyperlink ref="C313" r:id="rId361"/>
+    <hyperlink ref="E314" r:id="rId362"/>
+    <hyperlink ref="C314" r:id="rId363" display="https://link.2gis.com/3.2/aHR0cDovL25scC1tdXJtYW5zay5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIzLTAzLTE0LTE1IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImJjMDhhZTM2LWZkMzctNGM1ZC04ZmM3LTVmYjI5ZmY5Nzk0NCIsImlwIjoiMTg4LjE3MC43Ny4yMzkiLCJzZXNzaW9uSWQiOiI5ZDQ0MTY1Yi04YTE1LTQzY2UtYWZiOC1hMmZkYTZkNzhjMTkiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTEwLjAuMC4wIFNhZmFyaS81MzcuMzYgT1BSLzk2LjAuMC4wIChFZGl0aW9uIFl4KSIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDM6MDAiLCJ0YWJJZCI6IjJmZTQxNzVjLWJhZTctNGRkMy1hYzUzLTFlZjA2MTM4ZGZhNSIsInRpbWVzdGFtcCI6MTY3OTUwNjYyNzc5NiwidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZDNkY2U5MzgtYmJiYy00YmE3LWIzN2QtMmFiYzBiNjYyZWU1IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6ImFkNWM2NjU5LWQ0ODgtNDMxZC05NDg5LTEzZTMxY2UyZmFkZSJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvQTY2Qzc0RDYvb25saW5lLzIwMjMwMzAxL3Byb2plY3Q5Ni83MDAwMDAwMTAwNzQ1MTE3My9udWxsLzU1NDM0MzZBMUNHMko4MTMwMUlHRzRHRzMyNDQzMzk1RzZHNDI3ODE5MTY2MTQ4NHFFcHQ3QTVCMUo3M0c0STFHNDQ3NTRHNTMzNDR1djZBOTgwOTEwMjIzOUgySDNKMkhIR0oxMzc%2FaHR0cDovL25scC1tdXJtYW5zay5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiNzAwMDAwMDEwMDc0NTExNzMiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiOTYifX0sImdlb1Bvc2l0aW9uIjp7ImxvbiI6MzMuMDc5NDkyLCJsYXQiOjY4Ljk1NDY3OH0sImFkc1NlYXJjaCI6ZmFsc2UsIm1haW5SdWJyaWMiOiI2NjgiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI3MDAwMDAwMTAwNzQ1MTE3MiIsImNvbnRleHRSdWJyaWMiOiIxNDQzMSIsInJlc3VsdENsYXNzIjoyfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjI4LCJwYXJlbnRUYWJJZCI6IjExODUwMjMwLTk5Y2MtNDYzYi05OTcyLTMzY2NjZmQyZGIyMiJ9fX1d"/>
+    <hyperlink ref="E315" r:id="rId364"/>
+    <hyperlink ref="C315" r:id="rId365"/>
+    <hyperlink ref="E316" r:id="rId366"/>
+    <hyperlink ref="E318" r:id="rId367"/>
+    <hyperlink ref="E319" r:id="rId368"/>
+    <hyperlink ref="C319" r:id="rId369"/>
+    <hyperlink ref="C320" r:id="rId370"/>
+    <hyperlink ref="G320" r:id="rId371"/>
+    <hyperlink ref="E321" r:id="rId372"/>
+    <hyperlink ref="C321" r:id="rId373"/>
+    <hyperlink ref="E322" r:id="rId374"/>
+    <hyperlink ref="C322" r:id="rId375"/>
+    <hyperlink ref="E323" r:id="rId376"/>
+    <hyperlink ref="E324" r:id="rId377"/>
+    <hyperlink ref="C325" r:id="rId378"/>
+    <hyperlink ref="E325" r:id="rId379"/>
+    <hyperlink ref="E326" r:id="rId380"/>
+    <hyperlink ref="G326" r:id="rId381"/>
+    <hyperlink ref="E327" r:id="rId382"/>
+    <hyperlink ref="E328" r:id="rId383"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId330"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId384"/>
 </worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1320">
   <si>
     <t>Клиентская база</t>
   </si>
@@ -3916,6 +3916,96 @@
   </si>
   <si>
     <t>(8152) 69 27 01</t>
+  </si>
+  <si>
+    <t>globalmedia51.ru</t>
+  </si>
+  <si>
+    <t>Глобал Медиа</t>
+  </si>
+  <si>
+    <t>+7 (8152) 56‒42‒94</t>
+  </si>
+  <si>
+    <t>+7 950 890-11-89</t>
+  </si>
+  <si>
+    <t>info@globalmedia51.ru</t>
+  </si>
+  <si>
+    <t>info@place-start.ru</t>
+  </si>
+  <si>
+    <t>8 800 777-02-53</t>
+  </si>
+  <si>
+    <t>Placestart</t>
+  </si>
+  <si>
+    <t>https://murmansk.place-start.ru</t>
+  </si>
+  <si>
+    <t>info@portal-nord.ru</t>
+  </si>
+  <si>
+    <t>+7‒911‒808‒78‒92</t>
+  </si>
+  <si>
+    <t>Северный портал</t>
+  </si>
+  <si>
+    <t>+7 911 808-78-92</t>
+  </si>
+  <si>
+    <t>https://portal-nord.ru/page.php</t>
+  </si>
+  <si>
+    <t>info@hhprod.ru</t>
+  </si>
+  <si>
+    <t>8(8152) 68-37-40</t>
+  </si>
+  <si>
+    <t>HHProd</t>
+  </si>
+  <si>
+    <t>http://hhprod.ru</t>
+  </si>
+  <si>
+    <t>Very Mary</t>
+  </si>
+  <si>
+    <t>Связь</t>
+  </si>
+  <si>
+    <t>corporate@megafon.ru</t>
+  </si>
+  <si>
+    <t>murmansk.megafon.ru</t>
+  </si>
+  <si>
+    <t>МегаФон</t>
+  </si>
+  <si>
+    <t>8 800 700-06-28</t>
+  </si>
+  <si>
+    <t>services@beeline.ru</t>
+  </si>
+  <si>
+    <t>Билайн</t>
+  </si>
+  <si>
+    <t>info@tele2.ru</t>
+  </si>
+  <si>
+    <t>https://murmansk.tele2.ru</t>
+  </si>
+  <si>
+    <t>Tele2</t>
+  </si>
+  <si>
+    <t>+7‒977‒555‒16‒11</t>
   </si>
 </sst>
 </file>
@@ -4228,13 +4318,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4246,25 +4347,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4279,8 +4368,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4563,10 +4653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G533"/>
+  <dimension ref="A1:G534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,15 +4677,15 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4621,15 +4711,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -5402,337 +5492,330 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25">
+        <f>7902130-69-20</f>
+        <v>7902041</v>
+      </c>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
         <v>39</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B44" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D44" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E44" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F44" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="32"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>40</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B46" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D46" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F46" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>41</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="30"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
+        <v>44</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>45</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
-        <v>46</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G52" s="30"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
+        <v>46</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>47</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B54" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
-        <v>48</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F57" s="16"/>
+        <v>226</v>
+      </c>
+      <c r="F57" s="11"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F58" s="11"/>
+        <v>230</v>
+      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>119</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="F59" s="11"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>245</v>
+        <v>236</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>119</v>
@@ -5741,19 +5824,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>54</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>243</v>
+        <v>53</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>119</v>
@@ -5762,19 +5845,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
-        <v>55</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>250</v>
+        <v>54</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>243</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>119</v>
@@ -5783,19 +5866,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>119</v>
@@ -5804,19 +5887,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>119</v>
@@ -5825,19 +5908,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>119</v>
@@ -5846,80 +5929,80 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F66" s="11"/>
+        <v>260</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>269</v>
+        <v>264</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>271</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="11"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>273</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>119</v>
@@ -5928,263 +6011,263 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <v>64</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>286</v>
+        <v>63</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>283</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>289</v>
-      </c>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
+        <v>64</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
         <v>65</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B73" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D73" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
+      <c r="F73" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="55"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
-        <v>66</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G74" s="12"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="56"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="G75" s="12"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
-        <v>69</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>310</v>
+        <v>68</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>306</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G77" s="12"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
-        <v>70</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>315</v>
+        <v>69</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>310</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="G81" s="12"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
-        <v>74</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>334</v>
+        <v>73</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>331</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>119</v>
@@ -6193,17 +6276,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
-        <v>75</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="D83" s="11" t="s">
-        <v>337</v>
+        <v>119</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>119</v>
@@ -6212,17 +6297,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>119</v>
@@ -6231,61 +6316,59 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>344</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C85" s="12"/>
       <c r="D85" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>347</v>
+        <v>119</v>
       </c>
       <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
-        <v>78</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>351</v>
+        <v>77</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>119</v>
+        <v>347</v>
       </c>
       <c r="G86" s="12"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
-        <v>79</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>352</v>
+        <v>78</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>348</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>119</v>
@@ -6294,103 +6377,103 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>379</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="G88" s="12"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="G89" s="12"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>368</v>
+        <v>119</v>
       </c>
       <c r="G90" s="12"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="G91" s="12"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>119</v>
@@ -6399,850 +6482,850 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E93" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="F93" s="11" t="s">
-        <v>376</v>
+        <v>119</v>
       </c>
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>383</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="E94" s="12"/>
       <c r="F94" s="11" t="s">
-        <v>119</v>
+        <v>376</v>
       </c>
       <c r="G94" s="12"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>388</v>
+        <v>119</v>
       </c>
       <c r="G95" s="12"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G96" s="12"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
+        <v>88</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
         <v>89</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B98" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D98" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="53" t="s">
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="55"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
-        <v>90</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" s="12"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="56"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>406</v>
+        <v>119</v>
       </c>
       <c r="G100" s="12"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
+        <v>92</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
         <v>93</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B102" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="11" t="s">
+      <c r="C102" s="29"/>
+      <c r="D102" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F102" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="37">
-        <v>94</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="11" t="s">
-        <v>416</v>
       </c>
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="37">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>419</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="E103" s="12"/>
       <c r="F103" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G103" s="12"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="37">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>425</v>
+        <v>420</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>119</v>
+        <v>422</v>
       </c>
       <c r="G104" s="12"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="37">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>425</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>431</v>
+        <v>119</v>
       </c>
       <c r="G105" s="12"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="37">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G106" s="12"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="37">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G107" s="12"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="37">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="37">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>119</v>
+        <v>446</v>
       </c>
       <c r="G109" s="12"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="37">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>449</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>455</v>
+        <v>119</v>
       </c>
       <c r="G110" s="12"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="37">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>456</v>
+        <v>451</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>460</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="G111" s="12"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="37">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>456</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" s="12"/>
+        <v>458</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="37">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>469</v>
+        <v>119</v>
       </c>
       <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="37">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G114" s="12"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="37">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="E115" s="12"/>
+        <v>473</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="F115" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G115" s="12"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="37">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>483</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="E116" s="12"/>
       <c r="F116" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>480</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="37">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="G117" s="12"/>
+        <v>479</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="37">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>493</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="G118" s="12"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="37">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="C119" s="12"/>
+        <v>491</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>492</v>
+      </c>
       <c r="D119" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E119" s="12"/>
+        <v>490</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>492</v>
+      </c>
       <c r="F119" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="G119" s="12"/>
+        <v>494</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="37">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>499</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C120" s="12"/>
       <c r="D120" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>502</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E120" s="12"/>
       <c r="F120" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G120" s="12"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="37">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G121" s="12"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="37">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="C122" s="12"/>
+        <v>506</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="D122" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="E122" s="12"/>
+        <v>504</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="F122" s="11" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G122" s="12"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="37">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>511</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="C123" s="12"/>
       <c r="D123" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>515</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="E123" s="12"/>
       <c r="F123" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G123" s="12"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="37">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G124" s="12"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="37">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>522</v>
+        <v>516</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>528</v>
+        <v>518</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G125" s="12"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="37">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>530</v>
+        <v>523</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G126" s="12"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="37">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>531</v>
+        <v>525</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G127" s="12"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="37">
+        <v>119</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="37">
         <v>120</v>
       </c>
-      <c r="B128" s="33" t="s">
+      <c r="B129" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C129" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D129" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="F128" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="42" t="s">
+      <c r="F129" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="37">
-        <v>121</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="G130" s="12"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="37">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>540</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="G131" s="12"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="37">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>119</v>
+        <v>548</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G132" s="12"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="37">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>556</v>
+        <v>119</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>119</v>
+        <v>552</v>
       </c>
       <c r="G133" s="12"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="37">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>560</v>
+        <v>553</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>554</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>119</v>
@@ -7251,540 +7334,540 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="37">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>566</v>
+        <v>119</v>
       </c>
       <c r="G135" s="12"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="37">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>568</v>
+        <v>563</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G136" s="12"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="37">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G137" s="12"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="37">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G138" s="12"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="37">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G139" s="12"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="37">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G140" s="12"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="37">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>593</v>
+        <v>587</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>119</v>
+        <v>589</v>
       </c>
       <c r="G141" s="12"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="37">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>597</v>
+        <v>591</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>593</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>598</v>
+        <v>119</v>
       </c>
       <c r="G142" s="12"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="37">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>604</v>
+        <v>597</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G143" s="12"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="37">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>609</v>
+        <v>600</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>604</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G144" s="12"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="37">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G145" s="12"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="37">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>610</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="E146" s="12"/>
+        <v>612</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>614</v>
+      </c>
       <c r="F146" s="11" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G146" s="12"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="37">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="C147" s="12"/>
+        <v>615</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="D147" s="11" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G147" s="12"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="37">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>623</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="C148" s="12"/>
       <c r="D148" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>624</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E148" s="12"/>
       <c r="F148" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G148" s="12"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="37">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="E149" s="12"/>
+        <v>623</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="F149" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G149" s="12"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="37">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>628</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="11" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G150" s="12"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="37">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>633</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="C151" s="12"/>
       <c r="D151" s="11" t="s">
-        <v>119</v>
+        <v>631</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G151" s="12"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="37">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>633</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>637</v>
+        <v>119</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G152" s="12"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="37">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>644</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="E153" s="12"/>
       <c r="F153" s="11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G153" s="12"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="37">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>645</v>
-      </c>
-      <c r="C154" s="12"/>
+        <v>640</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>643</v>
+      </c>
       <c r="D154" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="E154" s="12"/>
+        <v>641</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>644</v>
+      </c>
       <c r="F154" s="11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G154" s="12"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="37">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C155" s="12"/>
       <c r="D155" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G155" s="12"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="37">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C156" s="12"/>
-      <c r="D156" s="16" t="s">
-        <v>652</v>
+      <c r="D156" s="11" t="s">
+        <v>648</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G156" s="12"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="37">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>655</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>656</v>
+        <v>651</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="16" t="s">
+        <v>652</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G157" s="12"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
-        <v>149</v>
+      <c r="A158" s="37">
+        <v>148</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="16" t="s">
-        <v>659</v>
+        <v>655</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>656</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G158" s="12"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="16" t="s">
+        <v>659</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>150</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G159" s="12"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="50" t="s">
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="43" t="s">
         <v>807</v>
       </c>
-      <c r="B160" s="51"/>
-      <c r="C160" s="51"/>
-      <c r="D160" s="51"/>
-      <c r="E160" s="51"/>
-      <c r="F160" s="51"/>
-      <c r="G160" s="52"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="14">
-        <v>151</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G161" s="12"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="45"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>671</v>
+        <v>667</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>668</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>119</v>
@@ -7793,19 +7876,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>119</v>
@@ -7814,19 +7897,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>675</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F164" s="11" t="s">
         <v>119</v>
@@ -7835,19 +7918,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F165" s="11" t="s">
         <v>119</v>
@@ -7856,101 +7939,101 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
-        <v>156</v>
-      </c>
-      <c r="B166" s="36" t="s">
-        <v>685</v>
-      </c>
-      <c r="C166" s="29" t="s">
-        <v>686</v>
+        <v>155</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>681</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>689</v>
+        <v>119</v>
       </c>
       <c r="G166" s="12"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
-        <v>157</v>
-      </c>
-      <c r="B167" s="33" t="s">
-        <v>691</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>693</v>
+        <v>156</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>686</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="E167" s="12"/>
+        <v>688</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>687</v>
+      </c>
       <c r="F167" s="11" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G167" s="12"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="D168" s="38">
-        <v>89212827222</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>695</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E168" s="12"/>
       <c r="F168" s="11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G168" s="12"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>698</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>700</v>
+        <v>694</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D169" s="38">
+        <v>89212827222</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>119</v>
+        <v>696</v>
       </c>
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>700</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>119</v>
@@ -7959,18 +8042,20 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>708</v>
+        <v>702</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>704</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="E171" s="12"/>
+        <v>703</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>705</v>
+      </c>
       <c r="F171" s="11" t="s">
         <v>119</v>
       </c>
@@ -7978,59 +8063,57 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>709</v>
+        <v>706</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>707</v>
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="11" t="s">
-        <v>710</v>
+        <v>119</v>
       </c>
       <c r="G172" s="12"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>715</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="E173" s="12"/>
       <c r="F173" s="11" t="s">
-        <v>119</v>
+        <v>710</v>
       </c>
       <c r="G173" s="12"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>717</v>
+        <v>714</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>716</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>119</v>
@@ -8039,72 +8122,72 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
+        <v>164</v>
+      </c>
+      <c r="B175" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="14">
         <v>165</v>
       </c>
-      <c r="B175" s="33" t="s">
+      <c r="B176" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D176" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E176" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="F175" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G175" s="12"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="43" t="s">
+      <c r="F176" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="48" t="s">
         <v>808</v>
       </c>
-      <c r="B176" s="51"/>
-      <c r="C176" s="51"/>
-      <c r="D176" s="51"/>
-      <c r="E176" s="51"/>
-      <c r="F176" s="51"/>
-      <c r="G176" s="52"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
-        <v>166</v>
-      </c>
-      <c r="B177" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G177" s="12"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="44"/>
+      <c r="E177" s="44"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="45"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>119</v>
@@ -8113,278 +8196,278 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>736</v>
+        <v>119</v>
       </c>
       <c r="G179" s="12"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="D180" s="27" t="s">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>735</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>119</v>
+        <v>736</v>
       </c>
       <c r="G180" s="12"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>742</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E181" s="12"/>
+        <v>739</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>738</v>
+      </c>
       <c r="F181" s="11" t="s">
-        <v>744</v>
+        <v>119</v>
       </c>
       <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>746</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>751</v>
+        <v>742</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>743</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="E182" s="27" t="s">
-        <v>747</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="E182" s="12"/>
       <c r="F182" s="11" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G182" s="12"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>747</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G183" s="12"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B184" s="33" t="s">
-        <v>756</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>757</v>
+        <v>748</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>755</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G184" s="12"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>761</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>764</v>
+        <v>756</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>757</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>119</v>
+        <v>760</v>
       </c>
       <c r="G185" s="12"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="D186" s="11"/>
+        <v>764</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="E186" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="F186" s="11"/>
+        <v>762</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="G186" s="12"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>770</v>
-      </c>
-      <c r="C187" s="12"/>
-      <c r="D187" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="E187" s="12"/>
-      <c r="F187" s="11" t="s">
-        <v>768</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D187" s="11"/>
+      <c r="E187" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F187" s="11"/>
       <c r="G187" s="12"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C188" s="12"/>
       <c r="D188" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>773</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="E188" s="12"/>
       <c r="F188" s="11" t="s">
-        <v>119</v>
+        <v>768</v>
       </c>
       <c r="G188" s="12"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>776</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>777</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="C189" s="12"/>
       <c r="D189" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="E189" s="12"/>
+        <v>772</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>773</v>
+      </c>
       <c r="F189" s="11" t="s">
-        <v>775</v>
+        <v>119</v>
       </c>
       <c r="G189" s="12"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>779</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="E190" s="12"/>
       <c r="F190" s="11" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G190" s="12"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>783</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>782</v>
+        <v>778</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>119</v>
+        <v>780</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>119</v>
+        <v>780</v>
       </c>
       <c r="G191" s="12"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B192" s="33" t="s">
-        <v>785</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>787</v>
+        <v>783</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>782</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>119</v>
@@ -8393,603 +8476,603 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E193" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>786</v>
+      </c>
       <c r="F193" s="11" t="s">
-        <v>790</v>
+        <v>119</v>
       </c>
       <c r="G193" s="12"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B194" s="33" t="s">
-        <v>794</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>793</v>
+        <v>789</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>119</v>
+        <v>788</v>
       </c>
       <c r="E194" s="12"/>
       <c r="F194" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>792</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="G194" s="12"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>797</v>
-      </c>
-      <c r="C195" s="11"/>
+        <v>794</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>793</v>
+      </c>
       <c r="D195" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>795</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E195" s="12"/>
       <c r="F195" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="G195" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>799</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>802</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="C196" s="11"/>
       <c r="D196" s="11" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G196" s="12"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G197" s="12"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G198" s="12"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B199" s="33" t="s">
-        <v>814</v>
-      </c>
-      <c r="C199" s="12"/>
+        <v>809</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>812</v>
+      </c>
       <c r="D199" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="E199" s="12"/>
+        <v>813</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>811</v>
+      </c>
       <c r="F199" s="11" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G199" s="12"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B200" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>820</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="C200" s="12"/>
       <c r="D200" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>818</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="E200" s="12"/>
       <c r="F200" s="11" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G200" s="12"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="C201" s="12"/>
+        <v>817</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>820</v>
+      </c>
       <c r="D201" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="E201" s="12"/>
+        <v>819</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>818</v>
+      </c>
       <c r="F201" s="11" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G201" s="12"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>824</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>826</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="C202" s="12"/>
       <c r="D202" s="11" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E202" s="12"/>
       <c r="F202" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G202" s="12"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>827</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>828</v>
+        <v>824</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>441</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="E203" s="12"/>
       <c r="F203" s="11" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G203" s="12"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>830</v>
-      </c>
-      <c r="C204" s="12"/>
+        <v>827</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>828</v>
+      </c>
       <c r="D204" s="11" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>831</v>
+        <v>441</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G204" s="12"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B205" s="33" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C205" s="12"/>
       <c r="D205" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="E205" s="12"/>
+        <v>832</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>831</v>
+      </c>
       <c r="F205" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G205" s="12"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C206" s="12"/>
       <c r="D206" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E206" s="12"/>
       <c r="F206" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G206" s="12"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>837</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>838</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="C207" s="12"/>
       <c r="D207" s="11" t="s">
-        <v>840</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>841</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="E207" s="12"/>
       <c r="F207" s="11" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="G207" s="12"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>842</v>
-      </c>
-      <c r="C208" s="12"/>
+        <v>837</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>838</v>
+      </c>
       <c r="D208" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E208" s="12"/>
+        <v>840</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>841</v>
+      </c>
       <c r="F208" s="11" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G208" s="12"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>844</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>845</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="C209" s="12"/>
       <c r="D209" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E209" s="4" t="s">
-        <v>846</v>
-      </c>
+      <c r="E209" s="12"/>
       <c r="F209" s="11" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G209" s="12"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>850</v>
+        <v>119</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>119</v>
+        <v>847</v>
       </c>
       <c r="G210" s="12"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>854</v>
+        <v>119</v>
       </c>
       <c r="G211" s="12"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>857</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>859</v>
+        <v>855</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>852</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="E212" s="12"/>
+        <v>854</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="F212" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G212" s="12"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>119</v>
+        <v>858</v>
       </c>
       <c r="E213" s="12"/>
       <c r="F213" s="11" t="s">
-        <v>119</v>
+        <v>856</v>
       </c>
       <c r="G213" s="12"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
+        <v>202</v>
+      </c>
+      <c r="B214" s="33" t="s">
+        <v>861</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E214" s="12"/>
+      <c r="F214" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="14">
         <v>203</v>
       </c>
-      <c r="B214" s="33" t="s">
+      <c r="B215" s="33" t="s">
         <v>864</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C215" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D214" s="11" t="s">
+      <c r="D215" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="E214" s="4" t="s">
+      <c r="E215" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="F214" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G214" s="12"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="46" t="s">
+      <c r="F215" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="46" t="s">
         <v>935</v>
       </c>
-      <c r="B215" s="47"/>
-      <c r="C215" s="47"/>
-      <c r="D215" s="47"/>
-      <c r="E215" s="47"/>
-      <c r="F215" s="47"/>
-      <c r="G215" s="47"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="14">
-        <v>204</v>
-      </c>
-      <c r="B216" s="33" t="s">
-        <v>867</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="D216" s="16" t="s">
-        <v>868</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="F216" s="16" t="s">
-        <v>868</v>
-      </c>
-      <c r="G216" s="12"/>
+      <c r="B216" s="47"/>
+      <c r="C216" s="47"/>
+      <c r="D216" s="47"/>
+      <c r="E216" s="47"/>
+      <c r="F216" s="47"/>
+      <c r="G216" s="47"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
-        <v>205</v>
-      </c>
-      <c r="B217" s="36" t="s">
-        <v>870</v>
-      </c>
-      <c r="C217" s="12" t="s">
-        <v>871</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="E217" s="12"/>
-      <c r="F217" s="11" t="s">
-        <v>872</v>
+        <v>204</v>
+      </c>
+      <c r="B217" s="33" t="s">
+        <v>867</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D217" s="16" t="s">
+        <v>868</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F217" s="16" t="s">
+        <v>868</v>
       </c>
       <c r="G217" s="12"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
-        <v>206</v>
-      </c>
-      <c r="B218" s="33" t="s">
-        <v>875</v>
+        <v>205</v>
+      </c>
+      <c r="B218" s="36" t="s">
+        <v>870</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>876</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="E218" s="12"/>
       <c r="F218" s="11" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G218" s="12"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>882</v>
+        <v>875</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>874</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G219" s="12"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="14">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G220" s="12"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="E221" s="12"/>
+        <v>884</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>883</v>
+      </c>
       <c r="F221" s="11" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G221" s="12"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>894</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="E222" s="12"/>
       <c r="F222" s="11" t="s">
-        <v>119</v>
+        <v>890</v>
       </c>
       <c r="G222" s="12"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F223" s="11" t="s">
         <v>119</v>
@@ -8998,19 +9081,19 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>900</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>902</v>
+        <v>897</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>899</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>119</v>
@@ -9019,152 +9102,152 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>905</v>
-      </c>
-      <c r="C225" s="27" t="s">
-        <v>906</v>
+        <v>900</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>902</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>908</v>
+        <v>119</v>
       </c>
       <c r="G225" s="12"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>909</v>
-      </c>
-      <c r="C226" s="12"/>
+        <v>905</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>906</v>
+      </c>
       <c r="D226" s="11" t="s">
-        <v>910</v>
-      </c>
-      <c r="E226" s="12"/>
+        <v>903</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>907</v>
+      </c>
       <c r="F226" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G226" s="12"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>911</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>914</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="C227" s="12"/>
       <c r="D227" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>912</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="E227" s="12"/>
       <c r="F227" s="11" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G227" s="12"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>915</v>
-      </c>
-      <c r="C228" s="12"/>
+        <v>911</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="D228" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="E228" s="12"/>
+        <v>913</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="F228" s="11" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G228" s="12"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C229" s="12"/>
       <c r="D229" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G229" s="12"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C230" s="12"/>
       <c r="D230" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>920</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="E230" s="12"/>
       <c r="F230" s="11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G230" s="12"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>926</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>925</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="C231" s="12"/>
       <c r="D231" s="11" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>119</v>
+        <v>921</v>
       </c>
       <c r="G231" s="12"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>119</v>
@@ -9173,135 +9256,135 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
+        <v>220</v>
+      </c>
+      <c r="B233" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G233" s="12"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="14">
         <v>221</v>
       </c>
-      <c r="B233" s="33" t="s">
+      <c r="B234" s="33" t="s">
         <v>932</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="C234" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="D233" s="11" t="s">
+      <c r="D234" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="E233" s="4" t="s">
+      <c r="E234" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="F233" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G233" s="12"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="43" t="s">
+      <c r="F234" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G234" s="12"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="48" t="s">
         <v>936</v>
       </c>
-      <c r="B234" s="44"/>
-      <c r="C234" s="44"/>
-      <c r="D234" s="44"/>
-      <c r="E234" s="44"/>
-      <c r="F234" s="44"/>
-      <c r="G234" s="45"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="14">
-        <v>222</v>
-      </c>
-      <c r="B235" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G235" s="12"/>
+      <c r="B235" s="49"/>
+      <c r="C235" s="49"/>
+      <c r="D235" s="49"/>
+      <c r="E235" s="49"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="50"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>944</v>
+        <v>119</v>
       </c>
       <c r="G236" s="12"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="G237" s="12"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>119</v>
+        <v>949</v>
       </c>
       <c r="G238" s="12"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>119</v>
@@ -9310,19 +9393,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>119</v>
+        <v>958</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F240" s="11" t="s">
         <v>119</v>
@@ -9331,19 +9414,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>964</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>965</v>
+        <v>959</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>960</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>963</v>
+        <v>119</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F241" s="11" t="s">
         <v>119</v>
@@ -9352,177 +9435,177 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B242" s="33" t="s">
-        <v>966</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>967</v>
+        <v>964</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>965</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>969</v>
+        <v>119</v>
       </c>
       <c r="G242" s="12"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>970</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>971</v>
+        <v>966</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>967</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>119</v>
+        <v>969</v>
       </c>
       <c r="G243" s="12"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
+        <v>230</v>
+      </c>
+      <c r="B244" s="33" t="s">
+        <v>970</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="14">
         <v>231</v>
       </c>
-      <c r="B244" s="33" t="s">
+      <c r="B245" s="33" t="s">
         <v>977</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C245" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="D244" s="11" t="s">
+      <c r="D245" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="E244" s="4" t="s">
+      <c r="E245" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="F244" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G244" s="12"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="40" t="s">
+      <c r="F245" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="53" t="s">
         <v>1029</v>
       </c>
-      <c r="B245" s="41"/>
-      <c r="C245" s="41"/>
-      <c r="D245" s="41"/>
-      <c r="E245" s="41"/>
-      <c r="F245" s="41"/>
-      <c r="G245" s="41"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="14">
-        <v>233</v>
-      </c>
-      <c r="B246" s="33" t="s">
-        <v>980</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="G246" s="12"/>
+      <c r="B246" s="58"/>
+      <c r="C246" s="58"/>
+      <c r="D246" s="58"/>
+      <c r="E246" s="58"/>
+      <c r="F246" s="58"/>
+      <c r="G246" s="58"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="C247" s="12" t="s">
-        <v>984</v>
+        <v>980</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>981</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G247" s="12"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>988</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>989</v>
+        <v>985</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>984</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="G248" s="12"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>119</v>
+        <v>987</v>
       </c>
       <c r="G249" s="12"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>996</v>
-      </c>
-      <c r="C250" s="12" t="s">
-        <v>997</v>
+        <v>992</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>991</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>119</v>
@@ -9531,19 +9614,19 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>997</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>119</v>
@@ -9552,1505 +9635,1513 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E252" s="12"/>
+        <v>1000</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>998</v>
+      </c>
       <c r="F252" s="11" t="s">
-        <v>1002</v>
+        <v>119</v>
       </c>
       <c r="G252" s="12"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E253" s="12"/>
       <c r="F253" s="11" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G253" s="12"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>1009</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="E254" s="12"/>
       <c r="F254" s="11" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G254" s="12"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>119</v>
+        <v>1010</v>
       </c>
       <c r="G255" s="12"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>1020</v>
+        <v>119</v>
       </c>
       <c r="G256" s="12"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E257" s="12"/>
+        <v>1018</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>1019</v>
+      </c>
       <c r="F257" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G257" s="12"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>1026</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="E258" s="12"/>
       <c r="F258" s="11" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="G258" s="12"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
+        <v>245</v>
+      </c>
+      <c r="B259" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="14">
         <v>246</v>
       </c>
-      <c r="B259" s="33" t="s">
+      <c r="B260" s="33" t="s">
         <v>980</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C260" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="D259" s="11" t="s">
+      <c r="D260" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="E259" s="4" t="s">
+      <c r="E260" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="F259" s="11" t="s">
+      <c r="F260" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="G259" s="12"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="42" t="s">
+      <c r="G260" s="12"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="42" t="s">
         <v>1039</v>
       </c>
-      <c r="B260" s="42"/>
-      <c r="C260" s="42"/>
-      <c r="D260" s="42"/>
-      <c r="E260" s="42"/>
-      <c r="F260" s="42"/>
-      <c r="G260" s="42"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="14">
-        <v>247</v>
-      </c>
-      <c r="B261" s="30" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D261" s="11" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G261" s="12"/>
+      <c r="B261" s="42"/>
+      <c r="C261" s="42"/>
+      <c r="D261" s="42"/>
+      <c r="E261" s="42"/>
+      <c r="F261" s="42"/>
+      <c r="G261" s="42"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
+        <v>247</v>
+      </c>
+      <c r="B262" s="30" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G262" s="12"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="14">
         <v>248</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B263" s="30" t="s">
         <v>1036</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C263" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="D262" s="11" t="s">
+      <c r="D263" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="E262" s="4" t="s">
+      <c r="E263" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="F262" s="11" t="s">
+      <c r="F263" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="G262" s="12"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="43" t="s">
+      <c r="G263" s="12"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="48" t="s">
         <v>1040</v>
       </c>
-      <c r="B263" s="44"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="44"/>
-      <c r="E263" s="44"/>
-      <c r="F263" s="44"/>
-      <c r="G263" s="45"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="14">
+      <c r="B264" s="49"/>
+      <c r="C264" s="49"/>
+      <c r="D264" s="49"/>
+      <c r="E264" s="49"/>
+      <c r="F264" s="49"/>
+      <c r="G264" s="50"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="14">
         <v>249</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B265" s="30" t="s">
         <v>1044</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C265" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D264" s="11" t="s">
+      <c r="D265" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="E264" s="12"/>
-      <c r="F264" s="11" t="s">
+      <c r="E265" s="12"/>
+      <c r="F265" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="G264" s="4" t="s">
+      <c r="G265" s="4" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="43" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="48" t="s">
         <v>1045</v>
       </c>
-      <c r="B265" s="44"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="44"/>
-      <c r="E265" s="44"/>
-      <c r="F265" s="44"/>
-      <c r="G265" s="45"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="14">
-        <v>250</v>
-      </c>
-      <c r="B266" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D266" s="11" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G266" s="12"/>
+      <c r="B266" s="49"/>
+      <c r="C266" s="49"/>
+      <c r="D266" s="49"/>
+      <c r="E266" s="49"/>
+      <c r="F266" s="49"/>
+      <c r="G266" s="50"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B267" s="30" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G267" s="12"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
-        <v>252</v>
-      </c>
-      <c r="B268" s="39" t="s">
-        <v>1055</v>
+        <v>251</v>
+      </c>
+      <c r="B268" s="30" t="s">
+        <v>1053</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E268" s="12"/>
+        <v>1051</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="F268" s="11" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="G268" s="12"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
-        <v>253</v>
-      </c>
-      <c r="B269" s="30" t="s">
-        <v>1060</v>
+        <v>252</v>
+      </c>
+      <c r="B269" s="39" t="s">
+        <v>1055</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E269" s="12"/>
       <c r="F269" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G269" s="12"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="14">
+        <v>253</v>
+      </c>
+      <c r="B270" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E270" s="12"/>
+      <c r="F270" s="11" t="s">
         <v>1058</v>
       </c>
-      <c r="G269" s="12"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="42" t="s">
+      <c r="G270" s="12"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="42" t="s">
         <v>1076</v>
       </c>
-      <c r="B270" s="42"/>
-      <c r="C270" s="42"/>
-      <c r="D270" s="42"/>
-      <c r="E270" s="42"/>
-      <c r="F270" s="42"/>
-      <c r="G270" s="42"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="14">
-        <v>254</v>
-      </c>
-      <c r="B271" s="30" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D271" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G271" s="12"/>
+      <c r="B271" s="42"/>
+      <c r="C271" s="42"/>
+      <c r="D271" s="42"/>
+      <c r="E271" s="42"/>
+      <c r="F271" s="42"/>
+      <c r="G271" s="42"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B272" s="30" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C272" s="12" t="s">
-        <v>1066</v>
+        <v>1062</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>1065</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E272" s="12"/>
+        <v>1064</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>1063</v>
+      </c>
       <c r="F272" s="11" t="s">
-        <v>1068</v>
+        <v>119</v>
       </c>
       <c r="G272" s="12"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>119</v>
+        <v>1069</v>
       </c>
       <c r="E273" s="12"/>
       <c r="F273" s="11" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G273" s="12"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B274" s="30" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>1075</v>
+        <v>1071</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>1070</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>1074</v>
+        <v>119</v>
       </c>
       <c r="E274" s="12"/>
       <c r="F274" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G274" s="12"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="14">
+        <v>257</v>
+      </c>
+      <c r="B275" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D275" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="G274" s="12"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="42" t="s">
+      <c r="E275" s="12"/>
+      <c r="F275" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G275" s="12"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="42" t="s">
         <v>1077</v>
       </c>
-      <c r="B275" s="42"/>
-      <c r="C275" s="42"/>
-      <c r="D275" s="42"/>
-      <c r="E275" s="42"/>
-      <c r="F275" s="42"/>
-      <c r="G275" s="42"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="14">
-        <v>258</v>
-      </c>
-      <c r="B276" s="30" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G276" s="12"/>
+      <c r="B276" s="42"/>
+      <c r="C276" s="42"/>
+      <c r="D276" s="42"/>
+      <c r="E276" s="42"/>
+      <c r="F276" s="42"/>
+      <c r="G276" s="42"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="14">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C277" s="12"/>
-      <c r="D277" s="16" t="s">
-        <v>1085</v>
+        <v>1080</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>1081</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G277" s="12"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="14">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B278" s="30" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C278" s="12"/>
-      <c r="D278" s="11" t="s">
-        <v>1089</v>
+      <c r="D278" s="16" t="s">
+        <v>1085</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F278" s="11" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="G278" s="12"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="14">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B279" s="30" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C279" s="12" t="s">
-        <v>1091</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="C279" s="12"/>
       <c r="D279" s="11" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G279" s="12"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="14">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B280" s="30" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="G280" s="12"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B281" s="30" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="G281" s="12"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B282" s="30" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E282" s="12"/>
+        <v>1102</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>1101</v>
+      </c>
       <c r="F282" s="11" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G282" s="12"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="30" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>1112</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="E283" s="12"/>
       <c r="F283" s="11" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="G283" s="12"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B284" s="30" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="G284" s="12"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="14">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B285" s="30" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="G285" s="12"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="14">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B286" s="30" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="G286" s="12"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B287" s="30" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>119</v>
+        <v>1126</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>119</v>
+        <v>1126</v>
       </c>
       <c r="G287" s="12"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B288" s="30" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>1135</v>
+        <v>119</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>1133</v>
+        <v>119</v>
       </c>
       <c r="G288" s="12"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B289" s="30" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C289" s="12"/>
+        <v>1132</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>1131</v>
+      </c>
       <c r="D289" s="11" t="s">
-        <v>119</v>
+        <v>1135</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>119</v>
+        <v>1133</v>
       </c>
       <c r="G289" s="12"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B290" s="30" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C290" s="12"/>
       <c r="D290" s="11" t="s">
-        <v>1138</v>
+        <v>119</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F290" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="G290" s="12"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B291" s="30" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C291" s="12" t="s">
-        <v>1146</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="C291" s="12"/>
       <c r="D291" s="11" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F291" s="11" t="s">
-        <v>1144</v>
+        <v>1140</v>
+      </c>
+      <c r="F291" s="16" t="s">
+        <v>1138</v>
       </c>
       <c r="G291" s="12"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="14">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B292" s="30" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>1149</v>
+        <v>1142</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>1146</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>119</v>
+        <v>1144</v>
       </c>
       <c r="G292" s="12"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="14">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B293" s="30" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>119</v>
+        <v>1148</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G293" s="11" t="s">
-        <v>1153</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G293" s="12"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="14">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B294" s="30" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C294" s="12" t="s">
-        <v>1156</v>
+        <v>1150</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>1154</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>1157</v>
+        <v>119</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G294" s="12"/>
+        <v>1151</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="14">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B295" s="30" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C295" s="12"/>
+        <v>1155</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>1156</v>
+      </c>
       <c r="D295" s="11" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E295" s="12"/>
+        <v>1157</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>1158</v>
+      </c>
       <c r="F295" s="11" t="s">
-        <v>1159</v>
+        <v>119</v>
       </c>
       <c r="G295" s="12"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B296" s="30" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C296" s="12"/>
       <c r="D296" s="11" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E296" s="12"/>
       <c r="F296" s="11" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G296" s="12"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B297" s="30" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C297" s="12"/>
       <c r="D297" s="11" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E297" s="12"/>
       <c r="F297" s="11" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="G297" s="12"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="14">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B298" s="30" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C298" s="12"/>
       <c r="D298" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>1170</v>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="E298" s="12"/>
       <c r="F298" s="11" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="G298" s="12"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="14">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B299" s="30" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C299" s="12" t="s">
-        <v>1172</v>
-      </c>
+        <v>1168</v>
+      </c>
+      <c r="C299" s="12"/>
       <c r="D299" s="11" t="s">
-        <v>1174</v>
+        <v>119</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>119</v>
+        <v>1169</v>
       </c>
       <c r="G299" s="12"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="14">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B300" s="30" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F300" s="11" t="s">
-        <v>1179</v>
+        <v>119</v>
       </c>
       <c r="G300" s="12"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="14">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B301" s="30" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C301" s="57" t="s">
-        <v>1180</v>
+        <v>1175</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>1176</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="G301" s="12"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="14">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B302" s="30" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C302" s="12"/>
+        <v>1181</v>
+      </c>
+      <c r="C302" s="40" t="s">
+        <v>1180</v>
+      </c>
       <c r="D302" s="11" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E302" s="12"/>
+        <v>1183</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>1184</v>
+      </c>
       <c r="F302" s="11" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G302" s="12"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="14">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="30" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C303" s="12"/>
       <c r="D303" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E303" s="12"/>
       <c r="F303" s="11" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G303" s="12"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B304" s="30" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>1192</v>
-      </c>
+        <v>1188</v>
+      </c>
+      <c r="C304" s="12"/>
       <c r="D304" s="11" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>1191</v>
-      </c>
+        <v>1189</v>
+      </c>
+      <c r="E304" s="12"/>
       <c r="F304" s="11" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="G304" s="12"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B305" s="30" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C305" s="12" t="s">
-        <v>1198</v>
+        <v>1190</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>1192</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>119</v>
+        <v>1194</v>
       </c>
       <c r="G305" s="12"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B306" s="30" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>1202</v>
+        <v>1197</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>1198</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E306" s="12"/>
+        <v>1196</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>1195</v>
+      </c>
       <c r="F306" s="11" t="s">
-        <v>1200</v>
+        <v>119</v>
       </c>
       <c r="G306" s="12"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B307" s="30" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E307" s="12"/>
       <c r="F307" s="11" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="G307" s="12"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="14">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C308" s="12"/>
+        <v>1203</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>1205</v>
+      </c>
       <c r="D308" s="11" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E308" s="12"/>
       <c r="F308" s="11" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="G308" s="12"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B309" s="30" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C309" s="12"/>
       <c r="D309" s="11" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E309" s="12"/>
-      <c r="F309" s="58" t="s">
-        <v>1212</v>
+      <c r="F309" s="11" t="s">
+        <v>1208</v>
       </c>
       <c r="G309" s="12"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B310" s="30" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C310" s="12"/>
       <c r="D310" s="11" t="s">
-        <v>119</v>
+        <v>1211</v>
       </c>
       <c r="E310" s="12"/>
-      <c r="F310" s="11" t="s">
-        <v>1213</v>
+      <c r="F310" s="41" t="s">
+        <v>1212</v>
       </c>
       <c r="G310" s="12"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="14">
+        <v>292</v>
+      </c>
+      <c r="B311" s="30" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C311" s="12"/>
+      <c r="D311" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E311" s="12"/>
+      <c r="F311" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G311" s="12"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="14">
         <v>293</v>
       </c>
-      <c r="B311" s="30" t="s">
+      <c r="B312" s="30" t="s">
         <v>1215</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="C312" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="D311" s="11" t="s">
+      <c r="D312" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="E311" s="4" t="s">
+      <c r="E312" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="F311" s="11" t="s">
+      <c r="F312" s="11" t="s">
         <v>1219</v>
       </c>
-      <c r="G311" s="12"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="50" t="s">
+      <c r="G312" s="12"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="43" t="s">
         <v>1220</v>
       </c>
-      <c r="B312" s="51"/>
-      <c r="C312" s="51"/>
-      <c r="D312" s="51"/>
-      <c r="E312" s="51"/>
-      <c r="F312" s="51"/>
-      <c r="G312" s="52"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="14">
-        <v>294</v>
-      </c>
-      <c r="B313" s="30" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D313" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E313" s="12"/>
-      <c r="F313" s="11" t="s">
-        <v>1222</v>
-      </c>
-      <c r="G313" s="12"/>
+      <c r="B313" s="44"/>
+      <c r="C313" s="44"/>
+      <c r="D313" s="44"/>
+      <c r="E313" s="44"/>
+      <c r="F313" s="44"/>
+      <c r="G313" s="45"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="14">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C314" s="27" t="s">
-        <v>1226</v>
+        <v>1221</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E314" s="4" t="s">
-        <v>1224</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E314" s="12"/>
       <c r="F314" s="11" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="G314" s="12"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B315" s="30" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>1230</v>
+        <v>1227</v>
+      </c>
+      <c r="C315" s="27" t="s">
+        <v>1226</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>119</v>
+        <v>1225</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>705</v>
+        <v>1224</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="G315" s="12"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B316" s="30" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C316" s="12" t="s">
-        <v>1232</v>
+        <v>1228</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>1230</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>1233</v>
+        <v>119</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1234</v>
+        <v>705</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="G316" s="12"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B317" s="30" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E317" s="12"/>
+        <v>1233</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>1234</v>
+      </c>
       <c r="F317" s="11" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="G317" s="12"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B318" s="30" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C318" s="12"/>
+        <v>1236</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>1237</v>
+      </c>
       <c r="D318" s="11" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>1243</v>
-      </c>
+        <v>1239</v>
+      </c>
+      <c r="E318" s="12"/>
       <c r="F318" s="11" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G318" s="12"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B319" s="30" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>1248</v>
-      </c>
+        <v>1240</v>
+      </c>
+      <c r="C319" s="12"/>
       <c r="D319" s="11" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="F319" s="11" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="G319" s="12"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B320" s="30" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E320" s="12"/>
+        <v>1247</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>1246</v>
+      </c>
       <c r="F320" s="11" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G320" s="4" t="s">
-        <v>1253</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="G320" s="12"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B321" s="30" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E321" s="4" t="s">
-        <v>1254</v>
-      </c>
+        <v>1252</v>
+      </c>
+      <c r="E321" s="12"/>
       <c r="F321" s="11" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G321" s="14">
-        <v>79643070621</v>
+        <v>1249</v>
+      </c>
+      <c r="G321" s="4" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B322" s="30" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G322" s="12"/>
+        <v>1255</v>
+      </c>
+      <c r="G322" s="14">
+        <v>79643070621</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B323" s="30" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C323" s="12" t="s">
-        <v>1263</v>
+        <v>1261</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>1262</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F323" s="11" t="s">
-        <v>119</v>
+        <v>1260</v>
       </c>
       <c r="G323" s="12"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B324" s="30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>119</v>
+        <v>1265</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>1269</v>
+        <v>119</v>
       </c>
       <c r="G324" s="12"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B325" s="30" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>1273</v>
+        <v>1267</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>1268</v>
       </c>
       <c r="D325" s="11" t="s">
-        <v>1275</v>
+        <v>119</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="G325" s="12"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B326" s="30" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C326" s="12" t="s">
-        <v>1281</v>
+        <v>1271</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>1273</v>
       </c>
       <c r="D326" s="11" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G326" s="4" t="s">
-        <v>1279</v>
-      </c>
+        <v>1272</v>
+      </c>
+      <c r="G326" s="12"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B327" s="30" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D327" s="11" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="F327" s="11" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G327" s="12"/>
+        <v>1280</v>
+      </c>
+      <c r="G327" s="4" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
+        <v>308</v>
+      </c>
+      <c r="B328" s="30" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G328" s="12"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="14">
         <v>309</v>
       </c>
-      <c r="B328" s="30" t="s">
+      <c r="B329" s="30" t="s">
         <v>1286</v>
       </c>
-      <c r="C328" s="12" t="s">
+      <c r="C329" s="12" t="s">
         <v>1287</v>
       </c>
-      <c r="D328" s="11" t="s">
+      <c r="D329" s="11" t="s">
         <v>1289</v>
       </c>
-      <c r="E328" s="4" t="s">
+      <c r="E329" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="F328" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G328" s="12"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
-      <c r="B329" s="30"/>
-      <c r="C329" s="12"/>
-      <c r="D329" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E329" s="12"/>
       <c r="F329" s="11" t="s">
         <v>119</v>
       </c>
@@ -11058,25 +11149,37 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
-      <c r="B330" s="30"/>
-      <c r="C330" s="12"/>
+      <c r="B330" s="30" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>1290</v>
+      </c>
       <c r="D330" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E330" s="12"/>
+        <v>1292</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>1294</v>
+      </c>
       <c r="F330" s="11" t="s">
-        <v>119</v>
+        <v>1293</v>
       </c>
       <c r="G330" s="12"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="30"/>
-      <c r="C331" s="12"/>
+      <c r="B331" s="30" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>1298</v>
+      </c>
       <c r="D331" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E331" s="12"/>
+        <v>1296</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>1295</v>
+      </c>
       <c r="F331" s="11" t="s">
         <v>119</v>
       </c>
@@ -11084,51 +11187,67 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="30"/>
-      <c r="C332" s="12"/>
+      <c r="B332" s="30" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>1303</v>
+      </c>
       <c r="D332" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E332" s="12"/>
+        <v>1300</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>1299</v>
+      </c>
       <c r="F332" s="11" t="s">
-        <v>119</v>
+        <v>1302</v>
       </c>
       <c r="G332" s="12"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="30"/>
-      <c r="C333" s="12"/>
+      <c r="B333" s="30" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>1307</v>
+      </c>
       <c r="D333" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E333" s="12"/>
+        <v>1305</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>1304</v>
+      </c>
       <c r="F333" s="11" t="s">
         <v>119</v>
       </c>
       <c r="G333" s="12"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
-      <c r="B334" s="30"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E334" s="12"/>
-      <c r="F334" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G334" s="12"/>
+      <c r="A334" s="48" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B334" s="44"/>
+      <c r="C334" s="44"/>
+      <c r="D334" s="44"/>
+      <c r="E334" s="44"/>
+      <c r="F334" s="44"/>
+      <c r="G334" s="45"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
-      <c r="B335" s="30"/>
-      <c r="C335" s="12"/>
+      <c r="B335" s="30" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>1311</v>
+      </c>
       <c r="D335" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E335" s="12"/>
+      <c r="E335" s="4" t="s">
+        <v>1310</v>
+      </c>
       <c r="F335" s="11" t="s">
         <v>119</v>
       </c>
@@ -11136,25 +11255,35 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
-      <c r="B336" s="30"/>
+      <c r="B336" s="30" t="s">
+        <v>1315</v>
+      </c>
       <c r="C336" s="12"/>
       <c r="D336" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E336" s="12"/>
+        <v>1313</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>1314</v>
+      </c>
       <c r="F336" s="11" t="s">
-        <v>119</v>
+        <v>1313</v>
       </c>
       <c r="G336" s="12"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
-      <c r="B337" s="30"/>
-      <c r="C337" s="12"/>
+      <c r="B337" s="30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>1317</v>
+      </c>
       <c r="D337" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E337" s="12"/>
+        <v>1319</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>1316</v>
+      </c>
       <c r="F337" s="11" t="s">
         <v>119</v>
       </c>
@@ -11486,11 +11615,17 @@
       <c r="G362" s="12"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C363" s="35"/>
-      <c r="D363" s="35"/>
-      <c r="E363" s="35"/>
-      <c r="F363" s="35"/>
-      <c r="G363" s="35"/>
+      <c r="A363" s="14"/>
+      <c r="B363" s="30"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E363" s="12"/>
+      <c r="F363" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G363" s="12"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C364" s="35"/>
@@ -12682,27 +12817,35 @@
       <c r="F533" s="35"/>
       <c r="G533" s="35"/>
     </row>
+    <row r="534" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C534" s="35"/>
+      <c r="D534" s="35"/>
+      <c r="E534" s="35"/>
+      <c r="F534" s="35"/>
+      <c r="G534" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A275:G275"/>
-    <mergeCell ref="A312:G312"/>
-    <mergeCell ref="A215:G215"/>
-    <mergeCell ref="A234:G234"/>
+  <mergeCells count="20">
+    <mergeCell ref="A264:G264"/>
+    <mergeCell ref="A266:G266"/>
+    <mergeCell ref="A271:G271"/>
+    <mergeCell ref="A334:G334"/>
+    <mergeCell ref="A276:G276"/>
+    <mergeCell ref="A313:G313"/>
+    <mergeCell ref="A216:G216"/>
+    <mergeCell ref="A235:G235"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="A176:G176"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A245:G245"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A263:G263"/>
-    <mergeCell ref="A265:G265"/>
-    <mergeCell ref="A270:G270"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A99:G99"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A246:G246"/>
+    <mergeCell ref="A261:G261"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
@@ -12769,327 +12912,338 @@
     <hyperlink ref="C41" r:id="rId62"/>
     <hyperlink ref="E42" r:id="rId63"/>
     <hyperlink ref="C42" r:id="rId64"/>
-    <hyperlink ref="E43" r:id="rId65"/>
-    <hyperlink ref="C43" r:id="rId66"/>
-    <hyperlink ref="C45" r:id="rId67"/>
-    <hyperlink ref="E45" r:id="rId68"/>
-    <hyperlink ref="C46" r:id="rId69"/>
-    <hyperlink ref="E46" r:id="rId70"/>
-    <hyperlink ref="E47" r:id="rId71"/>
-    <hyperlink ref="C47" r:id="rId72"/>
-    <hyperlink ref="E48" r:id="rId73"/>
-    <hyperlink ref="E49" r:id="rId74"/>
-    <hyperlink ref="C48" r:id="rId75"/>
-    <hyperlink ref="C49" r:id="rId76"/>
-    <hyperlink ref="E50" r:id="rId77"/>
-    <hyperlink ref="C50" r:id="rId78"/>
-    <hyperlink ref="E53" r:id="rId79"/>
-    <hyperlink ref="C53" r:id="rId80"/>
-    <hyperlink ref="E55" r:id="rId81"/>
-    <hyperlink ref="C56" r:id="rId82"/>
-    <hyperlink ref="E56" r:id="rId83"/>
-    <hyperlink ref="E57" r:id="rId84"/>
-    <hyperlink ref="E58" r:id="rId85"/>
-    <hyperlink ref="C59" r:id="rId86" display="https://gublekar.ru/"/>
-    <hyperlink ref="E59" r:id="rId87"/>
-    <hyperlink ref="E60" r:id="rId88"/>
-    <hyperlink ref="E61" r:id="rId89"/>
-    <hyperlink ref="E62" r:id="rId90"/>
-    <hyperlink ref="C63" r:id="rId91"/>
-    <hyperlink ref="E63" r:id="rId92"/>
-    <hyperlink ref="E64" r:id="rId93"/>
-    <hyperlink ref="E65" r:id="rId94"/>
-    <hyperlink ref="C65" r:id="rId95"/>
-    <hyperlink ref="E66" r:id="rId96"/>
-    <hyperlink ref="C67" r:id="rId97"/>
-    <hyperlink ref="E68" r:id="rId98"/>
-    <hyperlink ref="C69" r:id="rId99"/>
-    <hyperlink ref="E69" r:id="rId100"/>
-    <hyperlink ref="E70" r:id="rId101"/>
-    <hyperlink ref="G71" r:id="rId102"/>
-    <hyperlink ref="E71" r:id="rId103"/>
-    <hyperlink ref="E72" r:id="rId104"/>
-    <hyperlink ref="E74" r:id="rId105"/>
-    <hyperlink ref="C75" r:id="rId106" tooltip="https://vk.com/stomatologiyaulibka?w=app5708398_-66238284" display="https://vk.com/stomatologiyaulibka?w=app5708398_-66238284"/>
-    <hyperlink ref="E75" r:id="rId107"/>
-    <hyperlink ref="E76" r:id="rId108"/>
-    <hyperlink ref="E77" r:id="rId109"/>
-    <hyperlink ref="E78" r:id="rId110"/>
-    <hyperlink ref="E79" r:id="rId111"/>
-    <hyperlink ref="C80" r:id="rId112"/>
-    <hyperlink ref="E80" r:id="rId113"/>
-    <hyperlink ref="E81" r:id="rId114"/>
-    <hyperlink ref="E82" r:id="rId115"/>
-    <hyperlink ref="E83" r:id="rId116"/>
-    <hyperlink ref="E84" r:id="rId117"/>
-    <hyperlink ref="E85" r:id="rId118"/>
-    <hyperlink ref="E86" r:id="rId119"/>
-    <hyperlink ref="C86" r:id="rId120"/>
-    <hyperlink ref="C87" r:id="rId121"/>
-    <hyperlink ref="E87" r:id="rId122"/>
-    <hyperlink ref="E88" r:id="rId123"/>
-    <hyperlink ref="E89" r:id="rId124"/>
-    <hyperlink ref="C89" r:id="rId125"/>
-    <hyperlink ref="E90" r:id="rId126"/>
-    <hyperlink ref="E91" r:id="rId127"/>
-    <hyperlink ref="E92" r:id="rId128"/>
-    <hyperlink ref="C92" r:id="rId129"/>
-    <hyperlink ref="E94" r:id="rId130"/>
-    <hyperlink ref="E95" r:id="rId131"/>
-    <hyperlink ref="C96" r:id="rId132"/>
-    <hyperlink ref="E96" r:id="rId133"/>
-    <hyperlink ref="E97" r:id="rId134"/>
-    <hyperlink ref="C97" r:id="rId135"/>
-    <hyperlink ref="E99" r:id="rId136"/>
-    <hyperlink ref="C99" r:id="rId137"/>
-    <hyperlink ref="E100" r:id="rId138"/>
-    <hyperlink ref="E101" r:id="rId139"/>
-    <hyperlink ref="E104" r:id="rId140" display="mailto:sales.murmansk@azimuthotels.com"/>
-    <hyperlink ref="E105" r:id="rId141"/>
-    <hyperlink ref="E106" r:id="rId142"/>
-    <hyperlink ref="E107" r:id="rId143"/>
-    <hyperlink ref="E108" r:id="rId144"/>
-    <hyperlink ref="C110" r:id="rId145"/>
-    <hyperlink ref="E110" r:id="rId146"/>
-    <hyperlink ref="E111" r:id="rId147"/>
-    <hyperlink ref="E112" r:id="rId148"/>
-    <hyperlink ref="C112" r:id="rId149"/>
-    <hyperlink ref="E113" r:id="rId150"/>
-    <hyperlink ref="E114" r:id="rId151"/>
-    <hyperlink ref="C116" r:id="rId152"/>
-    <hyperlink ref="E116" r:id="rId153"/>
-    <hyperlink ref="E117" r:id="rId154"/>
-    <hyperlink ref="C117" r:id="rId155"/>
-    <hyperlink ref="E120" r:id="rId156"/>
-    <hyperlink ref="C121" r:id="rId157"/>
-    <hyperlink ref="E121" r:id="rId158"/>
-    <hyperlink ref="C123" r:id="rId159"/>
-    <hyperlink ref="E123" r:id="rId160"/>
-    <hyperlink ref="C124" r:id="rId161"/>
-    <hyperlink ref="E124" r:id="rId162"/>
-    <hyperlink ref="E126" r:id="rId163"/>
-    <hyperlink ref="C127" r:id="rId164"/>
-    <hyperlink ref="E127" r:id="rId165"/>
-    <hyperlink ref="E128" r:id="rId166"/>
-    <hyperlink ref="E130" r:id="rId167"/>
-    <hyperlink ref="E131" r:id="rId168"/>
-    <hyperlink ref="E132" r:id="rId169"/>
-    <hyperlink ref="E133" r:id="rId170"/>
-    <hyperlink ref="E134" r:id="rId171"/>
-    <hyperlink ref="C134" r:id="rId172"/>
-    <hyperlink ref="C135" r:id="rId173"/>
-    <hyperlink ref="E135" r:id="rId174"/>
-    <hyperlink ref="E136" r:id="rId175"/>
-    <hyperlink ref="E137" r:id="rId176"/>
-    <hyperlink ref="E138" r:id="rId177"/>
-    <hyperlink ref="E139" r:id="rId178"/>
-    <hyperlink ref="E140" r:id="rId179"/>
-    <hyperlink ref="E141" r:id="rId180"/>
-    <hyperlink ref="E142" r:id="rId181"/>
-    <hyperlink ref="E143" r:id="rId182" display="mailto:dir@gn51.ru"/>
-    <hyperlink ref="E144" r:id="rId183"/>
-    <hyperlink ref="E145" r:id="rId184"/>
-    <hyperlink ref="C146" r:id="rId185"/>
-    <hyperlink ref="E148" r:id="rId186"/>
-    <hyperlink ref="C152" r:id="rId187"/>
-    <hyperlink ref="C153" r:id="rId188"/>
-    <hyperlink ref="E153" r:id="rId189"/>
-    <hyperlink ref="C161" r:id="rId190"/>
-    <hyperlink ref="E161" r:id="rId191"/>
-    <hyperlink ref="E162" r:id="rId192"/>
-    <hyperlink ref="E163" r:id="rId193"/>
-    <hyperlink ref="E164" r:id="rId194"/>
-    <hyperlink ref="C164" r:id="rId195"/>
-    <hyperlink ref="E165" r:id="rId196"/>
-    <hyperlink ref="E166" r:id="rId197"/>
-    <hyperlink ref="C167" r:id="rId198"/>
-    <hyperlink ref="E168" r:id="rId199"/>
-    <hyperlink ref="C168" r:id="rId200"/>
-    <hyperlink ref="E169" r:id="rId201"/>
-    <hyperlink ref="E170" r:id="rId202"/>
-    <hyperlink ref="C171" r:id="rId203"/>
-    <hyperlink ref="E173" r:id="rId204"/>
-    <hyperlink ref="C173" r:id="rId205"/>
-    <hyperlink ref="E174" r:id="rId206"/>
-    <hyperlink ref="E175" r:id="rId207"/>
-    <hyperlink ref="C175" r:id="rId208"/>
-    <hyperlink ref="E177" r:id="rId209"/>
-    <hyperlink ref="C177" r:id="rId210"/>
-    <hyperlink ref="E178" r:id="rId211"/>
-    <hyperlink ref="C178" r:id="rId212"/>
-    <hyperlink ref="E179" r:id="rId213"/>
-    <hyperlink ref="C179" r:id="rId214"/>
-    <hyperlink ref="E180" r:id="rId215"/>
-    <hyperlink ref="D180" r:id="rId216" display="tel:+78152999777"/>
-    <hyperlink ref="C180" r:id="rId217"/>
-    <hyperlink ref="E182" r:id="rId218" display="mailto:imperial51@lenta.ru"/>
-    <hyperlink ref="C182" r:id="rId219"/>
-    <hyperlink ref="E183" r:id="rId220"/>
-    <hyperlink ref="C183" r:id="rId221"/>
-    <hyperlink ref="E184" r:id="rId222"/>
-    <hyperlink ref="E185" r:id="rId223"/>
-    <hyperlink ref="C185" r:id="rId224"/>
-    <hyperlink ref="E186" r:id="rId225"/>
-    <hyperlink ref="C186" r:id="rId226"/>
-    <hyperlink ref="E188" r:id="rId227"/>
-    <hyperlink ref="C189" r:id="rId228"/>
-    <hyperlink ref="E190" r:id="rId229"/>
-    <hyperlink ref="C190" r:id="rId230"/>
-    <hyperlink ref="E191" r:id="rId231"/>
-    <hyperlink ref="E192" r:id="rId232"/>
-    <hyperlink ref="C192" r:id="rId233"/>
-    <hyperlink ref="C193" r:id="rId234"/>
-    <hyperlink ref="G194" r:id="rId235"/>
-    <hyperlink ref="E195" r:id="rId236"/>
-    <hyperlink ref="E196" r:id="rId237"/>
-    <hyperlink ref="C196" r:id="rId238"/>
-    <hyperlink ref="E197" r:id="rId239"/>
-    <hyperlink ref="C197" r:id="rId240"/>
-    <hyperlink ref="E198" r:id="rId241"/>
-    <hyperlink ref="C198" r:id="rId242"/>
-    <hyperlink ref="E200" r:id="rId243"/>
-    <hyperlink ref="C200" r:id="rId244"/>
-    <hyperlink ref="C202" r:id="rId245"/>
-    <hyperlink ref="E203" r:id="rId246"/>
-    <hyperlink ref="E204" r:id="rId247"/>
-    <hyperlink ref="E207" r:id="rId248"/>
-    <hyperlink ref="E209" r:id="rId249"/>
-    <hyperlink ref="E210" r:id="rId250"/>
-    <hyperlink ref="E211" r:id="rId251"/>
-    <hyperlink ref="C212" r:id="rId252"/>
-    <hyperlink ref="C213" r:id="rId253"/>
-    <hyperlink ref="E214" r:id="rId254"/>
-    <hyperlink ref="C214" r:id="rId255"/>
-    <hyperlink ref="E216" r:id="rId256"/>
-    <hyperlink ref="C216" r:id="rId257"/>
-    <hyperlink ref="E218" r:id="rId258"/>
-    <hyperlink ref="E219" r:id="rId259"/>
-    <hyperlink ref="C219" r:id="rId260"/>
-    <hyperlink ref="E220" r:id="rId261"/>
-    <hyperlink ref="C220" r:id="rId262"/>
-    <hyperlink ref="C221" r:id="rId263"/>
-    <hyperlink ref="E222" r:id="rId264"/>
-    <hyperlink ref="C222" r:id="rId265"/>
-    <hyperlink ref="E223" r:id="rId266"/>
-    <hyperlink ref="C223" r:id="rId267"/>
-    <hyperlink ref="E224" r:id="rId268"/>
-    <hyperlink ref="C225" r:id="rId269" display="https://vk.com/away.php?to=http%3A%2F%2Fsuzuki51.ru&amp;cc_key="/>
-    <hyperlink ref="E225" r:id="rId270"/>
-    <hyperlink ref="E227" r:id="rId271"/>
-    <hyperlink ref="C227" r:id="rId272"/>
-    <hyperlink ref="E230" r:id="rId273"/>
-    <hyperlink ref="E231" r:id="rId274"/>
-    <hyperlink ref="C231" r:id="rId275"/>
-    <hyperlink ref="E232" r:id="rId276"/>
-    <hyperlink ref="C232" r:id="rId277"/>
-    <hyperlink ref="E233" r:id="rId278"/>
-    <hyperlink ref="E235" r:id="rId279"/>
-    <hyperlink ref="E236" r:id="rId280"/>
-    <hyperlink ref="E237" r:id="rId281"/>
-    <hyperlink ref="E238" r:id="rId282"/>
-    <hyperlink ref="E239" r:id="rId283"/>
-    <hyperlink ref="E240" r:id="rId284"/>
-    <hyperlink ref="E241" r:id="rId285"/>
-    <hyperlink ref="C241" r:id="rId286"/>
-    <hyperlink ref="E242" r:id="rId287"/>
-    <hyperlink ref="C243" r:id="rId288"/>
-    <hyperlink ref="E243" r:id="rId289"/>
-    <hyperlink ref="E244" r:id="rId290"/>
-    <hyperlink ref="C244" r:id="rId291"/>
-    <hyperlink ref="E246" r:id="rId292"/>
-    <hyperlink ref="C246" r:id="rId293"/>
-    <hyperlink ref="E247" r:id="rId294"/>
-    <hyperlink ref="E248" r:id="rId295"/>
-    <hyperlink ref="C248" r:id="rId296"/>
-    <hyperlink ref="E249" r:id="rId297"/>
-    <hyperlink ref="C249" r:id="rId298"/>
-    <hyperlink ref="E250" r:id="rId299"/>
-    <hyperlink ref="E251" r:id="rId300"/>
-    <hyperlink ref="C251" r:id="rId301"/>
-    <hyperlink ref="C252" r:id="rId302"/>
-    <hyperlink ref="C253" r:id="rId303"/>
-    <hyperlink ref="E254" r:id="rId304"/>
-    <hyperlink ref="C254" r:id="rId305"/>
-    <hyperlink ref="E255" r:id="rId306"/>
-    <hyperlink ref="C255" r:id="rId307"/>
-    <hyperlink ref="C256" r:id="rId308"/>
-    <hyperlink ref="E256" r:id="rId309"/>
-    <hyperlink ref="C257" r:id="rId310"/>
-    <hyperlink ref="E258" r:id="rId311"/>
-    <hyperlink ref="C258" r:id="rId312"/>
-    <hyperlink ref="E259" r:id="rId313"/>
-    <hyperlink ref="C259" r:id="rId314"/>
-    <hyperlink ref="E261" r:id="rId315"/>
-    <hyperlink ref="C261" r:id="rId316"/>
-    <hyperlink ref="E262" r:id="rId317"/>
-    <hyperlink ref="C262" r:id="rId318"/>
-    <hyperlink ref="G264" r:id="rId319"/>
-    <hyperlink ref="C264" r:id="rId320"/>
-    <hyperlink ref="E266" r:id="rId321"/>
-    <hyperlink ref="C266" r:id="rId322"/>
-    <hyperlink ref="E267" r:id="rId323"/>
-    <hyperlink ref="C267" r:id="rId324"/>
-    <hyperlink ref="C268" r:id="rId325"/>
-    <hyperlink ref="C269" r:id="rId326"/>
-    <hyperlink ref="E271" r:id="rId327"/>
-    <hyperlink ref="C271" r:id="rId328"/>
-    <hyperlink ref="C274" r:id="rId329"/>
-    <hyperlink ref="E276" r:id="rId330"/>
-    <hyperlink ref="E277" r:id="rId331"/>
-    <hyperlink ref="E278" r:id="rId332"/>
-    <hyperlink ref="E279" r:id="rId333"/>
-    <hyperlink ref="E280" r:id="rId334"/>
-    <hyperlink ref="E281" r:id="rId335"/>
-    <hyperlink ref="E283" r:id="rId336"/>
-    <hyperlink ref="E284" r:id="rId337"/>
-    <hyperlink ref="E285" r:id="rId338"/>
-    <hyperlink ref="E286" r:id="rId339"/>
-    <hyperlink ref="E287" r:id="rId340"/>
-    <hyperlink ref="E288" r:id="rId341"/>
-    <hyperlink ref="E289" r:id="rId342"/>
-    <hyperlink ref="E290" r:id="rId343"/>
-    <hyperlink ref="E291" r:id="rId344"/>
-    <hyperlink ref="E292" r:id="rId345"/>
-    <hyperlink ref="C292" r:id="rId346"/>
-    <hyperlink ref="E293" r:id="rId347"/>
-    <hyperlink ref="C293" r:id="rId348"/>
-    <hyperlink ref="E294" r:id="rId349"/>
-    <hyperlink ref="E298" r:id="rId350"/>
-    <hyperlink ref="E299" r:id="rId351"/>
-    <hyperlink ref="E300" r:id="rId352"/>
-    <hyperlink ref="E301" r:id="rId353"/>
-    <hyperlink ref="E304" r:id="rId354"/>
-    <hyperlink ref="C304" r:id="rId355"/>
-    <hyperlink ref="E305" r:id="rId356"/>
-    <hyperlink ref="C306" r:id="rId357"/>
-    <hyperlink ref="C307" r:id="rId358"/>
-    <hyperlink ref="E311" r:id="rId359"/>
-    <hyperlink ref="C311" r:id="rId360"/>
-    <hyperlink ref="C313" r:id="rId361"/>
-    <hyperlink ref="E314" r:id="rId362"/>
-    <hyperlink ref="C314" r:id="rId363" display="https://link.2gis.com/3.2/aHR0cDovL25scC1tdXJtYW5zay5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIzLTAzLTE0LTE1IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImJjMDhhZTM2LWZkMzctNGM1ZC04ZmM3LTVmYjI5ZmY5Nzk0NCIsImlwIjoiMTg4LjE3MC43Ny4yMzkiLCJzZXNzaW9uSWQiOiI5ZDQ0MTY1Yi04YTE1LTQzY2UtYWZiOC1hMmZkYTZkNzhjMTkiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTEwLjAuMC4wIFNhZmFyaS81MzcuMzYgT1BSLzk2LjAuMC4wIChFZGl0aW9uIFl4KSIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDM6MDAiLCJ0YWJJZCI6IjJmZTQxNzVjLWJhZTctNGRkMy1hYzUzLTFlZjA2MTM4ZGZhNSIsInRpbWVzdGFtcCI6MTY3OTUwNjYyNzc5NiwidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZDNkY2U5MzgtYmJiYy00YmE3LWIzN2QtMmFiYzBiNjYyZWU1IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6ImFkNWM2NjU5LWQ0ODgtNDMxZC05NDg5LTEzZTMxY2UyZmFkZSJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvQTY2Qzc0RDYvb25saW5lLzIwMjMwMzAxL3Byb2plY3Q5Ni83MDAwMDAwMTAwNzQ1MTE3My9udWxsLzU1NDM0MzZBMUNHMko4MTMwMUlHRzRHRzMyNDQzMzk1RzZHNDI3ODE5MTY2MTQ4NHFFcHQ3QTVCMUo3M0c0STFHNDQ3NTRHNTMzNDR1djZBOTgwOTEwMjIzOUgySDNKMkhIR0oxMzc%2FaHR0cDovL25scC1tdXJtYW5zay5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiNzAwMDAwMDEwMDc0NTExNzMiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiOTYifX0sImdlb1Bvc2l0aW9uIjp7ImxvbiI6MzMuMDc5NDkyLCJsYXQiOjY4Ljk1NDY3OH0sImFkc1NlYXJjaCI6ZmFsc2UsIm1haW5SdWJyaWMiOiI2NjgiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI3MDAwMDAwMTAwNzQ1MTE3MiIsImNvbnRleHRSdWJyaWMiOiIxNDQzMSIsInJlc3VsdENsYXNzIjoyfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjI4LCJwYXJlbnRUYWJJZCI6IjExODUwMjMwLTk5Y2MtNDYzYi05OTcyLTMzY2NjZmQyZGIyMiJ9fX1d"/>
-    <hyperlink ref="E315" r:id="rId364"/>
-    <hyperlink ref="C315" r:id="rId365"/>
-    <hyperlink ref="E316" r:id="rId366"/>
-    <hyperlink ref="E318" r:id="rId367"/>
-    <hyperlink ref="E319" r:id="rId368"/>
-    <hyperlink ref="C319" r:id="rId369"/>
-    <hyperlink ref="C320" r:id="rId370"/>
-    <hyperlink ref="G320" r:id="rId371"/>
-    <hyperlink ref="E321" r:id="rId372"/>
-    <hyperlink ref="C321" r:id="rId373"/>
-    <hyperlink ref="E322" r:id="rId374"/>
-    <hyperlink ref="C322" r:id="rId375"/>
-    <hyperlink ref="E323" r:id="rId376"/>
-    <hyperlink ref="E324" r:id="rId377"/>
-    <hyperlink ref="C325" r:id="rId378"/>
-    <hyperlink ref="E325" r:id="rId379"/>
-    <hyperlink ref="E326" r:id="rId380"/>
-    <hyperlink ref="G326" r:id="rId381"/>
-    <hyperlink ref="E327" r:id="rId382"/>
-    <hyperlink ref="E328" r:id="rId383"/>
+    <hyperlink ref="E44" r:id="rId65"/>
+    <hyperlink ref="C44" r:id="rId66"/>
+    <hyperlink ref="C46" r:id="rId67"/>
+    <hyperlink ref="E46" r:id="rId68"/>
+    <hyperlink ref="C47" r:id="rId69"/>
+    <hyperlink ref="E47" r:id="rId70"/>
+    <hyperlink ref="E48" r:id="rId71"/>
+    <hyperlink ref="C48" r:id="rId72"/>
+    <hyperlink ref="E49" r:id="rId73"/>
+    <hyperlink ref="E50" r:id="rId74"/>
+    <hyperlink ref="C49" r:id="rId75"/>
+    <hyperlink ref="C50" r:id="rId76"/>
+    <hyperlink ref="E51" r:id="rId77"/>
+    <hyperlink ref="C51" r:id="rId78"/>
+    <hyperlink ref="E54" r:id="rId79"/>
+    <hyperlink ref="C54" r:id="rId80"/>
+    <hyperlink ref="E56" r:id="rId81"/>
+    <hyperlink ref="C57" r:id="rId82"/>
+    <hyperlink ref="E57" r:id="rId83"/>
+    <hyperlink ref="E58" r:id="rId84"/>
+    <hyperlink ref="E59" r:id="rId85"/>
+    <hyperlink ref="C60" r:id="rId86" display="https://gublekar.ru/"/>
+    <hyperlink ref="E60" r:id="rId87"/>
+    <hyperlink ref="E61" r:id="rId88"/>
+    <hyperlink ref="E62" r:id="rId89"/>
+    <hyperlink ref="E63" r:id="rId90"/>
+    <hyperlink ref="C64" r:id="rId91"/>
+    <hyperlink ref="E64" r:id="rId92"/>
+    <hyperlink ref="E65" r:id="rId93"/>
+    <hyperlink ref="E66" r:id="rId94"/>
+    <hyperlink ref="C66" r:id="rId95"/>
+    <hyperlink ref="E67" r:id="rId96"/>
+    <hyperlink ref="C68" r:id="rId97"/>
+    <hyperlink ref="E69" r:id="rId98"/>
+    <hyperlink ref="C70" r:id="rId99"/>
+    <hyperlink ref="E70" r:id="rId100"/>
+    <hyperlink ref="E71" r:id="rId101"/>
+    <hyperlink ref="G72" r:id="rId102"/>
+    <hyperlink ref="E72" r:id="rId103"/>
+    <hyperlink ref="E73" r:id="rId104"/>
+    <hyperlink ref="E75" r:id="rId105"/>
+    <hyperlink ref="C76" r:id="rId106" tooltip="https://vk.com/stomatologiyaulibka?w=app5708398_-66238284" display="https://vk.com/stomatologiyaulibka?w=app5708398_-66238284"/>
+    <hyperlink ref="E76" r:id="rId107"/>
+    <hyperlink ref="E77" r:id="rId108"/>
+    <hyperlink ref="E78" r:id="rId109"/>
+    <hyperlink ref="E79" r:id="rId110"/>
+    <hyperlink ref="E80" r:id="rId111"/>
+    <hyperlink ref="C81" r:id="rId112"/>
+    <hyperlink ref="E81" r:id="rId113"/>
+    <hyperlink ref="E82" r:id="rId114"/>
+    <hyperlink ref="E83" r:id="rId115"/>
+    <hyperlink ref="E84" r:id="rId116"/>
+    <hyperlink ref="E85" r:id="rId117"/>
+    <hyperlink ref="E86" r:id="rId118"/>
+    <hyperlink ref="E87" r:id="rId119"/>
+    <hyperlink ref="C87" r:id="rId120"/>
+    <hyperlink ref="C88" r:id="rId121"/>
+    <hyperlink ref="E88" r:id="rId122"/>
+    <hyperlink ref="E89" r:id="rId123"/>
+    <hyperlink ref="E90" r:id="rId124"/>
+    <hyperlink ref="C90" r:id="rId125"/>
+    <hyperlink ref="E91" r:id="rId126"/>
+    <hyperlink ref="E92" r:id="rId127"/>
+    <hyperlink ref="E93" r:id="rId128"/>
+    <hyperlink ref="C93" r:id="rId129"/>
+    <hyperlink ref="E95" r:id="rId130"/>
+    <hyperlink ref="E96" r:id="rId131"/>
+    <hyperlink ref="C97" r:id="rId132"/>
+    <hyperlink ref="E97" r:id="rId133"/>
+    <hyperlink ref="E98" r:id="rId134"/>
+    <hyperlink ref="C98" r:id="rId135"/>
+    <hyperlink ref="E100" r:id="rId136"/>
+    <hyperlink ref="C100" r:id="rId137"/>
+    <hyperlink ref="E101" r:id="rId138"/>
+    <hyperlink ref="E102" r:id="rId139"/>
+    <hyperlink ref="E105" r:id="rId140" display="mailto:sales.murmansk@azimuthotels.com"/>
+    <hyperlink ref="E106" r:id="rId141"/>
+    <hyperlink ref="E107" r:id="rId142"/>
+    <hyperlink ref="E108" r:id="rId143"/>
+    <hyperlink ref="E109" r:id="rId144"/>
+    <hyperlink ref="C111" r:id="rId145"/>
+    <hyperlink ref="E111" r:id="rId146"/>
+    <hyperlink ref="E112" r:id="rId147"/>
+    <hyperlink ref="E113" r:id="rId148"/>
+    <hyperlink ref="C113" r:id="rId149"/>
+    <hyperlink ref="E114" r:id="rId150"/>
+    <hyperlink ref="E115" r:id="rId151"/>
+    <hyperlink ref="C117" r:id="rId152"/>
+    <hyperlink ref="E117" r:id="rId153"/>
+    <hyperlink ref="E118" r:id="rId154"/>
+    <hyperlink ref="C118" r:id="rId155"/>
+    <hyperlink ref="E121" r:id="rId156"/>
+    <hyperlink ref="C122" r:id="rId157"/>
+    <hyperlink ref="E122" r:id="rId158"/>
+    <hyperlink ref="C124" r:id="rId159"/>
+    <hyperlink ref="E124" r:id="rId160"/>
+    <hyperlink ref="C125" r:id="rId161"/>
+    <hyperlink ref="E125" r:id="rId162"/>
+    <hyperlink ref="E127" r:id="rId163"/>
+    <hyperlink ref="C128" r:id="rId164"/>
+    <hyperlink ref="E128" r:id="rId165"/>
+    <hyperlink ref="E129" r:id="rId166"/>
+    <hyperlink ref="E131" r:id="rId167"/>
+    <hyperlink ref="E132" r:id="rId168"/>
+    <hyperlink ref="E133" r:id="rId169"/>
+    <hyperlink ref="E134" r:id="rId170"/>
+    <hyperlink ref="E135" r:id="rId171"/>
+    <hyperlink ref="C135" r:id="rId172"/>
+    <hyperlink ref="C136" r:id="rId173"/>
+    <hyperlink ref="E136" r:id="rId174"/>
+    <hyperlink ref="E137" r:id="rId175"/>
+    <hyperlink ref="E138" r:id="rId176"/>
+    <hyperlink ref="E139" r:id="rId177"/>
+    <hyperlink ref="E140" r:id="rId178"/>
+    <hyperlink ref="E141" r:id="rId179"/>
+    <hyperlink ref="E142" r:id="rId180"/>
+    <hyperlink ref="E143" r:id="rId181"/>
+    <hyperlink ref="E144" r:id="rId182" display="mailto:dir@gn51.ru"/>
+    <hyperlink ref="E145" r:id="rId183"/>
+    <hyperlink ref="E146" r:id="rId184"/>
+    <hyperlink ref="C147" r:id="rId185"/>
+    <hyperlink ref="E149" r:id="rId186"/>
+    <hyperlink ref="C153" r:id="rId187"/>
+    <hyperlink ref="C154" r:id="rId188"/>
+    <hyperlink ref="E154" r:id="rId189"/>
+    <hyperlink ref="C162" r:id="rId190"/>
+    <hyperlink ref="E162" r:id="rId191"/>
+    <hyperlink ref="E163" r:id="rId192"/>
+    <hyperlink ref="E164" r:id="rId193"/>
+    <hyperlink ref="E165" r:id="rId194"/>
+    <hyperlink ref="C165" r:id="rId195"/>
+    <hyperlink ref="E166" r:id="rId196"/>
+    <hyperlink ref="E167" r:id="rId197"/>
+    <hyperlink ref="C168" r:id="rId198"/>
+    <hyperlink ref="E169" r:id="rId199"/>
+    <hyperlink ref="C169" r:id="rId200"/>
+    <hyperlink ref="E170" r:id="rId201"/>
+    <hyperlink ref="E171" r:id="rId202"/>
+    <hyperlink ref="C172" r:id="rId203"/>
+    <hyperlink ref="E174" r:id="rId204"/>
+    <hyperlink ref="C174" r:id="rId205"/>
+    <hyperlink ref="E175" r:id="rId206"/>
+    <hyperlink ref="E176" r:id="rId207"/>
+    <hyperlink ref="C176" r:id="rId208"/>
+    <hyperlink ref="E178" r:id="rId209"/>
+    <hyperlink ref="C178" r:id="rId210"/>
+    <hyperlink ref="E179" r:id="rId211"/>
+    <hyperlink ref="C179" r:id="rId212"/>
+    <hyperlink ref="E180" r:id="rId213"/>
+    <hyperlink ref="C180" r:id="rId214"/>
+    <hyperlink ref="E181" r:id="rId215"/>
+    <hyperlink ref="D181" r:id="rId216" display="tel:+78152999777"/>
+    <hyperlink ref="C181" r:id="rId217"/>
+    <hyperlink ref="E183" r:id="rId218" display="mailto:imperial51@lenta.ru"/>
+    <hyperlink ref="C183" r:id="rId219"/>
+    <hyperlink ref="E184" r:id="rId220"/>
+    <hyperlink ref="C184" r:id="rId221"/>
+    <hyperlink ref="E185" r:id="rId222"/>
+    <hyperlink ref="E186" r:id="rId223"/>
+    <hyperlink ref="C186" r:id="rId224"/>
+    <hyperlink ref="E187" r:id="rId225"/>
+    <hyperlink ref="C187" r:id="rId226"/>
+    <hyperlink ref="E189" r:id="rId227"/>
+    <hyperlink ref="C190" r:id="rId228"/>
+    <hyperlink ref="E191" r:id="rId229"/>
+    <hyperlink ref="C191" r:id="rId230"/>
+    <hyperlink ref="E192" r:id="rId231"/>
+    <hyperlink ref="E193" r:id="rId232"/>
+    <hyperlink ref="C193" r:id="rId233"/>
+    <hyperlink ref="C194" r:id="rId234"/>
+    <hyperlink ref="G195" r:id="rId235"/>
+    <hyperlink ref="E196" r:id="rId236"/>
+    <hyperlink ref="E197" r:id="rId237"/>
+    <hyperlink ref="C197" r:id="rId238"/>
+    <hyperlink ref="E198" r:id="rId239"/>
+    <hyperlink ref="C198" r:id="rId240"/>
+    <hyperlink ref="E199" r:id="rId241"/>
+    <hyperlink ref="C199" r:id="rId242"/>
+    <hyperlink ref="E201" r:id="rId243"/>
+    <hyperlink ref="C201" r:id="rId244"/>
+    <hyperlink ref="C203" r:id="rId245"/>
+    <hyperlink ref="E204" r:id="rId246"/>
+    <hyperlink ref="E205" r:id="rId247"/>
+    <hyperlink ref="E208" r:id="rId248"/>
+    <hyperlink ref="E210" r:id="rId249"/>
+    <hyperlink ref="E211" r:id="rId250"/>
+    <hyperlink ref="E212" r:id="rId251"/>
+    <hyperlink ref="C213" r:id="rId252"/>
+    <hyperlink ref="C214" r:id="rId253"/>
+    <hyperlink ref="E215" r:id="rId254"/>
+    <hyperlink ref="C215" r:id="rId255"/>
+    <hyperlink ref="E217" r:id="rId256"/>
+    <hyperlink ref="C217" r:id="rId257"/>
+    <hyperlink ref="E219" r:id="rId258"/>
+    <hyperlink ref="E220" r:id="rId259"/>
+    <hyperlink ref="C220" r:id="rId260"/>
+    <hyperlink ref="E221" r:id="rId261"/>
+    <hyperlink ref="C221" r:id="rId262"/>
+    <hyperlink ref="C222" r:id="rId263"/>
+    <hyperlink ref="E223" r:id="rId264"/>
+    <hyperlink ref="C223" r:id="rId265"/>
+    <hyperlink ref="E224" r:id="rId266"/>
+    <hyperlink ref="C224" r:id="rId267"/>
+    <hyperlink ref="E225" r:id="rId268"/>
+    <hyperlink ref="C226" r:id="rId269" display="https://vk.com/away.php?to=http%3A%2F%2Fsuzuki51.ru&amp;cc_key="/>
+    <hyperlink ref="E226" r:id="rId270"/>
+    <hyperlink ref="E228" r:id="rId271"/>
+    <hyperlink ref="C228" r:id="rId272"/>
+    <hyperlink ref="E231" r:id="rId273"/>
+    <hyperlink ref="E232" r:id="rId274"/>
+    <hyperlink ref="C232" r:id="rId275"/>
+    <hyperlink ref="E233" r:id="rId276"/>
+    <hyperlink ref="C233" r:id="rId277"/>
+    <hyperlink ref="E234" r:id="rId278"/>
+    <hyperlink ref="E236" r:id="rId279"/>
+    <hyperlink ref="E237" r:id="rId280"/>
+    <hyperlink ref="E238" r:id="rId281"/>
+    <hyperlink ref="E239" r:id="rId282"/>
+    <hyperlink ref="E240" r:id="rId283"/>
+    <hyperlink ref="E241" r:id="rId284"/>
+    <hyperlink ref="E242" r:id="rId285"/>
+    <hyperlink ref="C242" r:id="rId286"/>
+    <hyperlink ref="E243" r:id="rId287"/>
+    <hyperlink ref="C244" r:id="rId288"/>
+    <hyperlink ref="E244" r:id="rId289"/>
+    <hyperlink ref="E245" r:id="rId290"/>
+    <hyperlink ref="C245" r:id="rId291"/>
+    <hyperlink ref="E247" r:id="rId292"/>
+    <hyperlink ref="C247" r:id="rId293"/>
+    <hyperlink ref="E248" r:id="rId294"/>
+    <hyperlink ref="E249" r:id="rId295"/>
+    <hyperlink ref="C249" r:id="rId296"/>
+    <hyperlink ref="E250" r:id="rId297"/>
+    <hyperlink ref="C250" r:id="rId298"/>
+    <hyperlink ref="E251" r:id="rId299"/>
+    <hyperlink ref="E252" r:id="rId300"/>
+    <hyperlink ref="C252" r:id="rId301"/>
+    <hyperlink ref="C253" r:id="rId302"/>
+    <hyperlink ref="C254" r:id="rId303"/>
+    <hyperlink ref="E255" r:id="rId304"/>
+    <hyperlink ref="C255" r:id="rId305"/>
+    <hyperlink ref="E256" r:id="rId306"/>
+    <hyperlink ref="C256" r:id="rId307"/>
+    <hyperlink ref="C257" r:id="rId308"/>
+    <hyperlink ref="E257" r:id="rId309"/>
+    <hyperlink ref="C258" r:id="rId310"/>
+    <hyperlink ref="E259" r:id="rId311"/>
+    <hyperlink ref="C259" r:id="rId312"/>
+    <hyperlink ref="E260" r:id="rId313"/>
+    <hyperlink ref="C260" r:id="rId314"/>
+    <hyperlink ref="E262" r:id="rId315"/>
+    <hyperlink ref="C262" r:id="rId316"/>
+    <hyperlink ref="E263" r:id="rId317"/>
+    <hyperlink ref="C263" r:id="rId318"/>
+    <hyperlink ref="G265" r:id="rId319"/>
+    <hyperlink ref="C265" r:id="rId320"/>
+    <hyperlink ref="E267" r:id="rId321"/>
+    <hyperlink ref="C267" r:id="rId322"/>
+    <hyperlink ref="E268" r:id="rId323"/>
+    <hyperlink ref="C268" r:id="rId324"/>
+    <hyperlink ref="C269" r:id="rId325"/>
+    <hyperlink ref="C270" r:id="rId326"/>
+    <hyperlink ref="E272" r:id="rId327"/>
+    <hyperlink ref="C272" r:id="rId328"/>
+    <hyperlink ref="C275" r:id="rId329"/>
+    <hyperlink ref="E277" r:id="rId330"/>
+    <hyperlink ref="E278" r:id="rId331"/>
+    <hyperlink ref="E279" r:id="rId332"/>
+    <hyperlink ref="E280" r:id="rId333"/>
+    <hyperlink ref="E281" r:id="rId334"/>
+    <hyperlink ref="E282" r:id="rId335"/>
+    <hyperlink ref="E284" r:id="rId336"/>
+    <hyperlink ref="E285" r:id="rId337"/>
+    <hyperlink ref="E286" r:id="rId338"/>
+    <hyperlink ref="E287" r:id="rId339"/>
+    <hyperlink ref="E288" r:id="rId340"/>
+    <hyperlink ref="E289" r:id="rId341"/>
+    <hyperlink ref="E290" r:id="rId342"/>
+    <hyperlink ref="E291" r:id="rId343"/>
+    <hyperlink ref="E292" r:id="rId344"/>
+    <hyperlink ref="E293" r:id="rId345"/>
+    <hyperlink ref="C293" r:id="rId346"/>
+    <hyperlink ref="E294" r:id="rId347"/>
+    <hyperlink ref="C294" r:id="rId348"/>
+    <hyperlink ref="E295" r:id="rId349"/>
+    <hyperlink ref="E299" r:id="rId350"/>
+    <hyperlink ref="E300" r:id="rId351"/>
+    <hyperlink ref="E301" r:id="rId352"/>
+    <hyperlink ref="E302" r:id="rId353"/>
+    <hyperlink ref="E305" r:id="rId354"/>
+    <hyperlink ref="C305" r:id="rId355"/>
+    <hyperlink ref="E306" r:id="rId356"/>
+    <hyperlink ref="C307" r:id="rId357"/>
+    <hyperlink ref="C308" r:id="rId358"/>
+    <hyperlink ref="E312" r:id="rId359"/>
+    <hyperlink ref="C312" r:id="rId360"/>
+    <hyperlink ref="C314" r:id="rId361"/>
+    <hyperlink ref="E315" r:id="rId362"/>
+    <hyperlink ref="C315" r:id="rId363" display="https://link.2gis.com/3.2/aHR0cDovL25scC1tdXJtYW5zay5ydS8KaHR0cHM6Ly9zMS5ic3MuMmdpcy5jb20vYnNzLzMKW3siY29tbW9uIjp7ImZvcm1hdFZlcnNpb24iOjMsImFwcFZlcnNpb24iOiIyMDIzLTAzLTE0LTE1IiwicHJvZHVjdCI6MzQsImFwaWtleSI6InJ1cmJibjM0NDYiLCJhcGlrZXlTdGF0dXMiOjEsImRldmljZUxvY2FsZSI6InJ1X1JVIiwidXNlciI6ImJjMDhhZTM2LWZkMzctNGM1ZC04ZmM3LTVmYjI5ZmY5Nzk0NCIsImlwIjoiMTg4LjE3MC43Ny4yMzkiLCJzZXNzaW9uSWQiOiI5ZDQ0MTY1Yi04YTE1LTQzY2UtYWZiOC1hMmZkYTZkNzhjMTkiLCJ1c2VyQWdlbnQiOiJNb3ppbGxhLzUuMCAoV2luZG93cyBOVCAxMC4wOyBXaW42NDsgeDY0KSBBcHBsZVdlYktpdC81MzcuMzYgKEtIVE1MLCBsaWtlIEdlY2tvKSBDaHJvbWUvMTEwLjAuMC4wIFNhZmFyaS81MzcuMzYgT1BSLzk2LjAuMC4wIChFZGl0aW9uIFl4KSIsImRldmljZVR5cGUiOiJkZXNrdG9wIiwicGVyc29uYWxEYXRhQ29sbGVjdGlvbkFsbG93ZWQiOnRydWV9LCJ1dGNPZmZzZXQiOiIrMDM6MDAiLCJ0YWJJZCI6IjJmZTQxNzVjLWJhZTctNGRkMy1hYzUzLTFlZjA2MTM4ZGZhNSIsInRpbWVzdGFtcCI6MTY3OTUwNjYyNzc5NiwidHlwZSI6MjExLCJldmVudFR5cGUiOiJhY3Rpb24iLCJldmVudElkIjoiZDNkY2U5MzgtYmJiYy00YmE3LWIzN2QtMmFiYzBiNjYyZWU1IiwiYWN0aW9uVHlwZSI6ImV4dGVybmFsTGluayIsImV2ZW50T3JkaW5hbCI6MCwidWlFbGVtZW50Ijp7Im5hbWUiOiJjb250YWN0Iiwib3duZXJOYW1lIjoiY2FyZENvbnRhY3RzIiwicG9zaXRpb24iOjEsImZyYW1lVXVpZCI6ImFkNWM2NjU5LWQ0ODgtNDMxZC05NDg5LTEzZTMxY2UyZmFkZSJ9LCJwYXlsb2FkIjp7ImNvbnRhY3QiOnsidmFsdWUiOiJodHRwOi8vbGluay4yZ2lzLmNvbS8xLjIvQTY2Qzc0RDYvb25saW5lLzIwMjMwMzAxL3Byb2plY3Q5Ni83MDAwMDAwMTAwNzQ1MTE3My9udWxsLzU1NDM0MzZBMUNHMko4MTMwMUlHRzRHRzMyNDQzMzk1RzZHNDI3ODE5MTY2MTQ4NHFFcHQ3QTVCMUo3M0c0STFHNDQ3NTRHNTMzNDR1djZBOTgwOTEwMjIzOUgySDNKMkhIR0oxMzc%2FaHR0cDovL25scC1tdXJtYW5zay5ydSIsInR5cGUiOiJ3ZWJzaXRlIiwicG9zaXRpb24iOjF9LCJwbGFjZUl0ZW0iOnsiZW50aXR5Ijp7ImlkIjoiNzAwMDAwMDEwMDc0NTExNzMiLCJ0eXBlIjoiYnJhbmNoIiwic2VnbWVudEluZm8iOnsiYmFzZUxvY2FsZSI6InJ1X1JVIiwic2VnbWVudElkIjoiOTYifX0sImdlb1Bvc2l0aW9uIjp7ImxvbiI6MzMuMDc5NDkyLCJsYXQiOjY4Ljk1NDY3OH0sImFkc1NlYXJjaCI6ZmFsc2UsIm1haW5SdWJyaWMiOiI2NjgiLCJpc0RlbGV0ZWQiOmZhbHNlLCJvcmciOiI3MDAwMDAwMTAwNzQ1MTE3MiIsImNvbnRleHRSdWJyaWMiOiIxNDQzMSIsInJlc3VsdENsYXNzIjoyfSwiZXh0ZXJuYWxMaW5rIjp7ImZvcmtFdmVudE9yZGluYWwiOjI4LCJwYXJlbnRUYWJJZCI6IjExODUwMjMwLTk5Y2MtNDYzYi05OTcyLTMzY2NjZmQyZGIyMiJ9fX1d"/>
+    <hyperlink ref="E316" r:id="rId364"/>
+    <hyperlink ref="C316" r:id="rId365"/>
+    <hyperlink ref="E317" r:id="rId366"/>
+    <hyperlink ref="E319" r:id="rId367"/>
+    <hyperlink ref="E320" r:id="rId368"/>
+    <hyperlink ref="C320" r:id="rId369"/>
+    <hyperlink ref="C321" r:id="rId370"/>
+    <hyperlink ref="G321" r:id="rId371"/>
+    <hyperlink ref="E322" r:id="rId372"/>
+    <hyperlink ref="C322" r:id="rId373"/>
+    <hyperlink ref="E323" r:id="rId374"/>
+    <hyperlink ref="C323" r:id="rId375"/>
+    <hyperlink ref="E324" r:id="rId376"/>
+    <hyperlink ref="E325" r:id="rId377"/>
+    <hyperlink ref="C326" r:id="rId378"/>
+    <hyperlink ref="E326" r:id="rId379"/>
+    <hyperlink ref="E327" r:id="rId380"/>
+    <hyperlink ref="G327" r:id="rId381"/>
+    <hyperlink ref="E328" r:id="rId382"/>
+    <hyperlink ref="E329" r:id="rId383"/>
+    <hyperlink ref="E330" r:id="rId384"/>
+    <hyperlink ref="E331" r:id="rId385"/>
+    <hyperlink ref="C331" r:id="rId386"/>
+    <hyperlink ref="E332" r:id="rId387"/>
+    <hyperlink ref="C332" r:id="rId388"/>
+    <hyperlink ref="E333" r:id="rId389"/>
+    <hyperlink ref="C333" r:id="rId390"/>
+    <hyperlink ref="E335" r:id="rId391"/>
+    <hyperlink ref="E336" r:id="rId392"/>
+    <hyperlink ref="E337" r:id="rId393"/>
+    <hyperlink ref="C337" r:id="rId394"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId384"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId395"/>
 </worksheet>
 </file>